--- a/use_cases/SMR_MeOH_2023/data/HERON_model_data.xlsx
+++ b/use_cases/SMR_MeOH_2023/data/HERON_model_data.xlsx
@@ -8,26 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrm/FORCE/use_cases/SMR_MeOH_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB36AC93-0787-614D-827B-E8C2FA76C069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CF9F85-E138-F34E-906F-6A3CF5E32509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="35840" windowHeight="20320" activeTab="8" xr2:uid="{3CE7F202-39F9-48AF-B0C7-575379157397}"/>
+    <workbookView xWindow="34080" yWindow="2020" windowWidth="30720" windowHeight="17120" activeTab="4" xr2:uid="{3CE7F202-39F9-48AF-B0C7-575379157397}"/>
   </bookViews>
   <sheets>
     <sheet name="SMR" sheetId="13" r:id="rId1"/>
-    <sheet name="Boundaries" sheetId="10" r:id="rId2"/>
-    <sheet name="HTSE_steps" sheetId="18" r:id="rId3"/>
-    <sheet name="MeOH_steps" sheetId="19" r:id="rId4"/>
-    <sheet name="storage_steps" sheetId="20" r:id="rId5"/>
-    <sheet name="PTC vs. ITC" sheetId="14" r:id="rId6"/>
-    <sheet name="MACRS" sheetId="1" r:id="rId7"/>
-    <sheet name="HTSE" sheetId="2" r:id="rId8"/>
-    <sheet name="MeOH" sheetId="16" r:id="rId9"/>
-    <sheet name="MeOH_original_data" sheetId="17" r:id="rId10"/>
-    <sheet name="Capacity_Market" sheetId="3" r:id="rId11"/>
-    <sheet name="Tax rates" sheetId="12" r:id="rId12"/>
+    <sheet name="Boundaries_5steps" sheetId="24" r:id="rId2"/>
+    <sheet name="Boundaries_6steps" sheetId="23" r:id="rId3"/>
+    <sheet name="Boundaries_7steps" sheetId="22" r:id="rId4"/>
+    <sheet name="Boundaries_8steps" sheetId="21" r:id="rId5"/>
+    <sheet name="Boundaries" sheetId="10" r:id="rId6"/>
+    <sheet name="HTSE_steps" sheetId="18" r:id="rId7"/>
+    <sheet name="MeOH_steps" sheetId="19" r:id="rId8"/>
+    <sheet name="storage_steps" sheetId="20" r:id="rId9"/>
+    <sheet name="PTC vs. ITC" sheetId="14" r:id="rId10"/>
+    <sheet name="MACRS" sheetId="1" r:id="rId11"/>
+    <sheet name="HTSE" sheetId="2" r:id="rId12"/>
+    <sheet name="MeOH" sheetId="16" r:id="rId13"/>
+    <sheet name="MeOH_original_data" sheetId="17" r:id="rId14"/>
+    <sheet name="Capacity_Market" sheetId="3" r:id="rId15"/>
+    <sheet name="Tax rates" sheetId="12" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="190">
   <si>
     <t>Source</t>
   </si>
@@ -613,16 +617,23 @@
   </si>
   <si>
     <t>location</t>
+  </si>
+  <si>
+    <t>htse</t>
+  </si>
+  <si>
+    <t>meoh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -939,7 +950,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -999,7 +1010,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1017,6 +1029,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1029,9 +1044,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1039,11 +1051,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2675,6 +2682,1070 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1763D785-0BD3-214B-94B7-2A4B796A3A87}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5">
+        <v>5569000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="16">
+        <v>0</v>
+      </c>
+      <c r="C9" s="25">
+        <f>C2*C5*C1/100</f>
+        <v>1202904000</v>
+      </c>
+      <c r="D9" s="25">
+        <f>C3*C1*(365*24*10)</f>
+        <v>1576800000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C10" s="41">
+        <f>C9</f>
+        <v>1202904000</v>
+      </c>
+      <c r="D10" s="42">
+        <f>C3*C1*(365*24)*(1-POWER(1/(1+B10),10))/(1-(1/(1+B10)))</f>
+        <v>1065762875.3502659</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17762179-2135-43B7-98DA-D4A6A7868310}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="85.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>49.222000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>49.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>49.220999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>49.220999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0215393-90AE-4217-9780-C6903F6FBFD3}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5">
+        <f>1/B3</f>
+        <v>2.7173913043478264E-2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>6.4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>590</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>763</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>544</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5">
+        <v>703</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="5">
+        <v>32.64</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3.41</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="12">
+        <v>20</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073C2611-1C98-4542-8DB1-2F02A6C58FDE}">
+  <dimension ref="A1:I44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H2">
+        <v>3.7854100000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="19">
+        <v>100</v>
+      </c>
+      <c r="C4" s="19">
+        <v>500</v>
+      </c>
+      <c r="D4" s="57">
+        <v>1000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5">
+        <f>[1]MeOH_original_data!B2*(1+MeOH!$B$2)</f>
+        <v>167921429.192</v>
+      </c>
+      <c r="C5">
+        <f>[1]MeOH_original_data!C2*(1+MeOH!$B$2)</f>
+        <v>376933297.796</v>
+      </c>
+      <c r="D5" s="56">
+        <f>[1]MeOH_original_data!D2*(1+MeOH!$B$2)</f>
+        <v>655027563.25600004</v>
+      </c>
+      <c r="G5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6">
+        <f>[1]MeOH_original_data!B3*(1+MeOH!$B$2)</f>
+        <v>11297541.948000001</v>
+      </c>
+      <c r="C6">
+        <f>[1]MeOH_original_data!C3*(1+MeOH!$B$2)</f>
+        <v>19962889.100000001</v>
+      </c>
+      <c r="D6" s="56">
+        <f>[1]MeOH_original_data!D3*(1+MeOH!$B$2)</f>
+        <v>27050057.672000002</v>
+      </c>
+      <c r="G6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B9:B13)</f>
+        <v>631442.96600000001</v>
+      </c>
+      <c r="C8">
+        <f>SUM(C9:C13)</f>
+        <v>3156650.1339999996</v>
+      </c>
+      <c r="D8" s="56">
+        <f>SUM(D9:D13)</f>
+        <v>6314321.8819999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12">
+        <f>0.25*[1]MeOH_original_data!B8*(1+MeOH!$B$2)</f>
+        <v>125952.00200000001</v>
+      </c>
+      <c r="C12">
+        <f>0.25*[1]MeOH_original_data!C8*(1+MeOH!$B$2)</f>
+        <v>629646.91899999999</v>
+      </c>
+      <c r="D12" s="10">
+        <f>0.25*[1]MeOH_original_data!D8*(1+MeOH!$B$2)</f>
+        <v>1259519.0079999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="18">
+        <f>0.25*[1]MeOH_original_data!B9*(1+MeOH!$B$2)</f>
+        <v>505490.96399999998</v>
+      </c>
+      <c r="C13" s="18">
+        <f>0.25*[1]MeOH_original_data!C9*(1+MeOH!$B$2)</f>
+        <v>2527003.2149999999</v>
+      </c>
+      <c r="D13" s="13">
+        <f>0.25*[1]MeOH_original_data!D9*(1+MeOH!$B$2)</f>
+        <v>5054802.8739999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="19">
+        <v>100</v>
+      </c>
+      <c r="C19" s="19">
+        <v>500</v>
+      </c>
+      <c r="D19" s="20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="F20" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="19">
+        <v>100</v>
+      </c>
+      <c r="H20" s="19">
+        <v>500</v>
+      </c>
+      <c r="I20" s="20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="53">
+        <f>[1]MeOH_original_data!B18*1000/(24)</f>
+        <v>2416.6666666666665</v>
+      </c>
+      <c r="C21" s="53">
+        <f>[1]MeOH_original_data!C18*1000/(24)</f>
+        <v>12125</v>
+      </c>
+      <c r="D21" s="52">
+        <f>[1]MeOH_original_data!D18*1000/(24)</f>
+        <v>24291.666666666668</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" s="51">
+        <v>1</v>
+      </c>
+      <c r="H21" s="51">
+        <v>1</v>
+      </c>
+      <c r="I21" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="45">
+        <f>[1]MeOH_original_data!B19*1000/(24)</f>
+        <v>14666.666666666666</v>
+      </c>
+      <c r="C22" s="45">
+        <f>[1]MeOH_original_data!C19*1000/(24)</f>
+        <v>73375</v>
+      </c>
+      <c r="D22" s="44">
+        <f>[1]MeOH_original_data!D19*1000/(24)</f>
+        <v>146791.66666666666</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" s="51">
+        <f>G$21*B22/B$21</f>
+        <v>6.068965517241379</v>
+      </c>
+      <c r="H22" s="51">
+        <f>H$21*C22/C21</f>
+        <v>6.0515463917525771</v>
+      </c>
+      <c r="I22" s="50">
+        <f>I$21*D22/D21</f>
+        <v>6.0428816466552311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="49">
+        <f>[1]MeOH_original_data!B20</f>
+        <v>5.5</v>
+      </c>
+      <c r="C23" s="49">
+        <f>[1]MeOH_original_data!C20</f>
+        <v>27</v>
+      </c>
+      <c r="D23" s="49">
+        <f>[1]MeOH_original_data!D20</f>
+        <v>53</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G23" s="51">
+        <f>G$21*B23/B$21</f>
+        <v>2.2758620689655173E-3</v>
+      </c>
+      <c r="H23" s="51">
+        <f>H$21*C23/C22</f>
+        <v>3.6797274275979556E-4</v>
+      </c>
+      <c r="I23" s="50">
+        <f>I$21*D23/D22</f>
+        <v>3.6105591825149024E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="61"/>
+      <c r="F24" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" s="51">
+        <f t="shared" ref="G24:I26" si="0">G$21*B25/B$21</f>
+        <v>4.1379310344827586E-2</v>
+      </c>
+      <c r="H24" s="51">
+        <f t="shared" si="0"/>
+        <v>4.192439862542955E-2</v>
+      </c>
+      <c r="I24" s="50">
+        <f t="shared" si="0"/>
+        <v>4.1852487135506003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="53">
+        <f>[1]MeOH_original_data!B22*1000/(24)</f>
+        <v>100</v>
+      </c>
+      <c r="C25" s="53">
+        <f>[1]MeOH_original_data!C22*1000/(24)</f>
+        <v>508.33333333333331</v>
+      </c>
+      <c r="D25" s="52">
+        <f>[1]MeOH_original_data!D22*1000/(24)</f>
+        <v>1016.6666666666666</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="51">
+        <f t="shared" si="0"/>
+        <v>0.34655172413793106</v>
+      </c>
+      <c r="H25" s="51">
+        <f t="shared" si="0"/>
+        <v>0.3446735395189004</v>
+      </c>
+      <c r="I25" s="50">
+        <f t="shared" si="0"/>
+        <v>0.34425385934819897</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="49">
+        <f>[1]MeOH_original_data!B23*1000/(24)</f>
+        <v>837.5</v>
+      </c>
+      <c r="C26" s="49">
+        <f>[1]MeOH_original_data!C23*1000/(24)</f>
+        <v>4179.166666666667</v>
+      </c>
+      <c r="D26" s="48">
+        <f>[1]MeOH_original_data!D23*1000/(24)</f>
+        <v>8362.5</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="47">
+        <f t="shared" si="0"/>
+        <v>1.4896551724137932</v>
+      </c>
+      <c r="H26" s="47">
+        <f t="shared" si="0"/>
+        <v>1.4838487972508592</v>
+      </c>
+      <c r="I26" s="46">
+        <f t="shared" si="0"/>
+        <v>1.481303602058319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="45">
+        <f>[1]MeOH_original_data!B24*1000/(24)</f>
+        <v>3600</v>
+      </c>
+      <c r="C27" s="45">
+        <f>[1]MeOH_original_data!C24*1000/(24)</f>
+        <v>17991.666666666668</v>
+      </c>
+      <c r="D27" s="44">
+        <f>[1]MeOH_original_data!D24*1000/(24)</f>
+        <v>35983.333333333336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>500</v>
+      </c>
+      <c r="D31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32">
+        <v>167921429.192</v>
+      </c>
+      <c r="C32">
+        <v>376933297.796</v>
+      </c>
+      <c r="D32">
+        <v>655027563.25600004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34">
+        <v>167921429.192</v>
+      </c>
+      <c r="C34">
+        <f>LN(A34/$A$36)</f>
+        <v>-2.3025850929940455</v>
+      </c>
+      <c r="D34">
+        <f>LN(B34)</f>
+        <v>18.939006744588596</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>500</v>
+      </c>
+      <c r="B35">
+        <v>376933297.796</v>
+      </c>
+      <c r="C35">
+        <f>LN(A35/$A$36)</f>
+        <v>-0.69314718055994529</v>
+      </c>
+      <c r="D35">
+        <f>LN(B35)</f>
+        <v>19.747578800835441</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1000</v>
+      </c>
+      <c r="B36">
+        <v>655027563.25600004</v>
+      </c>
+      <c r="C36">
+        <f>LN(A36/$A$36)</f>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f>LN(B36)</f>
+        <v>20.300187874021002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="43">
+        <f>EXP(20.237)</f>
+        <v>614918317.57584751</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="43">
+        <v>0.57550000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42">
+        <f>B19</f>
+        <v>100</v>
+      </c>
+      <c r="C42">
+        <f>C19</f>
+        <v>500</v>
+      </c>
+      <c r="D42">
+        <f>D19</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43">
+        <f>B21/B42</f>
+        <v>24.166666666666664</v>
+      </c>
+      <c r="C43">
+        <f>C21/C42</f>
+        <v>24.25</v>
+      </c>
+      <c r="D43">
+        <f>D21/D42</f>
+        <v>24.291666666666668</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44">
+        <f>B43</f>
+        <v>24.166666666666664</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A24:D24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2436AFE3-923D-0D45-AD95-63532D278F10}">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -2948,7 +4019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC147DE-C2D1-4559-861B-2B8673B56208}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -3080,7 +4151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5236045A-41A7-AF40-95B6-DBF867B04F6F}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3254,11 +4325,977 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E097CF18-9909-8C46-A95C-CC6E241EC727}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G1*ABS(-Boundaries!$D$14+Boundaries!$C$14)/4</f>
+        <v>-667</v>
+      </c>
+      <c r="B2" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G1*ABS(Boundaries!$E$14-Boundaries!$F$14)/4</f>
+        <v>-16761.71</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G2*ABS(-Boundaries!$D$14+Boundaries!$C$14)/4</f>
+        <v>-512</v>
+      </c>
+      <c r="B3" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G2*ABS(Boundaries!$E$14-Boundaries!$F$14)/4</f>
+        <v>-12866.56</v>
+      </c>
+      <c r="C3" s="59">
+        <f>Boundaries!$D$35+Boundaries!$G2*Boundaries!$E$35/4</f>
+        <v>201140.52</v>
+      </c>
+      <c r="D3" s="59">
+        <f>Boundaries!$D$36+Boundaries!$G2*Boundaries!$E$36/4</f>
+        <v>703991.82</v>
+      </c>
+      <c r="E3" s="59">
+        <f>Boundaries!$D$37+Boundaries!$G2*Boundaries!$E$37/4</f>
+        <v>201140.52</v>
+      </c>
+      <c r="F3" s="59">
+        <f>Boundaries!$D$38+Boundaries!$G2*Boundaries!$E$38/4</f>
+        <v>100570.26</v>
+      </c>
+      <c r="G3" s="59">
+        <f>Boundaries!$D$39+Boundaries!$G2*Boundaries!$E$39/4</f>
+        <v>1407983.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G3*ABS(-Boundaries!$D$14+Boundaries!$C$14)/4</f>
+        <v>-357</v>
+      </c>
+      <c r="B4" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G3*ABS(Boundaries!$E$14-Boundaries!$F$14)/4</f>
+        <v>-8971.41</v>
+      </c>
+      <c r="C4" s="59">
+        <f>Boundaries!$D$35+Boundaries!$G3*Boundaries!$E$35/4</f>
+        <v>402281.04</v>
+      </c>
+      <c r="D4" s="59">
+        <f>Boundaries!$D$36+Boundaries!$G3*Boundaries!$E$36/4</f>
+        <v>1407983.64</v>
+      </c>
+      <c r="E4" s="59">
+        <f>Boundaries!$D$37+Boundaries!$G3*Boundaries!$E$37/4</f>
+        <v>402281.04</v>
+      </c>
+      <c r="F4" s="59">
+        <f>Boundaries!$D$38+Boundaries!$G3*Boundaries!$E$38/4</f>
+        <v>201140.52</v>
+      </c>
+      <c r="G4" s="59">
+        <f>Boundaries!$D$39+Boundaries!$G3*Boundaries!$E$39/4</f>
+        <v>2815967.28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G4*ABS(-Boundaries!$D$14+Boundaries!$C$14)/4</f>
+        <v>-202</v>
+      </c>
+      <c r="B5" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G4*ABS(Boundaries!$E$14-Boundaries!$F$14)/4</f>
+        <v>-5076.26</v>
+      </c>
+      <c r="C5" s="59">
+        <f>Boundaries!$D$35+Boundaries!$G4*Boundaries!$E$35/4</f>
+        <v>603421.55999999994</v>
+      </c>
+      <c r="D5" s="59">
+        <f>Boundaries!$D$36+Boundaries!$G4*Boundaries!$E$36/4</f>
+        <v>2111975.46</v>
+      </c>
+      <c r="E5" s="59">
+        <f>Boundaries!$D$37+Boundaries!$G4*Boundaries!$E$37/4</f>
+        <v>603421.55999999994</v>
+      </c>
+      <c r="F5" s="59">
+        <f>Boundaries!$D$38+Boundaries!$G4*Boundaries!$E$38/4</f>
+        <v>301710.77999999997</v>
+      </c>
+      <c r="G5" s="59">
+        <f>Boundaries!$D$39+Boundaries!$G4*Boundaries!$E$39/4</f>
+        <v>4223950.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G5*ABS(-Boundaries!$D$14+Boundaries!$C$14)/4</f>
+        <v>-47</v>
+      </c>
+      <c r="B6" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G5*ABS(Boundaries!$E$14-Boundaries!$F$14)/4</f>
+        <v>-1181.1100000000006</v>
+      </c>
+      <c r="C6" s="59">
+        <f>Boundaries!$D$35+Boundaries!$G5*Boundaries!$E$35/4</f>
+        <v>804562.08</v>
+      </c>
+      <c r="D6" s="59">
+        <f>Boundaries!$D$36+Boundaries!$G5*Boundaries!$E$36/4</f>
+        <v>2815967.28</v>
+      </c>
+      <c r="E6" s="59">
+        <f>Boundaries!$D$37+Boundaries!$G5*Boundaries!$E$37/4</f>
+        <v>804562.08</v>
+      </c>
+      <c r="F6" s="59">
+        <f>Boundaries!$D$38+Boundaries!$G5*Boundaries!$E$38/4</f>
+        <v>402281.04</v>
+      </c>
+      <c r="G6" s="59">
+        <f>Boundaries!$D$39+Boundaries!$G5*Boundaries!$E$39/4</f>
+        <v>5631934.5599999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B3307B-CA76-7444-AF5A-06C423B8C77B}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G1*ABS(-Boundaries!$D$14+Boundaries!$C$14)/5</f>
+        <v>-667</v>
+      </c>
+      <c r="B2" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G1*ABS(Boundaries!$E$14-Boundaries!$F$14)/5</f>
+        <v>-16761.71</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G2*ABS(-Boundaries!$D$14+Boundaries!$C$14)/5</f>
+        <v>-543</v>
+      </c>
+      <c r="B3" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G2*ABS(Boundaries!$E$14-Boundaries!$F$14)/5</f>
+        <v>-13645.59</v>
+      </c>
+      <c r="C3" s="59">
+        <f>Boundaries!$D$35+Boundaries!$G2*Boundaries!$E$35/5</f>
+        <v>160912.416</v>
+      </c>
+      <c r="D3" s="59">
+        <f>Boundaries!$D$36+Boundaries!$G2*Boundaries!$E$36/5</f>
+        <v>563193.45600000001</v>
+      </c>
+      <c r="E3" s="59">
+        <f>Boundaries!$D$37+Boundaries!$G2*Boundaries!$E$37/5</f>
+        <v>160912.416</v>
+      </c>
+      <c r="F3" s="59">
+        <f>Boundaries!$D$38+Boundaries!$G2*Boundaries!$E$38/5</f>
+        <v>80456.207999999999</v>
+      </c>
+      <c r="G3" s="59">
+        <f>Boundaries!$D$39+Boundaries!$G2*Boundaries!$E$39/5</f>
+        <v>1126386.912</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G3*ABS(-Boundaries!$D$14+Boundaries!$C$14)/5</f>
+        <v>-419</v>
+      </c>
+      <c r="B4" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G3*ABS(Boundaries!$E$14-Boundaries!$F$14)/5</f>
+        <v>-10529.47</v>
+      </c>
+      <c r="C4" s="59">
+        <f>Boundaries!$D$35+Boundaries!$G3*Boundaries!$E$35/5</f>
+        <v>321824.83199999999</v>
+      </c>
+      <c r="D4" s="59">
+        <f>Boundaries!$D$36+Boundaries!$G3*Boundaries!$E$36/5</f>
+        <v>1126386.912</v>
+      </c>
+      <c r="E4" s="59">
+        <f>Boundaries!$D$37+Boundaries!$G3*Boundaries!$E$37/5</f>
+        <v>321824.83199999999</v>
+      </c>
+      <c r="F4" s="59">
+        <f>Boundaries!$D$38+Boundaries!$G3*Boundaries!$E$38/5</f>
+        <v>160912.416</v>
+      </c>
+      <c r="G4" s="59">
+        <f>Boundaries!$D$39+Boundaries!$G3*Boundaries!$E$39/5</f>
+        <v>2252773.824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G4*ABS(-Boundaries!$D$14+Boundaries!$C$14)/5</f>
+        <v>-295</v>
+      </c>
+      <c r="B5" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G4*ABS(Boundaries!$E$14-Boundaries!$F$14)/5</f>
+        <v>-7413.35</v>
+      </c>
+      <c r="C5" s="59">
+        <f>Boundaries!$D$35+Boundaries!$G4*Boundaries!$E$35/5</f>
+        <v>482737.24799999996</v>
+      </c>
+      <c r="D5" s="59">
+        <f>Boundaries!$D$36+Boundaries!$G4*Boundaries!$E$36/5</f>
+        <v>1689580.368</v>
+      </c>
+      <c r="E5" s="59">
+        <f>Boundaries!$D$37+Boundaries!$G4*Boundaries!$E$37/5</f>
+        <v>482737.24799999996</v>
+      </c>
+      <c r="F5" s="59">
+        <f>Boundaries!$D$38+Boundaries!$G4*Boundaries!$E$38/5</f>
+        <v>241368.62399999998</v>
+      </c>
+      <c r="G5" s="59">
+        <f>Boundaries!$D$39+Boundaries!$G4*Boundaries!$E$39/5</f>
+        <v>3379160.736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G5*ABS(-Boundaries!$D$14+Boundaries!$C$14)/5</f>
+        <v>-171</v>
+      </c>
+      <c r="B6" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G5*ABS(Boundaries!$E$14-Boundaries!$F$14)/5</f>
+        <v>-4297.2299999999996</v>
+      </c>
+      <c r="C6" s="59">
+        <f>Boundaries!$D$35+Boundaries!$G5*Boundaries!$E$35/5</f>
+        <v>643649.66399999999</v>
+      </c>
+      <c r="D6" s="59">
+        <f>Boundaries!$D$36+Boundaries!$G5*Boundaries!$E$36/5</f>
+        <v>2252773.824</v>
+      </c>
+      <c r="E6" s="59">
+        <f>Boundaries!$D$37+Boundaries!$G5*Boundaries!$E$37/5</f>
+        <v>643649.66399999999</v>
+      </c>
+      <c r="F6" s="59">
+        <f>Boundaries!$D$38+Boundaries!$G5*Boundaries!$E$38/5</f>
+        <v>321824.83199999999</v>
+      </c>
+      <c r="G6" s="59">
+        <f>Boundaries!$D$39+Boundaries!$G5*Boundaries!$E$39/5</f>
+        <v>4505547.648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G6*ABS(-Boundaries!$D$14+Boundaries!$C$14)/5</f>
+        <v>-47</v>
+      </c>
+      <c r="B7" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G6*ABS(Boundaries!$E$14-Boundaries!$F$14)/5</f>
+        <v>-1181.1099999999988</v>
+      </c>
+      <c r="C7" s="59">
+        <f>Boundaries!$D$35+Boundaries!$G6*Boundaries!$E$35/5</f>
+        <v>804562.08</v>
+      </c>
+      <c r="D7" s="59">
+        <f>Boundaries!$D$36+Boundaries!$G6*Boundaries!$E$36/5</f>
+        <v>2815967.28</v>
+      </c>
+      <c r="E7" s="59">
+        <f>Boundaries!$D$37+Boundaries!$G6*Boundaries!$E$37/5</f>
+        <v>804562.08</v>
+      </c>
+      <c r="F7" s="59">
+        <f>Boundaries!$D$38+Boundaries!$G6*Boundaries!$E$38/5</f>
+        <v>402281.04</v>
+      </c>
+      <c r="G7" s="59">
+        <f>Boundaries!$D$39+Boundaries!$G6*Boundaries!$E$39/5</f>
+        <v>5631934.5599999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91FF9F3-4AA7-AA4C-A030-03A748480A26}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G1*ABS(-Boundaries!$D$14+Boundaries!$C$14)/6</f>
+        <v>-667</v>
+      </c>
+      <c r="B2" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G1*ABS(Boundaries!$E$14-Boundaries!$F$14)/6</f>
+        <v>-16761.71</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G2*ABS(-Boundaries!$D$14+Boundaries!$C$14)/6</f>
+        <v>-563.66666666666663</v>
+      </c>
+      <c r="B3" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G2*ABS(Boundaries!$E$14-Boundaries!$F$14)/6</f>
+        <v>-14164.943333333333</v>
+      </c>
+      <c r="C3" s="59">
+        <f>Boundaries!$D$35+Boundaries!$G2*Boundaries!$E$35/6</f>
+        <v>134093.68</v>
+      </c>
+      <c r="D3" s="59">
+        <f>Boundaries!$D$36+Boundaries!$G2*Boundaries!$E$36/6</f>
+        <v>469327.87999999995</v>
+      </c>
+      <c r="E3" s="59">
+        <f>Boundaries!$D$37+Boundaries!$G2*Boundaries!$E$37/6</f>
+        <v>134093.68</v>
+      </c>
+      <c r="F3" s="59">
+        <f>Boundaries!$D$38+Boundaries!$G2*Boundaries!$E$38/6</f>
+        <v>67046.84</v>
+      </c>
+      <c r="G3" s="59">
+        <f>Boundaries!$D$39+Boundaries!$G2*Boundaries!$E$39/6</f>
+        <v>938655.75999999989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G3*ABS(-Boundaries!$D$14+Boundaries!$C$14)/6</f>
+        <v>-460.33333333333337</v>
+      </c>
+      <c r="B4" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G3*ABS(Boundaries!$E$14-Boundaries!$F$14)/6</f>
+        <v>-11568.176666666666</v>
+      </c>
+      <c r="C4" s="59">
+        <f>Boundaries!$D$35+Boundaries!$G3*Boundaries!$E$35/6</f>
+        <v>268187.36</v>
+      </c>
+      <c r="D4" s="59">
+        <f>Boundaries!$D$36+Boundaries!$G3*Boundaries!$E$36/6</f>
+        <v>938655.75999999989</v>
+      </c>
+      <c r="E4" s="59">
+        <f>Boundaries!$D$37+Boundaries!$G3*Boundaries!$E$37/6</f>
+        <v>268187.36</v>
+      </c>
+      <c r="F4" s="59">
+        <f>Boundaries!$D$38+Boundaries!$G3*Boundaries!$E$38/6</f>
+        <v>134093.68</v>
+      </c>
+      <c r="G4" s="59">
+        <f>Boundaries!$D$39+Boundaries!$G3*Boundaries!$E$39/6</f>
+        <v>1877311.5199999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G4*ABS(-Boundaries!$D$14+Boundaries!$C$14)/6</f>
+        <v>-357</v>
+      </c>
+      <c r="B5" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G4*ABS(Boundaries!$E$14-Boundaries!$F$14)/6</f>
+        <v>-8971.41</v>
+      </c>
+      <c r="C5" s="59">
+        <f>Boundaries!$D$35+Boundaries!$G4*Boundaries!$E$35/6</f>
+        <v>402281.04</v>
+      </c>
+      <c r="D5" s="59">
+        <f>Boundaries!$D$36+Boundaries!$G4*Boundaries!$E$36/6</f>
+        <v>1407983.64</v>
+      </c>
+      <c r="E5" s="59">
+        <f>Boundaries!$D$37+Boundaries!$G4*Boundaries!$E$37/6</f>
+        <v>402281.04</v>
+      </c>
+      <c r="F5" s="59">
+        <f>Boundaries!$D$38+Boundaries!$G4*Boundaries!$E$38/6</f>
+        <v>201140.52</v>
+      </c>
+      <c r="G5" s="59">
+        <f>Boundaries!$D$39+Boundaries!$G4*Boundaries!$E$39/6</f>
+        <v>2815967.28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G5*ABS(-Boundaries!$D$14+Boundaries!$C$14)/6</f>
+        <v>-253.66666666666669</v>
+      </c>
+      <c r="B6" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G5*ABS(Boundaries!$E$14-Boundaries!$F$14)/6</f>
+        <v>-6374.6433333333334</v>
+      </c>
+      <c r="C6" s="59">
+        <f>Boundaries!$D$35+Boundaries!$G5*Boundaries!$E$35/6</f>
+        <v>536374.72</v>
+      </c>
+      <c r="D6" s="59">
+        <f>Boundaries!$D$36+Boundaries!$G5*Boundaries!$E$36/6</f>
+        <v>1877311.5199999998</v>
+      </c>
+      <c r="E6" s="59">
+        <f>Boundaries!$D$37+Boundaries!$G5*Boundaries!$E$37/6</f>
+        <v>536374.72</v>
+      </c>
+      <c r="F6" s="59">
+        <f>Boundaries!$D$38+Boundaries!$G5*Boundaries!$E$38/6</f>
+        <v>268187.36</v>
+      </c>
+      <c r="G6" s="59">
+        <f>Boundaries!$D$39+Boundaries!$G5*Boundaries!$E$39/6</f>
+        <v>3754623.0399999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G6*ABS(-Boundaries!$D$14+Boundaries!$C$14)/6</f>
+        <v>-150.33333333333337</v>
+      </c>
+      <c r="B7" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G6*ABS(Boundaries!$E$14-Boundaries!$F$14)/6</f>
+        <v>-3777.8766666666652</v>
+      </c>
+      <c r="C7" s="59">
+        <f>Boundaries!$D$35+Boundaries!$G6*Boundaries!$E$35/6</f>
+        <v>670468.4</v>
+      </c>
+      <c r="D7" s="59">
+        <f>Boundaries!$D$36+Boundaries!$G6*Boundaries!$E$36/6</f>
+        <v>2346639.4</v>
+      </c>
+      <c r="E7" s="59">
+        <f>Boundaries!$D$37+Boundaries!$G6*Boundaries!$E$37/6</f>
+        <v>670468.4</v>
+      </c>
+      <c r="F7" s="59">
+        <f>Boundaries!$D$38+Boundaries!$G6*Boundaries!$E$38/6</f>
+        <v>335234.2</v>
+      </c>
+      <c r="G7" s="59">
+        <f>Boundaries!$D$39+Boundaries!$G6*Boundaries!$E$39/6</f>
+        <v>4693278.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G7*ABS(-Boundaries!$D$14+Boundaries!$C$14)/6</f>
+        <v>-47</v>
+      </c>
+      <c r="B8" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G7*ABS(Boundaries!$E$14-Boundaries!$F$14)/6</f>
+        <v>-1181.1100000000006</v>
+      </c>
+      <c r="C8" s="59">
+        <f>Boundaries!$D$35+Boundaries!$G7*Boundaries!$E$35/6</f>
+        <v>804562.08</v>
+      </c>
+      <c r="D8" s="59">
+        <f>Boundaries!$D$36+Boundaries!$G7*Boundaries!$E$36/6</f>
+        <v>2815967.28</v>
+      </c>
+      <c r="E8" s="59">
+        <f>Boundaries!$D$37+Boundaries!$G7*Boundaries!$E$37/6</f>
+        <v>804562.08</v>
+      </c>
+      <c r="F8" s="59">
+        <f>Boundaries!$D$38+Boundaries!$G7*Boundaries!$E$38/6</f>
+        <v>402281.04</v>
+      </c>
+      <c r="G8" s="59">
+        <f>Boundaries!$D$39+Boundaries!$G7*Boundaries!$E$39/6</f>
+        <v>5631934.5599999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3F718A-F13F-7C48-917B-F73C41DAC566}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G1*ABS(-Boundaries!$D$14+Boundaries!$C$14)/7</f>
+        <v>-667</v>
+      </c>
+      <c r="B2" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G1*ABS(Boundaries!$E$14-Boundaries!$F$14)/7</f>
+        <v>-16761.71</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G2*ABS(-Boundaries!$D$14+Boundaries!$C$14)/7</f>
+        <v>-578.42857142857144</v>
+      </c>
+      <c r="B3" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G2*ABS(Boundaries!$E$14-Boundaries!$F$14)/7</f>
+        <v>-14535.91</v>
+      </c>
+      <c r="C3" s="59">
+        <f>Boundaries!$D$35+Boundaries!$G2*Boundaries!$E$35/7</f>
+        <v>114937.43999999999</v>
+      </c>
+      <c r="D3" s="59">
+        <f>Boundaries!$D$36+Boundaries!$G2*Boundaries!$E$36/7</f>
+        <v>402281.04</v>
+      </c>
+      <c r="E3" s="59">
+        <f>Boundaries!$D$37+Boundaries!$G2*Boundaries!$E$37/7</f>
+        <v>114937.43999999999</v>
+      </c>
+      <c r="F3" s="59">
+        <f>Boundaries!$D$38+Boundaries!$G2*Boundaries!$E$38/7</f>
+        <v>57468.719999999994</v>
+      </c>
+      <c r="G3" s="59">
+        <f>Boundaries!$D$39+Boundaries!$G2*Boundaries!$E$39/7</f>
+        <v>804562.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G3*ABS(-Boundaries!$D$14+Boundaries!$C$14)/7</f>
+        <v>-489.85714285714289</v>
+      </c>
+      <c r="B4" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G3*ABS(Boundaries!$E$14-Boundaries!$F$14)/7</f>
+        <v>-12310.11</v>
+      </c>
+      <c r="C4" s="59">
+        <f>Boundaries!$D$35+Boundaries!$G3*Boundaries!$E$35/7</f>
+        <v>229874.87999999998</v>
+      </c>
+      <c r="D4" s="59">
+        <f>Boundaries!$D$36+Boundaries!$G3*Boundaries!$E$36/7</f>
+        <v>804562.08</v>
+      </c>
+      <c r="E4" s="59">
+        <f>Boundaries!$D$37+Boundaries!$G3*Boundaries!$E$37/7</f>
+        <v>229874.87999999998</v>
+      </c>
+      <c r="F4" s="59">
+        <f>Boundaries!$D$38+Boundaries!$G3*Boundaries!$E$38/7</f>
+        <v>114937.43999999999</v>
+      </c>
+      <c r="G4" s="59">
+        <f>Boundaries!$D$39+Boundaries!$G3*Boundaries!$E$39/7</f>
+        <v>1609124.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G4*ABS(-Boundaries!$D$14+Boundaries!$C$14)/7</f>
+        <v>-401.28571428571428</v>
+      </c>
+      <c r="B5" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G4*ABS(Boundaries!$E$14-Boundaries!$F$14)/7</f>
+        <v>-10084.31</v>
+      </c>
+      <c r="C5" s="59">
+        <f>Boundaries!$D$35+Boundaries!$G4*Boundaries!$E$35/7</f>
+        <v>344812.31999999995</v>
+      </c>
+      <c r="D5" s="59">
+        <f>Boundaries!$D$36+Boundaries!$G4*Boundaries!$E$36/7</f>
+        <v>1206843.1199999999</v>
+      </c>
+      <c r="E5" s="59">
+        <f>Boundaries!$D$37+Boundaries!$G4*Boundaries!$E$37/7</f>
+        <v>344812.31999999995</v>
+      </c>
+      <c r="F5" s="59">
+        <f>Boundaries!$D$38+Boundaries!$G4*Boundaries!$E$38/7</f>
+        <v>172406.15999999997</v>
+      </c>
+      <c r="G5" s="59">
+        <f>Boundaries!$D$39+Boundaries!$G4*Boundaries!$E$39/7</f>
+        <v>2413686.2399999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G5*ABS(-Boundaries!$D$14+Boundaries!$C$14)/7</f>
+        <v>-312.71428571428572</v>
+      </c>
+      <c r="B6" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G5*ABS(Boundaries!$E$14-Boundaries!$F$14)/7</f>
+        <v>-7858.51</v>
+      </c>
+      <c r="C6" s="59">
+        <f>Boundaries!$D$35+Boundaries!$G5*Boundaries!$E$35/7</f>
+        <v>459749.75999999995</v>
+      </c>
+      <c r="D6" s="59">
+        <f>Boundaries!$D$36+Boundaries!$G5*Boundaries!$E$36/7</f>
+        <v>1609124.16</v>
+      </c>
+      <c r="E6" s="59">
+        <f>Boundaries!$D$37+Boundaries!$G5*Boundaries!$E$37/7</f>
+        <v>459749.75999999995</v>
+      </c>
+      <c r="F6" s="59">
+        <f>Boundaries!$D$38+Boundaries!$G5*Boundaries!$E$38/7</f>
+        <v>229874.87999999998</v>
+      </c>
+      <c r="G6" s="59">
+        <f>Boundaries!$D$39+Boundaries!$G5*Boundaries!$E$39/7</f>
+        <v>3218248.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G6*ABS(-Boundaries!$D$14+Boundaries!$C$14)/7</f>
+        <v>-224.14285714285717</v>
+      </c>
+      <c r="B7" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G6*ABS(Boundaries!$E$14-Boundaries!$F$14)/7</f>
+        <v>-5632.7099999999991</v>
+      </c>
+      <c r="C7" s="59">
+        <f>Boundaries!$D$35+Boundaries!$G6*Boundaries!$E$35/7</f>
+        <v>574687.19999999995</v>
+      </c>
+      <c r="D7" s="59">
+        <f>Boundaries!$D$36+Boundaries!$G6*Boundaries!$E$36/7</f>
+        <v>2011405.1999999997</v>
+      </c>
+      <c r="E7" s="59">
+        <f>Boundaries!$D$37+Boundaries!$G6*Boundaries!$E$37/7</f>
+        <v>574687.19999999995</v>
+      </c>
+      <c r="F7" s="59">
+        <f>Boundaries!$D$38+Boundaries!$G6*Boundaries!$E$38/7</f>
+        <v>287343.59999999998</v>
+      </c>
+      <c r="G7" s="59">
+        <f>Boundaries!$D$39+Boundaries!$G6*Boundaries!$E$39/7</f>
+        <v>4022810.3999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G7*ABS(-Boundaries!$D$14+Boundaries!$C$14)/7</f>
+        <v>-135.57142857142856</v>
+      </c>
+      <c r="B8" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G7*ABS(Boundaries!$E$14-Boundaries!$F$14)/7</f>
+        <v>-3406.91</v>
+      </c>
+      <c r="C8" s="59">
+        <f>Boundaries!$D$35+Boundaries!$G7*Boundaries!$E$35/7</f>
+        <v>689624.6399999999</v>
+      </c>
+      <c r="D8" s="59">
+        <f>Boundaries!$D$36+Boundaries!$G7*Boundaries!$E$36/7</f>
+        <v>2413686.2399999998</v>
+      </c>
+      <c r="E8" s="59">
+        <f>Boundaries!$D$37+Boundaries!$G7*Boundaries!$E$37/7</f>
+        <v>689624.6399999999</v>
+      </c>
+      <c r="F8" s="59">
+        <f>Boundaries!$D$38+Boundaries!$G7*Boundaries!$E$38/7</f>
+        <v>344812.31999999995</v>
+      </c>
+      <c r="G8" s="59">
+        <f>Boundaries!$D$39+Boundaries!$G7*Boundaries!$E$39/7</f>
+        <v>4827372.4799999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="59">
+        <f>Boundaries!$C$14+Boundaries!$G8*ABS(-Boundaries!$D$14+Boundaries!$C$14)/7</f>
+        <v>-47</v>
+      </c>
+      <c r="B9" s="59">
+        <f>Boundaries!$E$14+Boundaries!$G8*ABS(Boundaries!$E$14-Boundaries!$F$14)/7</f>
+        <v>-1181.1100000000024</v>
+      </c>
+      <c r="C9" s="59">
+        <f>Boundaries!$D$35+Boundaries!$G8*Boundaries!$E$35/7</f>
+        <v>804562.08</v>
+      </c>
+      <c r="D9" s="59">
+        <f>Boundaries!$D$36+Boundaries!$G8*Boundaries!$E$36/7</f>
+        <v>2815967.28</v>
+      </c>
+      <c r="E9" s="59">
+        <f>Boundaries!$D$37+Boundaries!$G8*Boundaries!$E$37/7</f>
+        <v>804562.08</v>
+      </c>
+      <c r="F9" s="59">
+        <f>Boundaries!$D$38+Boundaries!$G8*Boundaries!$E$38/7</f>
+        <v>402281.04</v>
+      </c>
+      <c r="G9" s="59">
+        <f>Boundaries!$D$39+Boundaries!$G8*Boundaries!$E$39/7</f>
+        <v>5631934.5599999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9241F20-95C4-42A2-B03A-23B9DD4DBFA3}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:A39"/>
+    <sheetView topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3282,6 +5319,9 @@
       <c r="B1" t="s">
         <v>70</v>
       </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -3290,11 +5330,17 @@
       <c r="B2" t="s">
         <v>73</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>71</v>
       </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -3306,6 +5352,9 @@
       <c r="C4" t="s">
         <v>28</v>
       </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3317,6 +5366,9 @@
       <c r="C5" t="s">
         <v>61</v>
       </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3328,6 +5380,9 @@
       <c r="C6" t="s">
         <v>61</v>
       </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3339,6 +5394,9 @@
       <c r="C7" t="s">
         <v>61</v>
       </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3350,6 +5408,9 @@
       <c r="C8" t="s">
         <v>61</v>
       </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -3361,32 +5422,35 @@
       <c r="C9" t="s">
         <v>61</v>
       </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59" t="s">
+      <c r="D12" s="66"/>
+      <c r="E12" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="65"/>
       <c r="C13" t="s">
         <v>109</v>
       </c>
@@ -3479,19 +5543,19 @@
     </row>
     <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="70"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
@@ -3538,39 +5602,39 @@
         <v>-667</v>
       </c>
       <c r="C22" s="26">
-        <f>$C14+C$21*ABS($C14-$D14)/9</f>
+        <f t="shared" ref="C22:K22" si="5">$C14+C$21*ABS($C14-$D14)/9</f>
         <v>-598.11111111111109</v>
       </c>
       <c r="D22" s="39">
-        <f>$C14+D$21*ABS($C14-$D14)/9</f>
+        <f t="shared" si="5"/>
         <v>-529.22222222222217</v>
       </c>
       <c r="E22" s="26">
-        <f>$C14+E$21*ABS($C14-$D14)/9</f>
+        <f t="shared" si="5"/>
         <v>-460.33333333333337</v>
       </c>
       <c r="F22" s="39">
-        <f>$C14+F$21*ABS($C14-$D14)/9</f>
+        <f t="shared" si="5"/>
         <v>-391.44444444444446</v>
       </c>
       <c r="G22" s="26">
-        <f>$C14+G$21*ABS($C14-$D14)/9</f>
+        <f t="shared" si="5"/>
         <v>-322.55555555555554</v>
       </c>
       <c r="H22" s="39">
-        <f>$C14+H$21*ABS($C14-$D14)/9</f>
+        <f t="shared" si="5"/>
         <v>-253.66666666666669</v>
       </c>
       <c r="I22" s="26">
-        <f>$C14+I$21*ABS($C14-$D14)/9</f>
+        <f t="shared" si="5"/>
         <v>-184.77777777777777</v>
       </c>
       <c r="J22" s="39">
-        <f>$C14+J$21*ABS($C14-$D14)/9</f>
+        <f t="shared" si="5"/>
         <v>-115.88888888888891</v>
       </c>
       <c r="K22" s="29">
-        <f>$C14+K$21*ABS($C14-$D14)/9</f>
+        <f t="shared" si="5"/>
         <v>-47</v>
       </c>
     </row>
@@ -3580,43 +5644,43 @@
         <v>20MWe</v>
       </c>
       <c r="B23" s="39">
-        <f>$C15+B$21*ABS($C15-$D15)/9</f>
+        <f t="shared" ref="B23:K23" si="6">$C15+B$21*ABS($C15-$D15)/9</f>
         <v>-187</v>
       </c>
       <c r="C23" s="26">
-        <f>$C15+C$21*ABS($C15-$D15)/9</f>
+        <f t="shared" si="6"/>
         <v>-171.44444444444446</v>
       </c>
       <c r="D23" s="39">
-        <f>$C15+D$21*ABS($C15-$D15)/9</f>
+        <f t="shared" si="6"/>
         <v>-155.88888888888889</v>
       </c>
       <c r="E23" s="26">
-        <f>$C15+E$21*ABS($C15-$D15)/9</f>
+        <f t="shared" si="6"/>
         <v>-140.33333333333334</v>
       </c>
       <c r="F23" s="39">
-        <f>$C15+F$21*ABS($C15-$D15)/9</f>
+        <f t="shared" si="6"/>
         <v>-124.77777777777777</v>
       </c>
       <c r="G23" s="26">
-        <f>$C15+G$21*ABS($C15-$D15)/9</f>
+        <f t="shared" si="6"/>
         <v>-109.22222222222223</v>
       </c>
       <c r="H23" s="39">
-        <f>$C15+H$21*ABS($C15-$D15)/9</f>
+        <f t="shared" si="6"/>
         <v>-93.666666666666671</v>
       </c>
       <c r="I23" s="26">
-        <f>$C15+I$21*ABS($C15-$D15)/9</f>
+        <f t="shared" si="6"/>
         <v>-78.111111111111114</v>
       </c>
       <c r="J23" s="39">
-        <f>$C15+J$21*ABS($C15-$D15)/9</f>
+        <f t="shared" si="6"/>
         <v>-62.555555555555557</v>
       </c>
       <c r="K23" s="29">
-        <f>$C15+K$21*ABS($C15-$D15)/9</f>
+        <f t="shared" si="6"/>
         <v>-47</v>
       </c>
     </row>
@@ -3626,61 +5690,61 @@
         <v>100MWe</v>
       </c>
       <c r="B24" s="39">
-        <f>$C16+B$21*ABS($C16-$D16)/9</f>
+        <f t="shared" ref="B24:K24" si="7">$C16+B$21*ABS($C16-$D16)/9</f>
         <v>-947</v>
       </c>
       <c r="C24" s="30">
-        <f>$C16+C$21*ABS($C16-$D16)/9</f>
+        <f t="shared" si="7"/>
         <v>-847</v>
       </c>
       <c r="D24" s="39">
-        <f>$C16+D$21*ABS($C16-$D16)/9</f>
+        <f t="shared" si="7"/>
         <v>-747</v>
       </c>
       <c r="E24" s="30">
-        <f>$C16+E$21*ABS($C16-$D16)/9</f>
+        <f t="shared" si="7"/>
         <v>-647</v>
       </c>
       <c r="F24" s="39">
-        <f>$C16+F$21*ABS($C16-$D16)/9</f>
+        <f t="shared" si="7"/>
         <v>-547</v>
       </c>
       <c r="G24" s="30">
-        <f>$C16+G$21*ABS($C16-$D16)/9</f>
+        <f t="shared" si="7"/>
         <v>-447</v>
       </c>
       <c r="H24" s="39">
-        <f>$C16+H$21*ABS($C16-$D16)/9</f>
+        <f t="shared" si="7"/>
         <v>-347</v>
       </c>
       <c r="I24" s="30">
-        <f>$C16+I$21*ABS($C16-$D16)/9</f>
+        <f t="shared" si="7"/>
         <v>-247</v>
       </c>
       <c r="J24" s="39">
-        <f>$C16+J$21*ABS($C16-$D16)/9</f>
+        <f t="shared" si="7"/>
         <v>-147</v>
       </c>
       <c r="K24" s="31">
-        <f>$C16+K$21*ABS($C16-$D16)/9</f>
+        <f t="shared" si="7"/>
         <v>-47</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="68"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="70"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
@@ -3723,43 +5787,43 @@
         <v>Ref</v>
       </c>
       <c r="B28" s="39">
-        <f>$E14+B$27*ABS($E14-$F14)/9</f>
+        <f t="shared" ref="B28:K28" si="8">$E14+B$27*ABS($E14-$F14)/9</f>
         <v>-16761.71</v>
       </c>
       <c r="C28" s="26">
-        <f>$E14+C$27*ABS($E14-$F14)/9</f>
+        <f t="shared" si="8"/>
         <v>-15030.532222222222</v>
       </c>
       <c r="D28" s="39">
-        <f>$E14+D$27*ABS($E14-$F14)/9</f>
+        <f t="shared" si="8"/>
         <v>-13299.354444444443</v>
       </c>
       <c r="E28" s="26">
-        <f>$E14+E$27*ABS($E14-$F14)/9</f>
+        <f t="shared" si="8"/>
         <v>-11568.176666666666</v>
       </c>
       <c r="F28" s="39">
-        <f>$E14+F$27*ABS($E14-$F14)/9</f>
+        <f t="shared" si="8"/>
         <v>-9836.9988888888874</v>
       </c>
       <c r="G28" s="26">
-        <f>$E14+G$27*ABS($E14-$F14)/9</f>
+        <f t="shared" si="8"/>
         <v>-8105.8211111111104</v>
       </c>
       <c r="H28" s="39">
-        <f>$E14+H$27*ABS($E14-$F14)/9</f>
+        <f t="shared" si="8"/>
         <v>-6374.6433333333334</v>
       </c>
       <c r="I28" s="26">
-        <f>$E14+I$27*ABS($E14-$F14)/9</f>
+        <f t="shared" si="8"/>
         <v>-4643.4655555555564</v>
       </c>
       <c r="J28" s="39">
-        <f>$E14+J$27*ABS($E14-$F14)/9</f>
+        <f t="shared" si="8"/>
         <v>-2912.2877777777776</v>
       </c>
       <c r="K28" s="29">
-        <f>$E14+K$27*ABS($E14-$F14)/9</f>
+        <f t="shared" si="8"/>
         <v>-1181.1100000000006</v>
       </c>
     </row>
@@ -3769,43 +5833,43 @@
         <v>20MWe</v>
       </c>
       <c r="B29" s="39">
-        <f>$E15+B$27*ABS($E15-$F15)/9</f>
+        <f t="shared" ref="B29:K29" si="9">$E15+B$27*ABS($E15-$F15)/9</f>
         <v>-4699.3099999999995</v>
       </c>
       <c r="C29" s="26">
-        <f>$E15+C$27*ABS($E15-$F15)/9</f>
+        <f t="shared" si="9"/>
         <v>-4308.398888888888</v>
       </c>
       <c r="D29" s="39">
-        <f>$E15+D$27*ABS($E15-$F15)/9</f>
+        <f t="shared" si="9"/>
         <v>-3917.4877777777774</v>
       </c>
       <c r="E29" s="26">
-        <f>$E15+E$27*ABS($E15-$F15)/9</f>
+        <f t="shared" si="9"/>
         <v>-3526.5766666666664</v>
       </c>
       <c r="F29" s="39">
-        <f>$E15+F$27*ABS($E15-$F15)/9</f>
+        <f t="shared" si="9"/>
         <v>-3135.6655555555553</v>
       </c>
       <c r="G29" s="26">
-        <f>$E15+G$27*ABS($E15-$F15)/9</f>
+        <f t="shared" si="9"/>
         <v>-2744.7544444444438</v>
       </c>
       <c r="H29" s="39">
-        <f>$E15+H$27*ABS($E15-$F15)/9</f>
+        <f t="shared" si="9"/>
         <v>-2353.8433333333332</v>
       </c>
       <c r="I29" s="26">
-        <f>$E15+I$27*ABS($E15-$F15)/9</f>
+        <f t="shared" si="9"/>
         <v>-1962.9322222222218</v>
       </c>
       <c r="J29" s="39">
-        <f>$E15+J$27*ABS($E15-$F15)/9</f>
+        <f t="shared" si="9"/>
         <v>-1572.0211111111107</v>
       </c>
       <c r="K29" s="29">
-        <f>$E15+K$27*ABS($E15-$F15)/9</f>
+        <f t="shared" si="9"/>
         <v>-1181.1099999999997</v>
       </c>
       <c r="L29" s="26"/>
@@ -3816,43 +5880,43 @@
         <v>100MWe</v>
       </c>
       <c r="B30" s="39">
-        <f>$E16+B$27*ABS($E16-$F16)/9</f>
+        <f t="shared" ref="B30:K30" si="10">$E16+B$27*ABS($E16-$F16)/9</f>
         <v>-23798.11</v>
       </c>
       <c r="C30" s="30">
-        <f>$E16+C$27*ABS($E16-$F16)/9</f>
+        <f t="shared" si="10"/>
         <v>-21285.11</v>
       </c>
       <c r="D30" s="39">
-        <f>$E16+D$27*ABS($E16-$F16)/9</f>
+        <f t="shared" si="10"/>
         <v>-18772.11</v>
       </c>
       <c r="E30" s="30">
-        <f>$E16+E$27*ABS($E16-$F16)/9</f>
+        <f t="shared" si="10"/>
         <v>-16259.11</v>
       </c>
       <c r="F30" s="39">
-        <f>$E16+F$27*ABS($E16-$F16)/9</f>
+        <f t="shared" si="10"/>
         <v>-13746.11</v>
       </c>
       <c r="G30" s="30">
-        <f>$E16+G$27*ABS($E16-$F16)/9</f>
+        <f t="shared" si="10"/>
         <v>-11233.11</v>
       </c>
       <c r="H30" s="39">
-        <f>$E16+H$27*ABS($E16-$F16)/9</f>
+        <f t="shared" si="10"/>
         <v>-8720.11</v>
       </c>
       <c r="I30" s="30">
-        <f>$E16+I$27*ABS($E16-$F16)/9</f>
+        <f t="shared" si="10"/>
         <v>-6207.1100000000006</v>
       </c>
       <c r="J30" s="39">
-        <f>$E16+J$27*ABS($E16-$F16)/9</f>
+        <f t="shared" si="10"/>
         <v>-3694.1100000000006</v>
       </c>
       <c r="K30" s="31">
-        <f>$E16+K$27*ABS($E16-$F16)/9</f>
+        <f t="shared" si="10"/>
         <v>-1181.1100000000006</v>
       </c>
     </row>
@@ -3868,37 +5932,32 @@
       <c r="J31" s="26"/>
       <c r="K31" s="26"/>
     </row>
-    <row r="32" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-    </row>
-    <row r="33" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="s">
         <v>117</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
-      <c r="D33" s="69" t="str">
+      <c r="D33" s="60" t="str">
         <f>A14</f>
         <v>Ref</v>
       </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="69" t="str">
+      <c r="E33" s="61"/>
+      <c r="F33" s="60" t="str">
         <f>A15</f>
         <v>20MWe</v>
       </c>
-      <c r="G33" s="60"/>
-      <c r="H33" s="69" t="str">
+      <c r="G33" s="61"/>
+      <c r="H33" s="60" t="str">
         <f>A30</f>
         <v>100MWe</v>
       </c>
-      <c r="I33" s="60"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="74"/>
-    </row>
-    <row r="34" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="61"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+    </row>
+    <row r="34" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>118</v>
       </c>
@@ -3926,16 +5985,13 @@
       <c r="I34" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B35" s="32">
-        <f t="shared" ref="B35:B37" si="5">ROUNDUP(C35*$B$39/$C$39,0)</f>
+        <f t="shared" ref="B35:B37" si="11">ROUNDUP(C35*$B$39/$C$39,0)</f>
         <v>2</v>
       </c>
       <c r="C35" s="32">
@@ -3958,20 +6014,19 @@
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="I35" s="73">
+      <c r="I35" s="26">
         <f>ABS($E$16*24*$B35)</f>
         <v>1142309.28</v>
       </c>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="74"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>104</v>
       </c>
       <c r="B36" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="C36" s="32">
@@ -3988,26 +6043,25 @@
         <v>0</v>
       </c>
       <c r="G36" s="26">
-        <f t="shared" ref="G36:G39" si="6">ABS($E$15)*24*$B36</f>
+        <f t="shared" ref="G36:G39" si="12">ABS($E$15)*24*$B36</f>
         <v>789484.08</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
-      <c r="I36" s="73">
-        <f t="shared" ref="I36:M39" si="7">ABS($E$16*24*$B36)</f>
+      <c r="I36" s="26">
+        <f t="shared" ref="I36:I39" si="13">ABS($E$16*24*$B36)</f>
         <v>3998082.48</v>
       </c>
-      <c r="J36" s="73"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="74"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B37" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C37" s="32">
@@ -4024,21 +6078,20 @@
         <v>0</v>
       </c>
       <c r="G37" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>225566.87999999998</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
-      <c r="I37" s="73">
-        <f t="shared" si="7"/>
+      <c r="I37" s="26">
+        <f t="shared" si="13"/>
         <v>1142309.28</v>
       </c>
-      <c r="J37" s="73"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="74"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>103</v>
       </c>
@@ -4060,21 +6113,20 @@
         <v>0</v>
       </c>
       <c r="G38" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>112783.43999999999</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38" s="73">
-        <f t="shared" si="7"/>
+      <c r="I38" s="26">
+        <f t="shared" si="13"/>
         <v>571154.64</v>
       </c>
-      <c r="J38" s="73"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="74"/>
-    </row>
-    <row r="39" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+    </row>
+    <row r="39" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>101</v>
       </c>
@@ -4095,22 +6147,21 @@
         <v>0</v>
       </c>
       <c r="G39" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1578968.16</v>
       </c>
       <c r="H39" s="18">
         <v>0</v>
       </c>
       <c r="I39" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>7996164.96</v>
       </c>
-      <c r="J39" s="73"/>
-      <c r="K39" s="73"/>
-      <c r="L39" s="74"/>
-    </row>
-    <row r="40" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+    </row>
+    <row r="40" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="37" t="s">
         <v>130</v>
       </c>
@@ -4145,7 +6196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="str">
         <f>A35</f>
         <v>illinois</v>
@@ -4159,133 +6210,133 @@
         <v>89395.786666666667</v>
       </c>
       <c r="D42" s="26">
-        <f t="shared" ref="D42:K42" si="8">$D35+D$41*ABS($E35-$D35)/9</f>
+        <f t="shared" ref="D42:K42" si="14">$D35+D$41*ABS($E35-$D35)/9</f>
         <v>178791.57333333333</v>
       </c>
       <c r="E42" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>268187.36</v>
       </c>
       <c r="F42" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>357583.14666666667</v>
       </c>
       <c r="G42" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>446978.93333333335</v>
       </c>
       <c r="H42" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>536374.72</v>
       </c>
       <c r="I42" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>625770.5066666666</v>
       </c>
       <c r="J42" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>715166.29333333333</v>
       </c>
       <c r="K42" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>804562.08</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="str">
-        <f t="shared" ref="A43:A46" si="9">A36</f>
+        <f t="shared" ref="A43:A46" si="15">A36</f>
         <v>nebraska</v>
       </c>
       <c r="B43" s="26">
-        <f t="shared" ref="B43:K46" si="10">$D36+B$41*ABS($E36-$D36)/9</f>
+        <f t="shared" ref="B43:K46" si="16">$D36+B$41*ABS($E36-$D36)/9</f>
         <v>0</v>
       </c>
       <c r="C43" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>312885.2533333333</v>
       </c>
       <c r="D43" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>625770.5066666666</v>
       </c>
       <c r="E43" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>938655.76</v>
       </c>
       <c r="F43" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1251541.0133333332</v>
       </c>
       <c r="G43" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1564426.2666666666</v>
       </c>
       <c r="H43" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1877311.52</v>
       </c>
       <c r="I43" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2190196.773333333</v>
       </c>
       <c r="J43" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2503082.0266666664</v>
       </c>
       <c r="K43" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2815967.28</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>ohio</v>
       </c>
       <c r="B44" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C44" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>89395.786666666667</v>
       </c>
       <c r="D44" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>178791.57333333333</v>
       </c>
       <c r="E44" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>268187.36</v>
       </c>
       <c r="F44" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>357583.14666666667</v>
       </c>
       <c r="G44" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>446978.93333333335</v>
       </c>
       <c r="H44" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>536374.72</v>
       </c>
       <c r="I44" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>625770.5066666666</v>
       </c>
       <c r="J44" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>715166.29333333333</v>
       </c>
       <c r="K44" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>804562.08</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>minnesota</v>
       </c>
       <c r="B45" s="26">
@@ -4293,49 +6344,49 @@
         <v>0</v>
       </c>
       <c r="C45" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>44697.893333333333</v>
       </c>
       <c r="D45" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>89395.786666666667</v>
       </c>
       <c r="E45" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>134093.68</v>
       </c>
       <c r="F45" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>178791.57333333333</v>
       </c>
       <c r="G45" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>223489.46666666667</v>
       </c>
       <c r="H45" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>268187.36</v>
       </c>
       <c r="I45" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>312885.2533333333</v>
       </c>
       <c r="J45" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>357583.14666666667</v>
       </c>
       <c r="K45" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>402281.04</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>texas</v>
       </c>
       <c r="B46" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C46" s="30">
@@ -4343,40 +6394,40 @@
         <v>625770.5066666666</v>
       </c>
       <c r="D46" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1251541.0133333332</v>
       </c>
       <c r="E46" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1877311.52</v>
       </c>
       <c r="F46" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2503082.0266666664</v>
       </c>
       <c r="G46" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3128852.5333333332</v>
       </c>
       <c r="H46" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3754623.04</v>
       </c>
       <c r="I46" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>4380393.5466666659</v>
       </c>
       <c r="J46" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>5006164.0533333328</v>
       </c>
       <c r="K46" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>5631934.5599999996</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="37" t="str">
         <f>F33</f>
         <v>20MWe</v>
@@ -4426,137 +6477,137 @@
         <v>25062.986666666664</v>
       </c>
       <c r="D49" s="39">
-        <f t="shared" ref="D49:K49" si="11">$F35+D$41*ABS($G35-$F35)/9</f>
+        <f t="shared" ref="D49:K49" si="17">$F35+D$41*ABS($G35-$F35)/9</f>
         <v>50125.973333333328</v>
       </c>
       <c r="E49" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>75188.959999999992</v>
       </c>
       <c r="F49" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>100251.94666666666</v>
       </c>
       <c r="G49" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>125314.93333333332</v>
       </c>
       <c r="H49" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>150377.91999999998</v>
       </c>
       <c r="I49" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>175440.90666666665</v>
       </c>
       <c r="J49" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>200503.89333333331</v>
       </c>
       <c r="K49" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>225566.87999999998</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="str">
-        <f t="shared" ref="A50:A53" si="12">A43</f>
+        <f t="shared" ref="A50:A53" si="18">A43</f>
         <v>nebraska</v>
       </c>
       <c r="B50" s="39">
-        <f t="shared" ref="B50:K53" si="13">$F36+B$41*ABS($G36-$F36)/9</f>
+        <f t="shared" ref="B50:K53" si="19">$F36+B$41*ABS($G36-$F36)/9</f>
         <v>0</v>
       </c>
       <c r="C50" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>87720.453333333324</v>
       </c>
       <c r="D50" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>175440.90666666665</v>
       </c>
       <c r="E50" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>263161.36</v>
       </c>
       <c r="F50" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>350881.8133333333</v>
       </c>
       <c r="G50" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>438602.26666666666</v>
       </c>
       <c r="H50" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>526322.72</v>
       </c>
       <c r="I50" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>614043.17333333334</v>
       </c>
       <c r="J50" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>701763.62666666659</v>
       </c>
       <c r="K50" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>789484.08</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>ohio</v>
       </c>
       <c r="B51" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C51" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>25062.986666666664</v>
       </c>
       <c r="D51" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>50125.973333333328</v>
       </c>
       <c r="E51" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>75188.959999999992</v>
       </c>
       <c r="F51" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>100251.94666666666</v>
       </c>
       <c r="G51" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>125314.93333333332</v>
       </c>
       <c r="H51" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>150377.91999999998</v>
       </c>
       <c r="I51" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>175440.90666666665</v>
       </c>
       <c r="J51" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>200503.89333333331</v>
       </c>
       <c r="K51" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>225566.87999999998</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>minnesota</v>
       </c>
       <c r="B52" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C52" s="26">
@@ -4564,81 +6615,81 @@
         <v>12531.493333333332</v>
       </c>
       <c r="D52" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>25062.986666666664</v>
       </c>
       <c r="E52" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>37594.479999999996</v>
       </c>
       <c r="F52" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>50125.973333333328</v>
       </c>
       <c r="G52" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>62657.46666666666</v>
       </c>
       <c r="H52" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>75188.959999999992</v>
       </c>
       <c r="I52" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>87720.453333333324</v>
       </c>
       <c r="J52" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>100251.94666666666</v>
       </c>
       <c r="K52" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>112783.43999999999</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>texas</v>
       </c>
       <c r="B53" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C53" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>175440.90666666665</v>
       </c>
       <c r="D53" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>350881.8133333333</v>
       </c>
       <c r="E53" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>526322.72</v>
       </c>
       <c r="F53" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>701763.62666666659</v>
       </c>
       <c r="G53" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>877204.53333333333</v>
       </c>
       <c r="H53" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1052645.44</v>
       </c>
       <c r="I53" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1228086.3466666667</v>
       </c>
       <c r="J53" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1403527.2533333332</v>
       </c>
       <c r="K53" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1578968.16</v>
       </c>
     </row>
@@ -4653,39 +6704,39 @@
         <v>0</v>
       </c>
       <c r="C56" s="34">
-        <f t="shared" ref="C56:K56" si="14">C41</f>
+        <f t="shared" ref="C56:K56" si="20">C41</f>
         <v>1</v>
       </c>
       <c r="D56" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="E56" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="F56" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="G56" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="H56" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="I56" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="J56" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="K56" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
     </row>
@@ -4695,227 +6746,227 @@
         <v>illinois</v>
       </c>
       <c r="B57" s="39">
-        <f>$H35+B$41*ABS($I35-$H35)/9</f>
+        <f t="shared" ref="B57:K57" si="21">$H35+B$41*ABS($I35-$H35)/9</f>
         <v>0</v>
       </c>
       <c r="C57" s="26">
-        <f>$H35+C$41*ABS($I35-$H35)/9</f>
+        <f t="shared" si="21"/>
         <v>126923.25333333334</v>
       </c>
       <c r="D57" s="39">
-        <f>$H35+D$41*ABS($I35-$H35)/9</f>
+        <f t="shared" si="21"/>
         <v>253846.50666666668</v>
       </c>
       <c r="E57" s="26">
-        <f>$H35+E$41*ABS($I35-$H35)/9</f>
+        <f t="shared" si="21"/>
         <v>380769.76</v>
       </c>
       <c r="F57" s="39">
-        <f>$H35+F$41*ABS($I35-$H35)/9</f>
+        <f t="shared" si="21"/>
         <v>507693.01333333337</v>
       </c>
       <c r="G57" s="26">
-        <f>$H35+G$41*ABS($I35-$H35)/9</f>
+        <f t="shared" si="21"/>
         <v>634616.26666666672</v>
       </c>
       <c r="H57" s="39">
-        <f>$H35+H$41*ABS($I35-$H35)/9</f>
+        <f t="shared" si="21"/>
         <v>761539.52</v>
       </c>
       <c r="I57" s="26">
-        <f>$H35+I$41*ABS($I35-$H35)/9</f>
+        <f t="shared" si="21"/>
         <v>888462.77333333332</v>
       </c>
       <c r="J57" s="39">
-        <f>$H35+J$41*ABS($I35-$H35)/9</f>
+        <f t="shared" si="21"/>
         <v>1015386.0266666667</v>
       </c>
       <c r="K57" s="29">
-        <f>$H35+K$41*ABS($I35-$H35)/9</f>
+        <f t="shared" si="21"/>
         <v>1142309.28</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="str">
-        <f t="shared" ref="A58:A61" si="15">A36</f>
+        <f t="shared" ref="A58:A61" si="22">A36</f>
         <v>nebraska</v>
       </c>
       <c r="B58" s="39">
-        <f>$H36+B$41*ABS($I36-$H36)/9</f>
+        <f t="shared" ref="B58:K58" si="23">$H36+B$41*ABS($I36-$H36)/9</f>
         <v>0</v>
       </c>
       <c r="C58" s="26">
-        <f>$H36+C$41*ABS($I36-$H36)/9</f>
+        <f t="shared" si="23"/>
         <v>444231.38666666666</v>
       </c>
       <c r="D58" s="39">
-        <f>$H36+D$41*ABS($I36-$H36)/9</f>
+        <f t="shared" si="23"/>
         <v>888462.77333333332</v>
       </c>
       <c r="E58" s="26">
-        <f>$H36+E$41*ABS($I36-$H36)/9</f>
+        <f t="shared" si="23"/>
         <v>1332694.1599999999</v>
       </c>
       <c r="F58" s="39">
-        <f>$H36+F$41*ABS($I36-$H36)/9</f>
+        <f t="shared" si="23"/>
         <v>1776925.5466666666</v>
       </c>
       <c r="G58" s="26">
-        <f>$H36+G$41*ABS($I36-$H36)/9</f>
+        <f t="shared" si="23"/>
         <v>2221156.9333333331</v>
       </c>
       <c r="H58" s="39">
-        <f>$H36+H$41*ABS($I36-$H36)/9</f>
+        <f t="shared" si="23"/>
         <v>2665388.3199999998</v>
       </c>
       <c r="I58" s="26">
-        <f>$H36+I$41*ABS($I36-$H36)/9</f>
+        <f t="shared" si="23"/>
         <v>3109619.7066666665</v>
       </c>
       <c r="J58" s="39">
-        <f>$H36+J$41*ABS($I36-$H36)/9</f>
+        <f t="shared" si="23"/>
         <v>3553851.0933333333</v>
       </c>
       <c r="K58" s="29">
-        <f>$H36+K$41*ABS($I36-$H36)/9</f>
+        <f t="shared" si="23"/>
         <v>3998082.48</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>ohio</v>
       </c>
       <c r="B59" s="39">
-        <f>$H37+B$41*ABS($I37-$H37)/9</f>
+        <f t="shared" ref="B59:K59" si="24">$H37+B$41*ABS($I37-$H37)/9</f>
         <v>0</v>
       </c>
       <c r="C59" s="26">
-        <f>$H37+C$41*ABS($I37-$H37)/9</f>
+        <f t="shared" si="24"/>
         <v>126923.25333333334</v>
       </c>
       <c r="D59" s="39">
-        <f>$H37+D$41*ABS($I37-$H37)/9</f>
+        <f t="shared" si="24"/>
         <v>253846.50666666668</v>
       </c>
       <c r="E59" s="26">
-        <f>$H37+E$41*ABS($I37-$H37)/9</f>
+        <f t="shared" si="24"/>
         <v>380769.76</v>
       </c>
       <c r="F59" s="39">
-        <f>$H37+F$41*ABS($I37-$H37)/9</f>
+        <f t="shared" si="24"/>
         <v>507693.01333333337</v>
       </c>
       <c r="G59" s="26">
-        <f>$H37+G$41*ABS($I37-$H37)/9</f>
+        <f t="shared" si="24"/>
         <v>634616.26666666672</v>
       </c>
       <c r="H59" s="39">
-        <f>$H37+H$41*ABS($I37-$H37)/9</f>
+        <f t="shared" si="24"/>
         <v>761539.52</v>
       </c>
       <c r="I59" s="26">
-        <f>$H37+I$41*ABS($I37-$H37)/9</f>
+        <f t="shared" si="24"/>
         <v>888462.77333333332</v>
       </c>
       <c r="J59" s="39">
-        <f>$H37+J$41*ABS($I37-$H37)/9</f>
+        <f t="shared" si="24"/>
         <v>1015386.0266666667</v>
       </c>
       <c r="K59" s="29">
-        <f>$H37+K$41*ABS($I37-$H37)/9</f>
+        <f t="shared" si="24"/>
         <v>1142309.28</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>minnesota</v>
       </c>
       <c r="B60" s="39">
-        <f>$H38+B$41*ABS($I38-$H38)/9</f>
+        <f t="shared" ref="B60:K60" si="25">$H38+B$41*ABS($I38-$H38)/9</f>
         <v>0</v>
       </c>
       <c r="C60" s="26">
-        <f>$H38+C$41*ABS($I38-$H38)/9</f>
+        <f t="shared" si="25"/>
         <v>63461.626666666671</v>
       </c>
       <c r="D60" s="39">
-        <f>$H38+D$41*ABS($I38-$H38)/9</f>
+        <f t="shared" si="25"/>
         <v>126923.25333333334</v>
       </c>
       <c r="E60" s="26">
-        <f>$H38+E$41*ABS($I38-$H38)/9</f>
+        <f t="shared" si="25"/>
         <v>190384.88</v>
       </c>
       <c r="F60" s="39">
-        <f>$H38+F$41*ABS($I38-$H38)/9</f>
+        <f t="shared" si="25"/>
         <v>253846.50666666668</v>
       </c>
       <c r="G60" s="26">
-        <f>$H38+G$41*ABS($I38-$H38)/9</f>
+        <f t="shared" si="25"/>
         <v>317308.13333333336</v>
       </c>
       <c r="H60" s="39">
-        <f>$H38+H$41*ABS($I38-$H38)/9</f>
+        <f t="shared" si="25"/>
         <v>380769.76</v>
       </c>
       <c r="I60" s="26">
-        <f>$H38+I$41*ABS($I38-$H38)/9</f>
+        <f t="shared" si="25"/>
         <v>444231.38666666666</v>
       </c>
       <c r="J60" s="39">
-        <f>$H38+J$41*ABS($I38-$H38)/9</f>
+        <f t="shared" si="25"/>
         <v>507693.01333333337</v>
       </c>
       <c r="K60" s="29">
-        <f>$H38+K$41*ABS($I38-$H38)/9</f>
+        <f t="shared" si="25"/>
         <v>571154.64</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>texas</v>
       </c>
       <c r="B61" s="39">
-        <f>$H39+B$41*ABS($I39-$H39)/9</f>
+        <f t="shared" ref="B61:K61" si="26">$H39+B$41*ABS($I39-$H39)/9</f>
         <v>0</v>
       </c>
       <c r="C61" s="30">
-        <f>$H39+C$41*ABS($I39-$H39)/9</f>
+        <f t="shared" si="26"/>
         <v>888462.77333333332</v>
       </c>
       <c r="D61" s="39">
-        <f>$H39+D$41*ABS($I39-$H39)/9</f>
+        <f t="shared" si="26"/>
         <v>1776925.5466666666</v>
       </c>
       <c r="E61" s="30">
-        <f>$H39+E$41*ABS($I39-$H39)/9</f>
+        <f t="shared" si="26"/>
         <v>2665388.3199999998</v>
       </c>
       <c r="F61" s="39">
-        <f>$H39+F$41*ABS($I39-$H39)/9</f>
+        <f t="shared" si="26"/>
         <v>3553851.0933333333</v>
       </c>
       <c r="G61" s="30">
-        <f>$H39+G$41*ABS($I39-$H39)/9</f>
+        <f t="shared" si="26"/>
         <v>4442313.8666666662</v>
       </c>
       <c r="H61" s="39">
-        <f>$H39+H$41*ABS($I39-$H39)/9</f>
+        <f t="shared" si="26"/>
         <v>5330776.6399999997</v>
       </c>
       <c r="I61" s="30">
-        <f>$H39+I$41*ABS($I39-$H39)/9</f>
+        <f t="shared" si="26"/>
         <v>6219239.4133333331</v>
       </c>
       <c r="J61" s="39">
-        <f>$H39+J$41*ABS($I39-$H39)/9</f>
+        <f t="shared" si="26"/>
         <v>7107702.1866666665</v>
       </c>
       <c r="K61" s="31">
-        <f>$H39+K$41*ABS($I39-$H39)/9</f>
+        <f t="shared" si="26"/>
         <v>7996164.96</v>
       </c>
     </row>
@@ -4940,7 +6991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B09676-3E9F-3445-A5B7-C86CFA7A8DEF}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -5125,7 +7176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02D16CF-FC8F-7346-9EC7-361D100E0C44}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -5310,7 +7361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434EBFA0-7597-9643-BFE7-2F3817A1857D}">
   <dimension ref="A1:L16"/>
   <sheetViews>
@@ -6066,1068 +8117,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1763D785-0BD3-214B-94B7-2A4B796A3A87}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5">
-        <v>5569000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="16">
-        <v>0</v>
-      </c>
-      <c r="C9" s="25">
-        <f>C2*C5*C1/100</f>
-        <v>1202904000</v>
-      </c>
-      <c r="D9" s="25">
-        <f>C3*C1*(365*24*10)</f>
-        <v>1576800000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="C10" s="41">
-        <f>C9</f>
-        <v>1202904000</v>
-      </c>
-      <c r="D10" s="42">
-        <f>C3*C1*(365*24)*(1-POWER(1/(1+B10),10))/(1-(1/(1+B10)))</f>
-        <v>1065762875.3502659</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17762179-2135-43B7-98DA-D4A6A7868310}">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="85.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>49.222000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>49.24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5">
-        <v>20</v>
-      </c>
-      <c r="H5">
-        <v>49.220999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6">
-        <v>20</v>
-      </c>
-      <c r="H6">
-        <v>49.220999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0215393-90AE-4217-9780-C6903F6FBFD3}">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="5">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="5">
-        <f>1/B3</f>
-        <v>2.7173913043478264E-2</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5">
-        <v>6.4</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6">
-        <v>590</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7">
-        <v>763</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8">
-        <v>544</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="5">
-        <v>703</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="5">
-        <v>32.64</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="5">
-        <v>3.41</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="12">
-        <v>20</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073C2611-1C98-4542-8DB1-2F02A6C58FDE}">
-  <dimension ref="A1:I44"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2">
-        <v>1.2E-2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H2">
-        <v>3.7854100000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="19">
-        <v>100</v>
-      </c>
-      <c r="C4" s="19">
-        <v>500</v>
-      </c>
-      <c r="D4" s="57">
-        <v>1000</v>
-      </c>
-      <c r="G4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H4">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5">
-        <f>[1]MeOH_original_data!B2*(1+MeOH!$B$2)</f>
-        <v>167921429.192</v>
-      </c>
-      <c r="C5">
-        <f>[1]MeOH_original_data!C2*(1+MeOH!$B$2)</f>
-        <v>376933297.796</v>
-      </c>
-      <c r="D5" s="56">
-        <f>[1]MeOH_original_data!D2*(1+MeOH!$B$2)</f>
-        <v>655027563.25600004</v>
-      </c>
-      <c r="G5" t="s">
-        <v>154</v>
-      </c>
-      <c r="H5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6">
-        <f>[1]MeOH_original_data!B3*(1+MeOH!$B$2)</f>
-        <v>11297541.948000001</v>
-      </c>
-      <c r="C6">
-        <f>[1]MeOH_original_data!C3*(1+MeOH!$B$2)</f>
-        <v>19962889.100000001</v>
-      </c>
-      <c r="D6" s="56">
-        <f>[1]MeOH_original_data!D3*(1+MeOH!$B$2)</f>
-        <v>27050057.672000002</v>
-      </c>
-      <c r="G6" t="s">
-        <v>153</v>
-      </c>
-      <c r="H6">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8">
-        <f>SUM(B9:B13)</f>
-        <v>631442.96600000001</v>
-      </c>
-      <c r="C8">
-        <f>SUM(C9:C13)</f>
-        <v>3156650.1339999996</v>
-      </c>
-      <c r="D8" s="56">
-        <f>SUM(D9:D13)</f>
-        <v>6314321.8819999993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12">
-        <f>0.25*[1]MeOH_original_data!B8*(1+MeOH!$B$2)</f>
-        <v>125952.00200000001</v>
-      </c>
-      <c r="C12">
-        <f>0.25*[1]MeOH_original_data!C8*(1+MeOH!$B$2)</f>
-        <v>629646.91899999999</v>
-      </c>
-      <c r="D12" s="10">
-        <f>0.25*[1]MeOH_original_data!D8*(1+MeOH!$B$2)</f>
-        <v>1259519.0079999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" s="18">
-        <f>0.25*[1]MeOH_original_data!B9*(1+MeOH!$B$2)</f>
-        <v>505490.96399999998</v>
-      </c>
-      <c r="C13" s="18">
-        <f>0.25*[1]MeOH_original_data!C9*(1+MeOH!$B$2)</f>
-        <v>2527003.2149999999</v>
-      </c>
-      <c r="D13" s="13">
-        <f>0.25*[1]MeOH_original_data!D9*(1+MeOH!$B$2)</f>
-        <v>5054802.8739999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="B19" s="19">
-        <v>100</v>
-      </c>
-      <c r="C19" s="19">
-        <v>500</v>
-      </c>
-      <c r="D19" s="20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="72"/>
-      <c r="F20" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="G20" s="19">
-        <v>100</v>
-      </c>
-      <c r="H20" s="19">
-        <v>500</v>
-      </c>
-      <c r="I20" s="20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="53">
-        <f>[1]MeOH_original_data!B18*1000/(24)</f>
-        <v>2416.6666666666665</v>
-      </c>
-      <c r="C21" s="53">
-        <f>[1]MeOH_original_data!C18*1000/(24)</f>
-        <v>12125</v>
-      </c>
-      <c r="D21" s="52">
-        <f>[1]MeOH_original_data!D18*1000/(24)</f>
-        <v>24291.666666666668</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="G21" s="51">
-        <v>1</v>
-      </c>
-      <c r="H21" s="51">
-        <v>1</v>
-      </c>
-      <c r="I21" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="45">
-        <f>[1]MeOH_original_data!B19*1000/(24)</f>
-        <v>14666.666666666666</v>
-      </c>
-      <c r="C22" s="45">
-        <f>[1]MeOH_original_data!C19*1000/(24)</f>
-        <v>73375</v>
-      </c>
-      <c r="D22" s="44">
-        <f>[1]MeOH_original_data!D19*1000/(24)</f>
-        <v>146791.66666666666</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="G22" s="51">
-        <f>G$21*B22/B$21</f>
-        <v>6.068965517241379</v>
-      </c>
-      <c r="H22" s="51">
-        <f>H$21*C22/C21</f>
-        <v>6.0515463917525771</v>
-      </c>
-      <c r="I22" s="50">
-        <f>I$21*D22/D21</f>
-        <v>6.0428816466552311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23" s="49">
-        <f>[1]MeOH_original_data!B20</f>
-        <v>5.5</v>
-      </c>
-      <c r="C23" s="49">
-        <f>[1]MeOH_original_data!C20</f>
-        <v>27</v>
-      </c>
-      <c r="D23" s="49">
-        <f>[1]MeOH_original_data!D20</f>
-        <v>53</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G23" s="51">
-        <f>G$21*B23/B$21</f>
-        <v>2.2758620689655173E-3</v>
-      </c>
-      <c r="H23" s="51">
-        <f>H$21*C23/C22</f>
-        <v>3.6797274275979556E-4</v>
-      </c>
-      <c r="I23" s="50">
-        <f>I$21*D23/D22</f>
-        <v>3.6105591825149024E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="60"/>
-      <c r="F24" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" s="51">
-        <f t="shared" ref="G24:I26" si="0">G$21*B25/B$21</f>
-        <v>4.1379310344827586E-2</v>
-      </c>
-      <c r="H24" s="51">
-        <f t="shared" si="0"/>
-        <v>4.192439862542955E-2</v>
-      </c>
-      <c r="I24" s="50">
-        <f t="shared" si="0"/>
-        <v>4.1852487135506003E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="53">
-        <f>[1]MeOH_original_data!B22*1000/(24)</f>
-        <v>100</v>
-      </c>
-      <c r="C25" s="53">
-        <f>[1]MeOH_original_data!C22*1000/(24)</f>
-        <v>508.33333333333331</v>
-      </c>
-      <c r="D25" s="52">
-        <f>[1]MeOH_original_data!D22*1000/(24)</f>
-        <v>1016.6666666666666</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="G25" s="51">
-        <f t="shared" si="0"/>
-        <v>0.34655172413793106</v>
-      </c>
-      <c r="H25" s="51">
-        <f t="shared" si="0"/>
-        <v>0.3446735395189004</v>
-      </c>
-      <c r="I25" s="50">
-        <f t="shared" si="0"/>
-        <v>0.34425385934819897</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B26" s="49">
-        <f>[1]MeOH_original_data!B23*1000/(24)</f>
-        <v>837.5</v>
-      </c>
-      <c r="C26" s="49">
-        <f>[1]MeOH_original_data!C23*1000/(24)</f>
-        <v>4179.166666666667</v>
-      </c>
-      <c r="D26" s="48">
-        <f>[1]MeOH_original_data!D23*1000/(24)</f>
-        <v>8362.5</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="G26" s="47">
-        <f t="shared" si="0"/>
-        <v>1.4896551724137932</v>
-      </c>
-      <c r="H26" s="47">
-        <f t="shared" si="0"/>
-        <v>1.4838487972508592</v>
-      </c>
-      <c r="I26" s="46">
-        <f t="shared" si="0"/>
-        <v>1.481303602058319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="45">
-        <f>[1]MeOH_original_data!B24*1000/(24)</f>
-        <v>3600</v>
-      </c>
-      <c r="C27" s="45">
-        <f>[1]MeOH_original_data!C24*1000/(24)</f>
-        <v>17991.666666666668</v>
-      </c>
-      <c r="D27" s="44">
-        <f>[1]MeOH_original_data!D24*1000/(24)</f>
-        <v>35983.333333333336</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31">
-        <v>100</v>
-      </c>
-      <c r="C31">
-        <v>500</v>
-      </c>
-      <c r="D31">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32">
-        <v>167921429.192</v>
-      </c>
-      <c r="C32">
-        <v>376933297.796</v>
-      </c>
-      <c r="D32">
-        <v>655027563.25600004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>150</v>
-      </c>
-      <c r="B33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>100</v>
-      </c>
-      <c r="B34">
-        <v>167921429.192</v>
-      </c>
-      <c r="C34">
-        <f>LN(A34/$A$36)</f>
-        <v>-2.3025850929940455</v>
-      </c>
-      <c r="D34">
-        <f>LN(B34)</f>
-        <v>18.939006744588596</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>500</v>
-      </c>
-      <c r="B35">
-        <v>376933297.796</v>
-      </c>
-      <c r="C35">
-        <f>LN(A35/$A$36)</f>
-        <v>-0.69314718055994529</v>
-      </c>
-      <c r="D35">
-        <f>LN(B35)</f>
-        <v>19.747578800835441</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>1000</v>
-      </c>
-      <c r="B36">
-        <v>655027563.25600004</v>
-      </c>
-      <c r="C36">
-        <f>LN(A36/$A$36)</f>
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <f>LN(B36)</f>
-        <v>20.300187874021002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="B39" s="43">
-        <f>EXP(20.237)</f>
-        <v>614918317.57584751</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="B40" s="43">
-        <v>0.57550000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>144</v>
-      </c>
-      <c r="B42">
-        <f>B19</f>
-        <v>100</v>
-      </c>
-      <c r="C42">
-        <f>C19</f>
-        <v>500</v>
-      </c>
-      <c r="D42">
-        <f>D19</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>143</v>
-      </c>
-      <c r="B43">
-        <f>B21/B42</f>
-        <v>24.166666666666664</v>
-      </c>
-      <c r="C43">
-        <f>C21/C42</f>
-        <v>24.25</v>
-      </c>
-      <c r="D43">
-        <f>D21/D42</f>
-        <v>24.291666666666668</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>143</v>
-      </c>
-      <c r="B44">
-        <f>B43</f>
-        <v>24.166666666666664</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A24:D24"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/use_cases/SMR_MeOH_2023/data/HERON_model_data.xlsx
+++ b/use_cases/SMR_MeOH_2023/data/HERON_model_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrm/FORCE/use_cases/SMR_MeOH_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CF9F85-E138-F34E-906F-6A3CF5E32509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B586A3F-9B4D-F242-B120-714A7E4D5914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34080" yWindow="2020" windowWidth="30720" windowHeight="17120" activeTab="4" xr2:uid="{3CE7F202-39F9-48AF-B0C7-575379157397}"/>
+    <workbookView xWindow="35840" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="6" xr2:uid="{3CE7F202-39F9-48AF-B0C7-575379157397}"/>
   </bookViews>
   <sheets>
     <sheet name="SMR" sheetId="13" r:id="rId1"/>
@@ -18,20 +18,22 @@
     <sheet name="Boundaries_6steps" sheetId="23" r:id="rId3"/>
     <sheet name="Boundaries_7steps" sheetId="22" r:id="rId4"/>
     <sheet name="Boundaries_8steps" sheetId="21" r:id="rId5"/>
-    <sheet name="Boundaries" sheetId="10" r:id="rId6"/>
-    <sheet name="HTSE_steps" sheetId="18" r:id="rId7"/>
-    <sheet name="MeOH_steps" sheetId="19" r:id="rId8"/>
-    <sheet name="storage_steps" sheetId="20" r:id="rId9"/>
-    <sheet name="PTC vs. ITC" sheetId="14" r:id="rId10"/>
-    <sheet name="MACRS" sheetId="1" r:id="rId11"/>
-    <sheet name="HTSE" sheetId="2" r:id="rId12"/>
-    <sheet name="MeOH" sheetId="16" r:id="rId13"/>
-    <sheet name="MeOH_original_data" sheetId="17" r:id="rId14"/>
-    <sheet name="Capacity_Market" sheetId="3" r:id="rId15"/>
-    <sheet name="Tax rates" sheetId="12" r:id="rId16"/>
+    <sheet name="40_MWe" sheetId="25" r:id="rId6"/>
+    <sheet name="80_MWe" sheetId="26" r:id="rId7"/>
+    <sheet name="Boundaries" sheetId="10" r:id="rId8"/>
+    <sheet name="HTSE_steps" sheetId="18" r:id="rId9"/>
+    <sheet name="MeOH_steps" sheetId="19" r:id="rId10"/>
+    <sheet name="storage_steps" sheetId="20" r:id="rId11"/>
+    <sheet name="PTC vs. ITC" sheetId="14" r:id="rId12"/>
+    <sheet name="MACRS" sheetId="1" r:id="rId13"/>
+    <sheet name="HTSE" sheetId="2" r:id="rId14"/>
+    <sheet name="MeOH" sheetId="16" r:id="rId15"/>
+    <sheet name="MeOH_original_data" sheetId="17" r:id="rId16"/>
+    <sheet name="Capacity_Market" sheetId="3" r:id="rId17"/>
+    <sheet name="Tax rates" sheetId="12" r:id="rId18"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="189">
   <si>
     <t>Source</t>
   </si>
@@ -388,12 +390,6 @@
     <t>Upper</t>
   </si>
   <si>
-    <t>Days FT prod. for sto max cap.</t>
-  </si>
-  <si>
-    <t>Max elec. Price</t>
-  </si>
-  <si>
     <t>HTSE Steps</t>
   </si>
   <si>
@@ -439,12 +435,6 @@
     <t>Total capacity (MWe)</t>
   </si>
   <si>
-    <t>20MWe</t>
-  </si>
-  <si>
-    <t>100MWe</t>
-  </si>
-  <si>
     <t>Ref (60MWe)</t>
   </si>
   <si>
@@ -623,6 +613,15 @@
   </si>
   <si>
     <t>meoh</t>
+  </si>
+  <si>
+    <t>40MWe</t>
+  </si>
+  <si>
+    <t>80MWe</t>
+  </si>
+  <si>
+    <t>storage</t>
   </si>
 </sst>
 </file>
@@ -2579,15 +2578,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -2595,19 +2594,19 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -2627,7 +2626,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B4" s="25">
         <v>1802460</v>
@@ -2639,7 +2638,7 @@
         <v>24646000</v>
       </c>
       <c r="G4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H4">
         <f>H3*$H$2</f>
@@ -2664,7 +2663,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B5" s="25">
         <v>3.71</v>
@@ -2682,6 +2681,949 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02D16CF-FC8F-7346-9EC7-361D100E0C44}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>60</v>
+      </c>
+      <c r="B2" s="26">
+        <f>Boundaries!B28</f>
+        <v>-16761.71</v>
+      </c>
+      <c r="C2" s="26">
+        <f>Boundaries!C28</f>
+        <v>-15030.532222222222</v>
+      </c>
+      <c r="D2" s="26">
+        <f>Boundaries!D28</f>
+        <v>-13299.354444444443</v>
+      </c>
+      <c r="E2" s="26">
+        <f>Boundaries!E28</f>
+        <v>-11568.176666666666</v>
+      </c>
+      <c r="F2" s="26">
+        <f>Boundaries!F28</f>
+        <v>-9836.9988888888874</v>
+      </c>
+      <c r="G2" s="26">
+        <f>Boundaries!G28</f>
+        <v>-8105.8211111111104</v>
+      </c>
+      <c r="H2" s="26">
+        <f>Boundaries!H28</f>
+        <v>-6374.6433333333334</v>
+      </c>
+      <c r="I2" s="26">
+        <f>Boundaries!I28</f>
+        <v>-4643.4655555555564</v>
+      </c>
+      <c r="J2" s="26">
+        <f>Boundaries!J28</f>
+        <v>-2912.2877777777776</v>
+      </c>
+      <c r="K2" s="26">
+        <f>Boundaries!K28</f>
+        <v>-1181.1100000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3" s="26">
+        <f>Boundaries!B29</f>
+        <v>-10730.51</v>
+      </c>
+      <c r="C3" s="26">
+        <f>Boundaries!C29</f>
+        <v>-9669.4655555555564</v>
+      </c>
+      <c r="D3" s="26">
+        <f>Boundaries!D29</f>
+        <v>-8608.4211111111108</v>
+      </c>
+      <c r="E3" s="26">
+        <f>Boundaries!E29</f>
+        <v>-7547.376666666667</v>
+      </c>
+      <c r="F3" s="26">
+        <f>Boundaries!F29</f>
+        <v>-6486.3322222222223</v>
+      </c>
+      <c r="G3" s="26">
+        <f>Boundaries!G29</f>
+        <v>-5425.2877777777776</v>
+      </c>
+      <c r="H3" s="26">
+        <f>Boundaries!H29</f>
+        <v>-4364.2433333333338</v>
+      </c>
+      <c r="I3" s="26">
+        <f>Boundaries!I29</f>
+        <v>-3303.1988888888891</v>
+      </c>
+      <c r="J3" s="26">
+        <f>Boundaries!J29</f>
+        <v>-2242.1544444444444</v>
+      </c>
+      <c r="K3" s="26">
+        <f>Boundaries!K29</f>
+        <v>-1181.1100000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4" s="26">
+        <f>Boundaries!B30</f>
+        <v>-22792.91</v>
+      </c>
+      <c r="C4" s="26">
+        <f>Boundaries!C30</f>
+        <v>-20391.59888888889</v>
+      </c>
+      <c r="D4" s="26">
+        <f>Boundaries!D30</f>
+        <v>-17990.287777777776</v>
+      </c>
+      <c r="E4" s="26">
+        <f>Boundaries!E30</f>
+        <v>-15588.976666666667</v>
+      </c>
+      <c r="F4" s="26">
+        <f>Boundaries!F30</f>
+        <v>-13187.665555555555</v>
+      </c>
+      <c r="G4" s="26">
+        <f>Boundaries!G30</f>
+        <v>-10786.354444444445</v>
+      </c>
+      <c r="H4" s="26">
+        <f>Boundaries!H30</f>
+        <v>-8385.0433333333349</v>
+      </c>
+      <c r="I4" s="26">
+        <f>Boundaries!I30</f>
+        <v>-5983.732222222221</v>
+      </c>
+      <c r="J4" s="26">
+        <f>Boundaries!J30</f>
+        <v>-3582.4211111111108</v>
+      </c>
+      <c r="K4" s="26">
+        <f>Boundaries!K30</f>
+        <v>-1181.1100000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434EBFA0-7597-9643-BFE7-2F3817A1857D}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>6</v>
+      </c>
+      <c r="J1">
+        <v>7</v>
+      </c>
+      <c r="K1">
+        <v>8</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2" s="26">
+        <v>10</v>
+      </c>
+      <c r="D2" s="26">
+        <f>Boundaries!C38</f>
+        <v>44697.893333333333</v>
+      </c>
+      <c r="E2" s="26">
+        <f>Boundaries!D38</f>
+        <v>89395.786666666667</v>
+      </c>
+      <c r="F2" s="26">
+        <f>Boundaries!E38</f>
+        <v>134093.68</v>
+      </c>
+      <c r="G2" s="26">
+        <f>Boundaries!F38</f>
+        <v>178791.57333333333</v>
+      </c>
+      <c r="H2" s="26">
+        <f>Boundaries!G38</f>
+        <v>223489.46666666667</v>
+      </c>
+      <c r="I2" s="26">
+        <f>Boundaries!H38</f>
+        <v>268187.36</v>
+      </c>
+      <c r="J2" s="26">
+        <f>Boundaries!I38</f>
+        <v>312885.2533333333</v>
+      </c>
+      <c r="K2" s="26">
+        <f>Boundaries!J38</f>
+        <v>357583.14666666667</v>
+      </c>
+      <c r="L2" s="26">
+        <f>Boundaries!K38</f>
+        <v>402281.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="C3" s="26">
+        <v>10</v>
+      </c>
+      <c r="D3" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E3" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F3" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G3" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H3" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I3" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J3" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K3" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L3" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="C4" s="26">
+        <v>10</v>
+      </c>
+      <c r="D4" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E4" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F4" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G4" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H4" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I4" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J4" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K4" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L4" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5" s="26">
+        <v>10</v>
+      </c>
+      <c r="D5" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E5" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F5" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G5" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H5" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I5" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J5" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K5" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L5" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="C6" s="26">
+        <v>10</v>
+      </c>
+      <c r="D6" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E6" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F6" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G6" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H6" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I6" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J6" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K6" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L6" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7" s="26">
+        <v>10</v>
+      </c>
+      <c r="D7" s="26">
+        <f>Boundaries!C41</f>
+        <v>28614.693333333333</v>
+      </c>
+      <c r="E7" s="26">
+        <f>Boundaries!D41</f>
+        <v>57229.386666666665</v>
+      </c>
+      <c r="F7" s="26">
+        <f>Boundaries!E41</f>
+        <v>85844.08</v>
+      </c>
+      <c r="G7" s="26">
+        <f>Boundaries!F41</f>
+        <v>114458.77333333333</v>
+      </c>
+      <c r="H7" s="26">
+        <f>Boundaries!G41</f>
+        <v>143073.46666666667</v>
+      </c>
+      <c r="I7" s="26">
+        <f>Boundaries!H41</f>
+        <v>171688.16</v>
+      </c>
+      <c r="J7" s="26">
+        <f>Boundaries!I41</f>
+        <v>200302.85333333333</v>
+      </c>
+      <c r="K7" s="26">
+        <f>Boundaries!J41</f>
+        <v>228917.54666666666</v>
+      </c>
+      <c r="L7" s="26">
+        <f>Boundaries!K41</f>
+        <v>257532.24000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8" s="26">
+        <v>10</v>
+      </c>
+      <c r="D8" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E8" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F8" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G8" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H8" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I8" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J8" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K8" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L8" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9" s="26">
+        <v>10</v>
+      </c>
+      <c r="D9" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E9" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F9" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G9" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H9" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I9" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J9" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K9" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L9" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" s="26">
+        <v>10</v>
+      </c>
+      <c r="D10" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E10" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F10" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G10" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H10" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I10" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J10" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K10" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L10" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11" s="26">
+        <v>10</v>
+      </c>
+      <c r="D11" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E11" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F11" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G11" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H11" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I11" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J11" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K11" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L11" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12" s="26">
+        <v>10</v>
+      </c>
+      <c r="D12" s="26">
+        <f>Boundaries!C45</f>
+        <v>60781.093333333331</v>
+      </c>
+      <c r="E12" s="26">
+        <f>Boundaries!D45</f>
+        <v>121562.18666666666</v>
+      </c>
+      <c r="F12" s="26">
+        <f>Boundaries!E45</f>
+        <v>182343.28</v>
+      </c>
+      <c r="G12" s="26">
+        <f>Boundaries!F45</f>
+        <v>243124.37333333332</v>
+      </c>
+      <c r="H12" s="26">
+        <f>Boundaries!G45</f>
+        <v>303905.46666666662</v>
+      </c>
+      <c r="I12" s="26">
+        <f>Boundaries!H45</f>
+        <v>364686.56</v>
+      </c>
+      <c r="J12" s="26">
+        <f>Boundaries!I45</f>
+        <v>425467.65333333332</v>
+      </c>
+      <c r="K12" s="26">
+        <f>Boundaries!J45</f>
+        <v>486248.74666666664</v>
+      </c>
+      <c r="L12" s="26">
+        <f>Boundaries!K45</f>
+        <v>547029.84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13" s="26">
+        <v>10</v>
+      </c>
+      <c r="D13" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E13" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F13" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G13" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H13" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I13" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J13" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K13" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L13" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14" s="26">
+        <v>10</v>
+      </c>
+      <c r="D14" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E14" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F14" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G14" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I14" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J14" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K14" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L14" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15" s="26">
+        <v>10</v>
+      </c>
+      <c r="D15" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E15" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F15" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G15" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H15" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I15" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J15" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K15" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L15" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16" s="26">
+        <v>10</v>
+      </c>
+      <c r="D16" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E16" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F16" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G16" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H16" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I16" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J16" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K16" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L16" s="26" t="e">
+        <f>Boundaries!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1763D785-0BD3-214B-94B7-2A4B796A3A87}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -2699,7 +3641,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C1">
         <v>720</v>
@@ -2707,7 +3649,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -2715,18 +3657,18 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C3">
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C5">
         <v>5569000</v>
@@ -2734,24 +3676,24 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2785,7 +3727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17762179-2135-43B7-98DA-D4A6A7868310}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -2942,7 +3884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0215393-90AE-4217-9780-C6903F6FBFD3}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -3117,7 +4059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073C2611-1C98-4542-8DB1-2F02A6C58FDE}">
   <dimension ref="A1:I44"/>
   <sheetViews>
@@ -3135,21 +4077,21 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B2">
         <v>1.2E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H2">
         <v>3.7854100000000002</v>
@@ -3157,12 +4099,12 @@
     </row>
     <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B4" s="19">
         <v>100</v>
@@ -3174,7 +4116,7 @@
         <v>1000</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H4">
         <v>0.77</v>
@@ -3197,7 +4139,7 @@
         <v>655027563.25600004</v>
       </c>
       <c r="G5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H5">
         <v>0.8</v>
@@ -3205,7 +4147,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B6">
         <f>[1]MeOH_original_data!B3*(1+MeOH!$B$2)</f>
@@ -3220,7 +4162,7 @@
         <v>27050057.672000002</v>
       </c>
       <c r="G6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H6">
         <v>0.85</v>
@@ -3232,7 +4174,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B8">
         <f>SUM(B9:B13)</f>
@@ -3249,7 +4191,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3263,7 +4205,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3277,7 +4219,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3291,7 +4233,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B12">
         <f>0.25*[1]MeOH_original_data!B8*(1+MeOH!$B$2)</f>
@@ -3308,7 +4250,7 @@
     </row>
     <row r="13" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B13" s="18">
         <f>0.25*[1]MeOH_original_data!B9*(1+MeOH!$B$2)</f>
@@ -3325,25 +4267,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B19" s="19">
         <v>100</v>
@@ -3357,13 +4299,13 @@
     </row>
     <row r="20" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="71" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B20" s="72"/>
       <c r="C20" s="72"/>
       <c r="D20" s="73"/>
       <c r="F20" s="21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G20" s="19">
         <v>100</v>
@@ -3377,7 +4319,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="54" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B21" s="53">
         <f>[1]MeOH_original_data!B18*1000/(24)</f>
@@ -3392,7 +4334,7 @@
         <v>24291.666666666668</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G21" s="51">
         <v>1</v>
@@ -3406,7 +4348,7 @@
     </row>
     <row r="22" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B22" s="45">
         <f>[1]MeOH_original_data!B19*1000/(24)</f>
@@ -3421,7 +4363,7 @@
         <v>146791.66666666666</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G22" s="51">
         <f>G$21*B22/B$21</f>
@@ -3438,7 +4380,7 @@
     </row>
     <row r="23" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B23" s="49">
         <f>[1]MeOH_original_data!B20</f>
@@ -3453,7 +4395,7 @@
         <v>53</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G23" s="51">
         <f>G$21*B23/B$21</f>
@@ -3470,13 +4412,13 @@
     </row>
     <row r="24" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="60" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B24" s="66"/>
       <c r="C24" s="66"/>
       <c r="D24" s="61"/>
       <c r="F24" s="22" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G24" s="51">
         <f t="shared" ref="G24:I26" si="0">G$21*B25/B$21</f>
@@ -3493,7 +4435,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="54" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B25" s="53">
         <f>[1]MeOH_original_data!B22*1000/(24)</f>
@@ -3508,7 +4450,7 @@
         <v>1016.6666666666666</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G25" s="51">
         <f t="shared" si="0"/>
@@ -3525,7 +4467,7 @@
     </row>
     <row r="26" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B26" s="49">
         <f>[1]MeOH_original_data!B23*1000/(24)</f>
@@ -3540,7 +4482,7 @@
         <v>8362.5</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G26" s="47">
         <f t="shared" si="0"/>
@@ -3557,7 +4499,7 @@
     </row>
     <row r="27" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B27" s="45">
         <f>[1]MeOH_original_data!B24*1000/(24)</f>
@@ -3574,15 +4516,15 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B31">
         <v>100</v>
@@ -3610,16 +4552,16 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B33" t="s">
         <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3672,12 +4614,12 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="43" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B39" s="43">
         <f>EXP(20.237)</f>
@@ -3686,7 +4628,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="43" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B40" s="43">
         <v>0.57550000000000001</v>
@@ -3694,7 +4636,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B42">
         <f>B19</f>
@@ -3711,7 +4653,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B43">
         <f>B21/B42</f>
@@ -3728,7 +4670,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B44">
         <f>B43</f>
@@ -3745,7 +4687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2436AFE3-923D-0D45-AD95-63532D278F10}">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -3761,7 +4703,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B1">
         <v>100</v>
@@ -3789,7 +4731,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B3">
         <v>11163579</v>
@@ -3803,7 +4745,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B4">
         <v>41496911</v>
@@ -3817,7 +4759,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B5">
         <v>33150</v>
@@ -3831,7 +4773,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B6">
         <v>3972302</v>
@@ -3845,7 +4787,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B7">
         <v>2878787</v>
@@ -3859,7 +4801,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B8">
         <v>497834</v>
@@ -3873,7 +4815,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B9">
         <v>1997988</v>
@@ -3887,27 +4829,27 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="58" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B16">
         <v>100</v>
@@ -3921,12 +4863,12 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B18">
         <v>58</v>
@@ -3940,7 +4882,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B19">
         <v>352</v>
@@ -3954,7 +4896,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B20">
         <v>5.5</v>
@@ -3968,12 +4910,12 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B22">
         <v>2.4</v>
@@ -3987,7 +4929,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B23">
         <v>20.100000000000001</v>
@@ -4001,7 +4943,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B24">
         <v>86.4</v>
@@ -4019,7 +4961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC147DE-C2D1-4559-861B-2B8673B56208}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -4151,7 +5093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5236045A-41A7-AF40-95B6-DBF867B04F6F}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4336,10 +5278,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
         <v>99</v>
@@ -4393,23 +5335,23 @@
       </c>
       <c r="C3" s="59">
         <f>Boundaries!$D$35+Boundaries!$G2*Boundaries!$E$35/4</f>
-        <v>201140.52</v>
-      </c>
-      <c r="D3" s="59">
-        <f>Boundaries!$D$36+Boundaries!$G2*Boundaries!$E$36/4</f>
-        <v>703991.82</v>
-      </c>
-      <c r="E3" s="59">
-        <f>Boundaries!$D$37+Boundaries!$G2*Boundaries!$E$37/4</f>
-        <v>201140.52</v>
-      </c>
-      <c r="F3" s="59">
-        <f>Boundaries!$D$38+Boundaries!$G2*Boundaries!$E$38/4</f>
         <v>100570.26</v>
       </c>
-      <c r="G3" s="59">
-        <f>Boundaries!$D$39+Boundaries!$G2*Boundaries!$E$39/4</f>
-        <v>1407983.64</v>
+      <c r="D3" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G2*Boundaries!#REF!/4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E3" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G2*Boundaries!#REF!/4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F3" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G2*Boundaries!#REF!/4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G3" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G2*Boundaries!#REF!/4</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4423,23 +5365,23 @@
       </c>
       <c r="C4" s="59">
         <f>Boundaries!$D$35+Boundaries!$G3*Boundaries!$E$35/4</f>
-        <v>402281.04</v>
-      </c>
-      <c r="D4" s="59">
-        <f>Boundaries!$D$36+Boundaries!$G3*Boundaries!$E$36/4</f>
-        <v>1407983.64</v>
-      </c>
-      <c r="E4" s="59">
-        <f>Boundaries!$D$37+Boundaries!$G3*Boundaries!$E$37/4</f>
-        <v>402281.04</v>
-      </c>
-      <c r="F4" s="59">
-        <f>Boundaries!$D$38+Boundaries!$G3*Boundaries!$E$38/4</f>
         <v>201140.52</v>
       </c>
-      <c r="G4" s="59">
-        <f>Boundaries!$D$39+Boundaries!$G3*Boundaries!$E$39/4</f>
-        <v>2815967.28</v>
+      <c r="D4" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G3*Boundaries!#REF!/4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E4" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G3*Boundaries!#REF!/4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F4" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G3*Boundaries!#REF!/4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G4" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G3*Boundaries!#REF!/4</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4453,23 +5395,23 @@
       </c>
       <c r="C5" s="59">
         <f>Boundaries!$D$35+Boundaries!$G4*Boundaries!$E$35/4</f>
-        <v>603421.55999999994</v>
-      </c>
-      <c r="D5" s="59">
-        <f>Boundaries!$D$36+Boundaries!$G4*Boundaries!$E$36/4</f>
-        <v>2111975.46</v>
-      </c>
-      <c r="E5" s="59">
-        <f>Boundaries!$D$37+Boundaries!$G4*Boundaries!$E$37/4</f>
-        <v>603421.55999999994</v>
-      </c>
-      <c r="F5" s="59">
-        <f>Boundaries!$D$38+Boundaries!$G4*Boundaries!$E$38/4</f>
         <v>301710.77999999997</v>
       </c>
-      <c r="G5" s="59">
-        <f>Boundaries!$D$39+Boundaries!$G4*Boundaries!$E$39/4</f>
-        <v>4223950.92</v>
+      <c r="D5" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G4*Boundaries!#REF!/4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E5" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G4*Boundaries!#REF!/4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F5" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G4*Boundaries!#REF!/4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G5" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G4*Boundaries!#REF!/4</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4483,23 +5425,23 @@
       </c>
       <c r="C6" s="59">
         <f>Boundaries!$D$35+Boundaries!$G5*Boundaries!$E$35/4</f>
-        <v>804562.08</v>
-      </c>
-      <c r="D6" s="59">
-        <f>Boundaries!$D$36+Boundaries!$G5*Boundaries!$E$36/4</f>
-        <v>2815967.28</v>
-      </c>
-      <c r="E6" s="59">
-        <f>Boundaries!$D$37+Boundaries!$G5*Boundaries!$E$37/4</f>
-        <v>804562.08</v>
-      </c>
-      <c r="F6" s="59">
-        <f>Boundaries!$D$38+Boundaries!$G5*Boundaries!$E$38/4</f>
         <v>402281.04</v>
       </c>
-      <c r="G6" s="59">
-        <f>Boundaries!$D$39+Boundaries!$G5*Boundaries!$E$39/4</f>
-        <v>5631934.5599999996</v>
+      <c r="D6" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G5*Boundaries!#REF!/4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E6" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G5*Boundaries!#REF!/4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F6" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G5*Boundaries!#REF!/4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G6" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G5*Boundaries!#REF!/4</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4546,10 +5488,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
         <v>99</v>
@@ -4603,23 +5545,23 @@
       </c>
       <c r="C3" s="59">
         <f>Boundaries!$D$35+Boundaries!$G2*Boundaries!$E$35/5</f>
-        <v>160912.416</v>
-      </c>
-      <c r="D3" s="59">
-        <f>Boundaries!$D$36+Boundaries!$G2*Boundaries!$E$36/5</f>
-        <v>563193.45600000001</v>
-      </c>
-      <c r="E3" s="59">
-        <f>Boundaries!$D$37+Boundaries!$G2*Boundaries!$E$37/5</f>
-        <v>160912.416</v>
-      </c>
-      <c r="F3" s="59">
-        <f>Boundaries!$D$38+Boundaries!$G2*Boundaries!$E$38/5</f>
         <v>80456.207999999999</v>
       </c>
-      <c r="G3" s="59">
-        <f>Boundaries!$D$39+Boundaries!$G2*Boundaries!$E$39/5</f>
-        <v>1126386.912</v>
+      <c r="D3" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G2*Boundaries!#REF!/5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E3" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G2*Boundaries!#REF!/5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F3" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G2*Boundaries!#REF!/5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G3" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G2*Boundaries!#REF!/5</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4633,23 +5575,23 @@
       </c>
       <c r="C4" s="59">
         <f>Boundaries!$D$35+Boundaries!$G3*Boundaries!$E$35/5</f>
-        <v>321824.83199999999</v>
-      </c>
-      <c r="D4" s="59">
-        <f>Boundaries!$D$36+Boundaries!$G3*Boundaries!$E$36/5</f>
-        <v>1126386.912</v>
-      </c>
-      <c r="E4" s="59">
-        <f>Boundaries!$D$37+Boundaries!$G3*Boundaries!$E$37/5</f>
-        <v>321824.83199999999</v>
-      </c>
-      <c r="F4" s="59">
-        <f>Boundaries!$D$38+Boundaries!$G3*Boundaries!$E$38/5</f>
         <v>160912.416</v>
       </c>
-      <c r="G4" s="59">
-        <f>Boundaries!$D$39+Boundaries!$G3*Boundaries!$E$39/5</f>
-        <v>2252773.824</v>
+      <c r="D4" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G3*Boundaries!#REF!/5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E4" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G3*Boundaries!#REF!/5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F4" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G3*Boundaries!#REF!/5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G4" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G3*Boundaries!#REF!/5</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4663,23 +5605,23 @@
       </c>
       <c r="C5" s="59">
         <f>Boundaries!$D$35+Boundaries!$G4*Boundaries!$E$35/5</f>
-        <v>482737.24799999996</v>
-      </c>
-      <c r="D5" s="59">
-        <f>Boundaries!$D$36+Boundaries!$G4*Boundaries!$E$36/5</f>
-        <v>1689580.368</v>
-      </c>
-      <c r="E5" s="59">
-        <f>Boundaries!$D$37+Boundaries!$G4*Boundaries!$E$37/5</f>
-        <v>482737.24799999996</v>
-      </c>
-      <c r="F5" s="59">
-        <f>Boundaries!$D$38+Boundaries!$G4*Boundaries!$E$38/5</f>
         <v>241368.62399999998</v>
       </c>
-      <c r="G5" s="59">
-        <f>Boundaries!$D$39+Boundaries!$G4*Boundaries!$E$39/5</f>
-        <v>3379160.736</v>
+      <c r="D5" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G4*Boundaries!#REF!/5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E5" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G4*Boundaries!#REF!/5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F5" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G4*Boundaries!#REF!/5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G5" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G4*Boundaries!#REF!/5</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4693,23 +5635,23 @@
       </c>
       <c r="C6" s="59">
         <f>Boundaries!$D$35+Boundaries!$G5*Boundaries!$E$35/5</f>
-        <v>643649.66399999999</v>
-      </c>
-      <c r="D6" s="59">
-        <f>Boundaries!$D$36+Boundaries!$G5*Boundaries!$E$36/5</f>
-        <v>2252773.824</v>
-      </c>
-      <c r="E6" s="59">
-        <f>Boundaries!$D$37+Boundaries!$G5*Boundaries!$E$37/5</f>
-        <v>643649.66399999999</v>
-      </c>
-      <c r="F6" s="59">
-        <f>Boundaries!$D$38+Boundaries!$G5*Boundaries!$E$38/5</f>
         <v>321824.83199999999</v>
       </c>
-      <c r="G6" s="59">
-        <f>Boundaries!$D$39+Boundaries!$G5*Boundaries!$E$39/5</f>
-        <v>4505547.648</v>
+      <c r="D6" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G5*Boundaries!#REF!/5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E6" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G5*Boundaries!#REF!/5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F6" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G5*Boundaries!#REF!/5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G6" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G5*Boundaries!#REF!/5</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4723,23 +5665,23 @@
       </c>
       <c r="C7" s="59">
         <f>Boundaries!$D$35+Boundaries!$G6*Boundaries!$E$35/5</f>
-        <v>804562.08</v>
-      </c>
-      <c r="D7" s="59">
-        <f>Boundaries!$D$36+Boundaries!$G6*Boundaries!$E$36/5</f>
-        <v>2815967.28</v>
-      </c>
-      <c r="E7" s="59">
-        <f>Boundaries!$D$37+Boundaries!$G6*Boundaries!$E$37/5</f>
-        <v>804562.08</v>
-      </c>
-      <c r="F7" s="59">
-        <f>Boundaries!$D$38+Boundaries!$G6*Boundaries!$E$38/5</f>
         <v>402281.04</v>
       </c>
-      <c r="G7" s="59">
-        <f>Boundaries!$D$39+Boundaries!$G6*Boundaries!$E$39/5</f>
-        <v>5631934.5599999996</v>
+      <c r="D7" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G6*Boundaries!#REF!/5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E7" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G6*Boundaries!#REF!/5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F7" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G6*Boundaries!#REF!/5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G7" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G6*Boundaries!#REF!/5</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4777,10 +5719,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
         <v>99</v>
@@ -4834,23 +5776,23 @@
       </c>
       <c r="C3" s="59">
         <f>Boundaries!$D$35+Boundaries!$G2*Boundaries!$E$35/6</f>
-        <v>134093.68</v>
-      </c>
-      <c r="D3" s="59">
-        <f>Boundaries!$D$36+Boundaries!$G2*Boundaries!$E$36/6</f>
-        <v>469327.87999999995</v>
-      </c>
-      <c r="E3" s="59">
-        <f>Boundaries!$D$37+Boundaries!$G2*Boundaries!$E$37/6</f>
-        <v>134093.68</v>
-      </c>
-      <c r="F3" s="59">
-        <f>Boundaries!$D$38+Boundaries!$G2*Boundaries!$E$38/6</f>
         <v>67046.84</v>
       </c>
-      <c r="G3" s="59">
-        <f>Boundaries!$D$39+Boundaries!$G2*Boundaries!$E$39/6</f>
-        <v>938655.75999999989</v>
+      <c r="D3" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G2*Boundaries!#REF!/6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E3" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G2*Boundaries!#REF!/6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F3" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G2*Boundaries!#REF!/6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G3" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G2*Boundaries!#REF!/6</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4864,23 +5806,23 @@
       </c>
       <c r="C4" s="59">
         <f>Boundaries!$D$35+Boundaries!$G3*Boundaries!$E$35/6</f>
-        <v>268187.36</v>
-      </c>
-      <c r="D4" s="59">
-        <f>Boundaries!$D$36+Boundaries!$G3*Boundaries!$E$36/6</f>
-        <v>938655.75999999989</v>
-      </c>
-      <c r="E4" s="59">
-        <f>Boundaries!$D$37+Boundaries!$G3*Boundaries!$E$37/6</f>
-        <v>268187.36</v>
-      </c>
-      <c r="F4" s="59">
-        <f>Boundaries!$D$38+Boundaries!$G3*Boundaries!$E$38/6</f>
         <v>134093.68</v>
       </c>
-      <c r="G4" s="59">
-        <f>Boundaries!$D$39+Boundaries!$G3*Boundaries!$E$39/6</f>
-        <v>1877311.5199999998</v>
+      <c r="D4" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G3*Boundaries!#REF!/6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E4" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G3*Boundaries!#REF!/6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F4" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G3*Boundaries!#REF!/6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G4" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G3*Boundaries!#REF!/6</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4894,23 +5836,23 @@
       </c>
       <c r="C5" s="59">
         <f>Boundaries!$D$35+Boundaries!$G4*Boundaries!$E$35/6</f>
-        <v>402281.04</v>
-      </c>
-      <c r="D5" s="59">
-        <f>Boundaries!$D$36+Boundaries!$G4*Boundaries!$E$36/6</f>
-        <v>1407983.64</v>
-      </c>
-      <c r="E5" s="59">
-        <f>Boundaries!$D$37+Boundaries!$G4*Boundaries!$E$37/6</f>
-        <v>402281.04</v>
-      </c>
-      <c r="F5" s="59">
-        <f>Boundaries!$D$38+Boundaries!$G4*Boundaries!$E$38/6</f>
         <v>201140.52</v>
       </c>
-      <c r="G5" s="59">
-        <f>Boundaries!$D$39+Boundaries!$G4*Boundaries!$E$39/6</f>
-        <v>2815967.28</v>
+      <c r="D5" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G4*Boundaries!#REF!/6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E5" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G4*Boundaries!#REF!/6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F5" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G4*Boundaries!#REF!/6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G5" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G4*Boundaries!#REF!/6</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4924,23 +5866,23 @@
       </c>
       <c r="C6" s="59">
         <f>Boundaries!$D$35+Boundaries!$G5*Boundaries!$E$35/6</f>
-        <v>536374.72</v>
-      </c>
-      <c r="D6" s="59">
-        <f>Boundaries!$D$36+Boundaries!$G5*Boundaries!$E$36/6</f>
-        <v>1877311.5199999998</v>
-      </c>
-      <c r="E6" s="59">
-        <f>Boundaries!$D$37+Boundaries!$G5*Boundaries!$E$37/6</f>
-        <v>536374.72</v>
-      </c>
-      <c r="F6" s="59">
-        <f>Boundaries!$D$38+Boundaries!$G5*Boundaries!$E$38/6</f>
         <v>268187.36</v>
       </c>
-      <c r="G6" s="59">
-        <f>Boundaries!$D$39+Boundaries!$G5*Boundaries!$E$39/6</f>
-        <v>3754623.0399999996</v>
+      <c r="D6" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G5*Boundaries!#REF!/6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E6" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G5*Boundaries!#REF!/6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F6" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G5*Boundaries!#REF!/6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G6" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G5*Boundaries!#REF!/6</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4954,23 +5896,23 @@
       </c>
       <c r="C7" s="59">
         <f>Boundaries!$D$35+Boundaries!$G6*Boundaries!$E$35/6</f>
-        <v>670468.4</v>
-      </c>
-      <c r="D7" s="59">
-        <f>Boundaries!$D$36+Boundaries!$G6*Boundaries!$E$36/6</f>
-        <v>2346639.4</v>
-      </c>
-      <c r="E7" s="59">
-        <f>Boundaries!$D$37+Boundaries!$G6*Boundaries!$E$37/6</f>
-        <v>670468.4</v>
-      </c>
-      <c r="F7" s="59">
-        <f>Boundaries!$D$38+Boundaries!$G6*Boundaries!$E$38/6</f>
         <v>335234.2</v>
       </c>
-      <c r="G7" s="59">
-        <f>Boundaries!$D$39+Boundaries!$G6*Boundaries!$E$39/6</f>
-        <v>4693278.8</v>
+      <c r="D7" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G6*Boundaries!#REF!/6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E7" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G6*Boundaries!#REF!/6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F7" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G6*Boundaries!#REF!/6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G7" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G6*Boundaries!#REF!/6</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4984,23 +5926,23 @@
       </c>
       <c r="C8" s="59">
         <f>Boundaries!$D$35+Boundaries!$G7*Boundaries!$E$35/6</f>
-        <v>804562.08</v>
-      </c>
-      <c r="D8" s="59">
-        <f>Boundaries!$D$36+Boundaries!$G7*Boundaries!$E$36/6</f>
-        <v>2815967.28</v>
-      </c>
-      <c r="E8" s="59">
-        <f>Boundaries!$D$37+Boundaries!$G7*Boundaries!$E$37/6</f>
-        <v>804562.08</v>
-      </c>
-      <c r="F8" s="59">
-        <f>Boundaries!$D$38+Boundaries!$G7*Boundaries!$E$38/6</f>
         <v>402281.04</v>
       </c>
-      <c r="G8" s="59">
-        <f>Boundaries!$D$39+Boundaries!$G7*Boundaries!$E$39/6</f>
-        <v>5631934.5599999996</v>
+      <c r="D8" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G7*Boundaries!#REF!/6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E8" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G7*Boundaries!#REF!/6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F8" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G7*Boundaries!#REF!/6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G8" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G7*Boundaries!#REF!/6</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -5021,18 +5963,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3F718A-F13F-7C48-917B-F73C41DAC566}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
         <v>99</v>
@@ -5086,23 +6028,23 @@
       </c>
       <c r="C3" s="59">
         <f>Boundaries!$D$35+Boundaries!$G2*Boundaries!$E$35/7</f>
-        <v>114937.43999999999</v>
-      </c>
-      <c r="D3" s="59">
-        <f>Boundaries!$D$36+Boundaries!$G2*Boundaries!$E$36/7</f>
-        <v>402281.04</v>
-      </c>
-      <c r="E3" s="59">
-        <f>Boundaries!$D$37+Boundaries!$G2*Boundaries!$E$37/7</f>
-        <v>114937.43999999999</v>
-      </c>
-      <c r="F3" s="59">
-        <f>Boundaries!$D$38+Boundaries!$G2*Boundaries!$E$38/7</f>
         <v>57468.719999999994</v>
       </c>
-      <c r="G3" s="59">
-        <f>Boundaries!$D$39+Boundaries!$G2*Boundaries!$E$39/7</f>
-        <v>804562.08</v>
+      <c r="D3" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G2*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E3" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G2*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F3" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G2*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G3" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G2*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -5116,23 +6058,23 @@
       </c>
       <c r="C4" s="59">
         <f>Boundaries!$D$35+Boundaries!$G3*Boundaries!$E$35/7</f>
-        <v>229874.87999999998</v>
-      </c>
-      <c r="D4" s="59">
-        <f>Boundaries!$D$36+Boundaries!$G3*Boundaries!$E$36/7</f>
-        <v>804562.08</v>
-      </c>
-      <c r="E4" s="59">
-        <f>Boundaries!$D$37+Boundaries!$G3*Boundaries!$E$37/7</f>
-        <v>229874.87999999998</v>
-      </c>
-      <c r="F4" s="59">
-        <f>Boundaries!$D$38+Boundaries!$G3*Boundaries!$E$38/7</f>
         <v>114937.43999999999</v>
       </c>
-      <c r="G4" s="59">
-        <f>Boundaries!$D$39+Boundaries!$G3*Boundaries!$E$39/7</f>
-        <v>1609124.16</v>
+      <c r="D4" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G3*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E4" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G3*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F4" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G3*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G4" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G3*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -5146,23 +6088,23 @@
       </c>
       <c r="C5" s="59">
         <f>Boundaries!$D$35+Boundaries!$G4*Boundaries!$E$35/7</f>
-        <v>344812.31999999995</v>
-      </c>
-      <c r="D5" s="59">
-        <f>Boundaries!$D$36+Boundaries!$G4*Boundaries!$E$36/7</f>
-        <v>1206843.1199999999</v>
-      </c>
-      <c r="E5" s="59">
-        <f>Boundaries!$D$37+Boundaries!$G4*Boundaries!$E$37/7</f>
-        <v>344812.31999999995</v>
-      </c>
-      <c r="F5" s="59">
-        <f>Boundaries!$D$38+Boundaries!$G4*Boundaries!$E$38/7</f>
         <v>172406.15999999997</v>
       </c>
-      <c r="G5" s="59">
-        <f>Boundaries!$D$39+Boundaries!$G4*Boundaries!$E$39/7</f>
-        <v>2413686.2399999998</v>
+      <c r="D5" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G4*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E5" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G4*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F5" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G4*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G5" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G4*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -5176,23 +6118,23 @@
       </c>
       <c r="C6" s="59">
         <f>Boundaries!$D$35+Boundaries!$G5*Boundaries!$E$35/7</f>
-        <v>459749.75999999995</v>
-      </c>
-      <c r="D6" s="59">
-        <f>Boundaries!$D$36+Boundaries!$G5*Boundaries!$E$36/7</f>
-        <v>1609124.16</v>
-      </c>
-      <c r="E6" s="59">
-        <f>Boundaries!$D$37+Boundaries!$G5*Boundaries!$E$37/7</f>
-        <v>459749.75999999995</v>
-      </c>
-      <c r="F6" s="59">
-        <f>Boundaries!$D$38+Boundaries!$G5*Boundaries!$E$38/7</f>
         <v>229874.87999999998</v>
       </c>
-      <c r="G6" s="59">
-        <f>Boundaries!$D$39+Boundaries!$G5*Boundaries!$E$39/7</f>
-        <v>3218248.32</v>
+      <c r="D6" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G5*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E6" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G5*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F6" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G5*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G6" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G5*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -5206,23 +6148,23 @@
       </c>
       <c r="C7" s="59">
         <f>Boundaries!$D$35+Boundaries!$G6*Boundaries!$E$35/7</f>
-        <v>574687.19999999995</v>
-      </c>
-      <c r="D7" s="59">
-        <f>Boundaries!$D$36+Boundaries!$G6*Boundaries!$E$36/7</f>
-        <v>2011405.1999999997</v>
-      </c>
-      <c r="E7" s="59">
-        <f>Boundaries!$D$37+Boundaries!$G6*Boundaries!$E$37/7</f>
-        <v>574687.19999999995</v>
-      </c>
-      <c r="F7" s="59">
-        <f>Boundaries!$D$38+Boundaries!$G6*Boundaries!$E$38/7</f>
         <v>287343.59999999998</v>
       </c>
-      <c r="G7" s="59">
-        <f>Boundaries!$D$39+Boundaries!$G6*Boundaries!$E$39/7</f>
-        <v>4022810.3999999994</v>
+      <c r="D7" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G6*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E7" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G6*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F7" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G6*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G7" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G6*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -5236,23 +6178,23 @@
       </c>
       <c r="C8" s="59">
         <f>Boundaries!$D$35+Boundaries!$G7*Boundaries!$E$35/7</f>
-        <v>689624.6399999999</v>
-      </c>
-      <c r="D8" s="59">
-        <f>Boundaries!$D$36+Boundaries!$G7*Boundaries!$E$36/7</f>
-        <v>2413686.2399999998</v>
-      </c>
-      <c r="E8" s="59">
-        <f>Boundaries!$D$37+Boundaries!$G7*Boundaries!$E$37/7</f>
-        <v>689624.6399999999</v>
-      </c>
-      <c r="F8" s="59">
-        <f>Boundaries!$D$38+Boundaries!$G7*Boundaries!$E$38/7</f>
         <v>344812.31999999995</v>
       </c>
-      <c r="G8" s="59">
-        <f>Boundaries!$D$39+Boundaries!$G7*Boundaries!$E$39/7</f>
-        <v>4827372.4799999995</v>
+      <c r="D8" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G7*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E8" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G7*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F8" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G7*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G8" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G7*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -5266,23 +6208,23 @@
       </c>
       <c r="C9" s="59">
         <f>Boundaries!$D$35+Boundaries!$G8*Boundaries!$E$35/7</f>
-        <v>804562.08</v>
-      </c>
-      <c r="D9" s="59">
-        <f>Boundaries!$D$36+Boundaries!$G8*Boundaries!$E$36/7</f>
-        <v>2815967.28</v>
-      </c>
-      <c r="E9" s="59">
-        <f>Boundaries!$D$37+Boundaries!$G8*Boundaries!$E$37/7</f>
-        <v>804562.08</v>
-      </c>
-      <c r="F9" s="59">
-        <f>Boundaries!$D$38+Boundaries!$G8*Boundaries!$E$38/7</f>
         <v>402281.04</v>
       </c>
-      <c r="G9" s="59">
-        <f>Boundaries!$D$39+Boundaries!$G8*Boundaries!$E$39/7</f>
-        <v>5631934.5599999996</v>
+      <c r="D9" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G8*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E9" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G8*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F9" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G8*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G9" s="59" t="e">
+        <f>Boundaries!#REF!+Boundaries!$G8*Boundaries!#REF!/7</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -5291,11 +6233,341 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE01C25-7322-104D-AA38-7B16DF722B27}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="59">
+        <f>Boundaries!$C$15+Boundaries!$G1*ABS(-Boundaries!$D$15+Boundaries!$C$15)/7</f>
+        <v>-427</v>
+      </c>
+      <c r="B2" s="59">
+        <f>Boundaries!$E$15+Boundaries!$G1*ABS(Boundaries!$E$15-Boundaries!$F$15)/7</f>
+        <v>-10730.51</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="59">
+        <f>Boundaries!$C$15+Boundaries!$G2*ABS(-Boundaries!$D$15+Boundaries!$C$15)/7</f>
+        <v>-372.71428571428572</v>
+      </c>
+      <c r="B3" s="59">
+        <f>Boundaries!$E$15+Boundaries!$G2*ABS(Boundaries!$E$15-Boundaries!$F$15)/7</f>
+        <v>-9366.31</v>
+      </c>
+      <c r="C3" s="59">
+        <f>Boundaries!$F$35+Boundaries!$G2*Boundaries!$G$35/7</f>
+        <v>36790.32</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="59">
+        <f>Boundaries!$C$15+Boundaries!$G3*ABS(-Boundaries!$D$15+Boundaries!$C$15)/7</f>
+        <v>-318.42857142857144</v>
+      </c>
+      <c r="B4" s="59">
+        <f>Boundaries!$E$15+Boundaries!$G3*ABS(Boundaries!$E$15-Boundaries!$F$15)/7</f>
+        <v>-8002.1100000000006</v>
+      </c>
+      <c r="C4" s="59">
+        <f>Boundaries!$F$35+Boundaries!$G3*Boundaries!$G$35/7</f>
+        <v>73580.639999999999</v>
+      </c>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="59">
+        <f>Boundaries!$C$15+Boundaries!$G4*ABS(-Boundaries!$D$15+Boundaries!$C$15)/7</f>
+        <v>-264.14285714285711</v>
+      </c>
+      <c r="B5" s="59">
+        <f>Boundaries!$E$15+Boundaries!$G4*ABS(Boundaries!$E$15-Boundaries!$F$15)/7</f>
+        <v>-6637.9100000000008</v>
+      </c>
+      <c r="C5" s="59">
+        <f>Boundaries!$F$35+Boundaries!$G4*Boundaries!$G$35/7</f>
+        <v>110370.95999999999</v>
+      </c>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="59">
+        <f>Boundaries!$C$15+Boundaries!$G5*ABS(-Boundaries!$D$15+Boundaries!$C$15)/7</f>
+        <v>-209.85714285714286</v>
+      </c>
+      <c r="B6" s="59">
+        <f>Boundaries!$E$15+Boundaries!$G5*ABS(Boundaries!$E$15-Boundaries!$F$15)/7</f>
+        <v>-5273.71</v>
+      </c>
+      <c r="C6" s="59">
+        <f>Boundaries!$F$35+Boundaries!$G5*Boundaries!$G$35/7</f>
+        <v>147161.28</v>
+      </c>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="59">
+        <f>Boundaries!$C$15+Boundaries!$G6*ABS(-Boundaries!$D$15+Boundaries!$C$15)/7</f>
+        <v>-155.57142857142856</v>
+      </c>
+      <c r="B7" s="59">
+        <f>Boundaries!$E$15+Boundaries!$G6*ABS(Boundaries!$E$15-Boundaries!$F$15)/7</f>
+        <v>-3909.51</v>
+      </c>
+      <c r="C7" s="59">
+        <f>Boundaries!$F$35+Boundaries!$G6*Boundaries!$G$35/7</f>
+        <v>183951.6</v>
+      </c>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="59">
+        <f>Boundaries!$C$15+Boundaries!$G7*ABS(-Boundaries!$D$15+Boundaries!$C$15)/7</f>
+        <v>-101.28571428571428</v>
+      </c>
+      <c r="B8" s="59">
+        <f>Boundaries!$E$15+Boundaries!$G7*ABS(Boundaries!$E$15-Boundaries!$F$15)/7</f>
+        <v>-2545.3100000000013</v>
+      </c>
+      <c r="C8" s="59">
+        <f>Boundaries!$F$35+Boundaries!$G7*Boundaries!$G$35/7</f>
+        <v>220741.91999999998</v>
+      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="59">
+        <f>Boundaries!$C$15+Boundaries!$G8*ABS(-Boundaries!$D$15+Boundaries!$C$15)/7</f>
+        <v>-47</v>
+      </c>
+      <c r="B9" s="59">
+        <f>Boundaries!$E$15+Boundaries!$G8*ABS(Boundaries!$E$15-Boundaries!$F$15)/7</f>
+        <v>-1181.1100000000006</v>
+      </c>
+      <c r="C9" s="59">
+        <f>Boundaries!$F$35+Boundaries!$G8*Boundaries!$G$35/7</f>
+        <v>257532.24</v>
+      </c>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E51364A-0D1B-C846-BA66-70F8A273287F}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="59">
+        <f>Boundaries!$C$16+Boundaries!$G1*ABS(-Boundaries!$D$16+Boundaries!$C$16)/7</f>
+        <v>-907</v>
+      </c>
+      <c r="B2" s="59">
+        <f>Boundaries!$E$16+Boundaries!$G1*ABS(Boundaries!$E$16-Boundaries!$F$16)/7</f>
+        <v>-22792.91</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="59">
+        <f>Boundaries!$C$16+Boundaries!$G2*ABS(-Boundaries!$D$16+Boundaries!$C$16)/7</f>
+        <v>-784.14285714285711</v>
+      </c>
+      <c r="B3" s="59">
+        <f>Boundaries!$E$16+Boundaries!$G2*ABS(Boundaries!$E$16-Boundaries!$F$16)/7</f>
+        <v>-19705.509999999998</v>
+      </c>
+      <c r="C3" s="59">
+        <f>Boundaries!$H$35+Boundaries!$G2*Boundaries!$I$35/7</f>
+        <v>78147.12</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="59">
+        <f>Boundaries!$C$16+Boundaries!$G3*ABS(-Boundaries!$D$16+Boundaries!$C$16)/7</f>
+        <v>-661.28571428571422</v>
+      </c>
+      <c r="B4" s="59">
+        <f>Boundaries!$E$16+Boundaries!$G3*ABS(Boundaries!$E$16-Boundaries!$F$16)/7</f>
+        <v>-16618.11</v>
+      </c>
+      <c r="C4" s="59">
+        <f>Boundaries!$H$35+Boundaries!$G3*Boundaries!$I$35/7</f>
+        <v>156294.24</v>
+      </c>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="59">
+        <f>Boundaries!$C$16+Boundaries!$G4*ABS(-Boundaries!$D$16+Boundaries!$C$16)/7</f>
+        <v>-538.42857142857144</v>
+      </c>
+      <c r="B5" s="59">
+        <f>Boundaries!$E$16+Boundaries!$G4*ABS(Boundaries!$E$16-Boundaries!$F$16)/7</f>
+        <v>-13530.710000000001</v>
+      </c>
+      <c r="C5" s="59">
+        <f>Boundaries!$H$35+Boundaries!$G4*Boundaries!$I$35/7</f>
+        <v>234441.36000000002</v>
+      </c>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="59">
+        <f>Boundaries!$C$16+Boundaries!$G5*ABS(-Boundaries!$D$16+Boundaries!$C$16)/7</f>
+        <v>-415.57142857142856</v>
+      </c>
+      <c r="B6" s="59">
+        <f>Boundaries!$E$16+Boundaries!$G5*ABS(Boundaries!$E$16-Boundaries!$F$16)/7</f>
+        <v>-10443.31</v>
+      </c>
+      <c r="C6" s="59">
+        <f>Boundaries!$H$35+Boundaries!$G5*Boundaries!$I$35/7</f>
+        <v>312588.48</v>
+      </c>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="59">
+        <f>Boundaries!$C$16+Boundaries!$G6*ABS(-Boundaries!$D$16+Boundaries!$C$16)/7</f>
+        <v>-292.71428571428567</v>
+      </c>
+      <c r="B7" s="59">
+        <f>Boundaries!$E$16+Boundaries!$G6*ABS(Boundaries!$E$16-Boundaries!$F$16)/7</f>
+        <v>-7355.91</v>
+      </c>
+      <c r="C7" s="59">
+        <f>Boundaries!$H$35+Boundaries!$G6*Boundaries!$I$35/7</f>
+        <v>390735.6</v>
+      </c>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="59">
+        <f>Boundaries!$C$16+Boundaries!$G7*ABS(-Boundaries!$D$16+Boundaries!$C$16)/7</f>
+        <v>-169.85714285714289</v>
+      </c>
+      <c r="B8" s="59">
+        <f>Boundaries!$E$16+Boundaries!$G7*ABS(Boundaries!$E$16-Boundaries!$F$16)/7</f>
+        <v>-4268.510000000002</v>
+      </c>
+      <c r="C8" s="59">
+        <f>Boundaries!$H$35+Boundaries!$G7*Boundaries!$I$35/7</f>
+        <v>468882.72000000003</v>
+      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="59">
+        <f>Boundaries!$C$16+Boundaries!$G8*ABS(-Boundaries!$D$16+Boundaries!$C$16)/7</f>
+        <v>-47</v>
+      </c>
+      <c r="B9" s="59">
+        <f>Boundaries!$E$16+Boundaries!$G8*ABS(Boundaries!$E$16-Boundaries!$F$16)/7</f>
+        <v>-1181.1100000000006</v>
+      </c>
+      <c r="C9" s="59">
+        <f>Boundaries!$H$35+Boundaries!$G8*Boundaries!$I$35/7</f>
+        <v>547029.84</v>
+      </c>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9241F20-95C4-42A2-B03A-23B9DD4DBFA3}">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5358,7 +6630,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B5">
         <v>53</v>
@@ -5442,7 +6714,7 @@
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="66" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F12" s="61"/>
       <c r="G12" s="67"/>
@@ -5466,7 +6738,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B14">
         <v>720</v>
@@ -5490,14 +6762,15 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="B15">
-        <v>240</v>
+        <f>12*40</f>
+        <v>480</v>
       </c>
       <c r="C15">
         <f t="shared" ref="C15:C16" si="0">MAX(-B15+$B$5, -1000+$B$5)</f>
-        <v>-187</v>
+        <v>-427</v>
       </c>
       <c r="D15">
         <f t="shared" ref="D15:D16" si="1">-100+$B$5</f>
@@ -5505,7 +6778,7 @@
       </c>
       <c r="E15">
         <f t="shared" ref="E15:F15" si="2">C15*25.13</f>
-        <v>-4699.3099999999995</v>
+        <v>-10730.51</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="2"/>
@@ -5514,14 +6787,15 @@
     </row>
     <row r="16" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="B16" s="18">
-        <v>1200</v>
+        <f>12*80</f>
+        <v>960</v>
       </c>
       <c r="C16" s="18">
         <f t="shared" si="0"/>
-        <v>-947</v>
+        <v>-907</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" si="1"/>
@@ -5529,7 +6803,7 @@
       </c>
       <c r="E16" s="18">
         <f t="shared" ref="E16" si="3">C16*25.13</f>
-        <v>-23798.11</v>
+        <v>-22792.91</v>
       </c>
       <c r="F16" s="13">
         <f t="shared" ref="F16" si="4">D16*25.13</f>
@@ -5538,13 +6812,13 @@
     </row>
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="68" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B20" s="69"/>
       <c r="C20" s="69"/>
@@ -5641,43 +6915,43 @@
     <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="str">
         <f>A15</f>
-        <v>20MWe</v>
+        <v>40MWe</v>
       </c>
       <c r="B23" s="39">
         <f t="shared" ref="B23:K23" si="6">$C15+B$21*ABS($C15-$D15)/9</f>
-        <v>-187</v>
+        <v>-427</v>
       </c>
       <c r="C23" s="26">
         <f t="shared" si="6"/>
-        <v>-171.44444444444446</v>
+        <v>-384.77777777777777</v>
       </c>
       <c r="D23" s="39">
         <f t="shared" si="6"/>
-        <v>-155.88888888888889</v>
+        <v>-342.55555555555554</v>
       </c>
       <c r="E23" s="26">
         <f t="shared" si="6"/>
-        <v>-140.33333333333334</v>
+        <v>-300.33333333333331</v>
       </c>
       <c r="F23" s="39">
         <f t="shared" si="6"/>
-        <v>-124.77777777777777</v>
+        <v>-258.11111111111109</v>
       </c>
       <c r="G23" s="26">
         <f t="shared" si="6"/>
-        <v>-109.22222222222223</v>
+        <v>-215.88888888888889</v>
       </c>
       <c r="H23" s="39">
         <f t="shared" si="6"/>
-        <v>-93.666666666666671</v>
+        <v>-173.66666666666666</v>
       </c>
       <c r="I23" s="26">
         <f t="shared" si="6"/>
-        <v>-78.111111111111114</v>
+        <v>-131.44444444444446</v>
       </c>
       <c r="J23" s="39">
         <f t="shared" si="6"/>
-        <v>-62.555555555555557</v>
+        <v>-89.222222222222229</v>
       </c>
       <c r="K23" s="29">
         <f t="shared" si="6"/>
@@ -5687,43 +6961,43 @@
     <row r="24" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="str">
         <f>A16</f>
-        <v>100MWe</v>
+        <v>80MWe</v>
       </c>
       <c r="B24" s="39">
         <f t="shared" ref="B24:K24" si="7">$C16+B$21*ABS($C16-$D16)/9</f>
-        <v>-947</v>
+        <v>-907</v>
       </c>
       <c r="C24" s="30">
         <f t="shared" si="7"/>
-        <v>-847</v>
+        <v>-811.44444444444446</v>
       </c>
       <c r="D24" s="39">
         <f t="shared" si="7"/>
-        <v>-747</v>
+        <v>-715.88888888888891</v>
       </c>
       <c r="E24" s="30">
         <f t="shared" si="7"/>
-        <v>-647</v>
+        <v>-620.33333333333326</v>
       </c>
       <c r="F24" s="39">
         <f t="shared" si="7"/>
-        <v>-547</v>
+        <v>-524.77777777777783</v>
       </c>
       <c r="G24" s="30">
         <f t="shared" si="7"/>
-        <v>-447</v>
+        <v>-429.22222222222223</v>
       </c>
       <c r="H24" s="39">
         <f t="shared" si="7"/>
-        <v>-347</v>
+        <v>-333.66666666666663</v>
       </c>
       <c r="I24" s="30">
         <f t="shared" si="7"/>
-        <v>-247</v>
+        <v>-238.11111111111109</v>
       </c>
       <c r="J24" s="39">
         <f t="shared" si="7"/>
-        <v>-147</v>
+        <v>-142.55555555555554</v>
       </c>
       <c r="K24" s="31">
         <f t="shared" si="7"/>
@@ -5733,7 +7007,7 @@
     <row r="25" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="68" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B26" s="69"/>
       <c r="C26" s="69"/>
@@ -5830,90 +7104,90 @@
     <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="str">
         <f>A15</f>
-        <v>20MWe</v>
+        <v>40MWe</v>
       </c>
       <c r="B29" s="39">
         <f t="shared" ref="B29:K29" si="9">$E15+B$27*ABS($E15-$F15)/9</f>
-        <v>-4699.3099999999995</v>
+        <v>-10730.51</v>
       </c>
       <c r="C29" s="26">
         <f t="shared" si="9"/>
-        <v>-4308.398888888888</v>
+        <v>-9669.4655555555564</v>
       </c>
       <c r="D29" s="39">
         <f t="shared" si="9"/>
-        <v>-3917.4877777777774</v>
+        <v>-8608.4211111111108</v>
       </c>
       <c r="E29" s="26">
         <f t="shared" si="9"/>
-        <v>-3526.5766666666664</v>
+        <v>-7547.376666666667</v>
       </c>
       <c r="F29" s="39">
         <f t="shared" si="9"/>
-        <v>-3135.6655555555553</v>
+        <v>-6486.3322222222223</v>
       </c>
       <c r="G29" s="26">
         <f t="shared" si="9"/>
-        <v>-2744.7544444444438</v>
+        <v>-5425.2877777777776</v>
       </c>
       <c r="H29" s="39">
         <f t="shared" si="9"/>
-        <v>-2353.8433333333332</v>
+        <v>-4364.2433333333338</v>
       </c>
       <c r="I29" s="26">
         <f t="shared" si="9"/>
-        <v>-1962.9322222222218</v>
+        <v>-3303.1988888888891</v>
       </c>
       <c r="J29" s="39">
         <f t="shared" si="9"/>
-        <v>-1572.0211111111107</v>
+        <v>-2242.1544444444444</v>
       </c>
       <c r="K29" s="29">
         <f t="shared" si="9"/>
-        <v>-1181.1099999999997</v>
+        <v>-1181.1100000000006</v>
       </c>
       <c r="L29" s="26"/>
     </row>
     <row r="30" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="str">
         <f>A16</f>
-        <v>100MWe</v>
+        <v>80MWe</v>
       </c>
       <c r="B30" s="39">
         <f t="shared" ref="B30:K30" si="10">$E16+B$27*ABS($E16-$F16)/9</f>
-        <v>-23798.11</v>
+        <v>-22792.91</v>
       </c>
       <c r="C30" s="30">
         <f t="shared" si="10"/>
-        <v>-21285.11</v>
+        <v>-20391.59888888889</v>
       </c>
       <c r="D30" s="39">
         <f t="shared" si="10"/>
-        <v>-18772.11</v>
+        <v>-17990.287777777776</v>
       </c>
       <c r="E30" s="30">
         <f t="shared" si="10"/>
-        <v>-16259.11</v>
+        <v>-15588.976666666667</v>
       </c>
       <c r="F30" s="39">
         <f t="shared" si="10"/>
-        <v>-13746.11</v>
+        <v>-13187.665555555555</v>
       </c>
       <c r="G30" s="30">
         <f t="shared" si="10"/>
-        <v>-11233.11</v>
+        <v>-10786.354444444445</v>
       </c>
       <c r="H30" s="39">
         <f t="shared" si="10"/>
-        <v>-8720.11</v>
+        <v>-8385.0433333333349</v>
       </c>
       <c r="I30" s="30">
         <f t="shared" si="10"/>
-        <v>-6207.1100000000006</v>
+        <v>-5983.732222222221</v>
       </c>
       <c r="J30" s="39">
         <f t="shared" si="10"/>
-        <v>-3694.1100000000006</v>
+        <v>-3582.4211111111108</v>
       </c>
       <c r="K30" s="31">
         <f t="shared" si="10"/>
@@ -5935,7 +7209,7 @@
     <row r="32" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -5946,12 +7220,12 @@
       <c r="E33" s="61"/>
       <c r="F33" s="60" t="str">
         <f>A15</f>
-        <v>20MWe</v>
+        <v>40MWe</v>
       </c>
       <c r="G33" s="61"/>
       <c r="H33" s="60" t="str">
         <f>A30</f>
-        <v>100MWe</v>
+        <v>80MWe</v>
       </c>
       <c r="I33" s="61"/>
       <c r="J33" s="67"/>
@@ -5959,14 +7233,10 @@
     </row>
     <row r="34" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>112</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="11" t="s">
         <v>109</v>
       </c>
@@ -5990,988 +7260,289 @@
       <c r="A35" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="32">
-        <f t="shared" ref="B35:B37" si="11">ROUNDUP(C35*$B$39/$C$39,0)</f>
-        <v>2</v>
-      </c>
-      <c r="C35" s="32">
-        <v>934</v>
-      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" s="26">
-        <f>ABS($E$14)*24*B35</f>
-        <v>804562.08</v>
+        <f>ABS($E$14)*24</f>
+        <v>402281.04</v>
       </c>
       <c r="F35" s="26">
         <v>0</v>
       </c>
       <c r="G35" s="26">
-        <f>ABS($E$15)*24*$B35</f>
-        <v>225566.87999999998</v>
+        <f>ABS($E$15)*24</f>
+        <v>257532.24</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35" s="26">
-        <f>ABS($E$16*24*$B35)</f>
-        <v>1142309.28</v>
+        <f>ABS($E$16*24)</f>
+        <v>547029.84</v>
       </c>
       <c r="J35" s="26"/>
       <c r="K35" s="26"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="32">
+    <row r="36" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="24">
+        <v>0</v>
+      </c>
+      <c r="C37" s="27">
+        <v>1</v>
+      </c>
+      <c r="D37" s="24">
+        <v>2</v>
+      </c>
+      <c r="E37" s="27">
+        <v>3</v>
+      </c>
+      <c r="F37" s="24">
+        <v>4</v>
+      </c>
+      <c r="G37" s="27">
+        <v>5</v>
+      </c>
+      <c r="H37" s="24">
+        <v>6</v>
+      </c>
+      <c r="I37" s="27">
+        <v>7</v>
+      </c>
+      <c r="J37" s="24">
+        <v>8</v>
+      </c>
+      <c r="K37" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="str">
+        <f>A35</f>
+        <v>illinois</v>
+      </c>
+      <c r="B38" s="26">
+        <f>$D35+B$37*ABS($E35-$D35)/9</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="26">
+        <f>$D35+C$37*ABS($E35-$D35)/9</f>
+        <v>44697.893333333333</v>
+      </c>
+      <c r="D38" s="26">
+        <f>$D35+D$37*ABS($E35-$D35)/9</f>
+        <v>89395.786666666667</v>
+      </c>
+      <c r="E38" s="26">
+        <f>$D35+E$37*ABS($E35-$D35)/9</f>
+        <v>134093.68</v>
+      </c>
+      <c r="F38" s="26">
+        <f>$D35+F$37*ABS($E35-$D35)/9</f>
+        <v>178791.57333333333</v>
+      </c>
+      <c r="G38" s="26">
+        <f>$D35+G$37*ABS($E35-$D35)/9</f>
+        <v>223489.46666666667</v>
+      </c>
+      <c r="H38" s="26">
+        <f>$D35+H$37*ABS($E35-$D35)/9</f>
+        <v>268187.36</v>
+      </c>
+      <c r="I38" s="26">
+        <f>$D35+I$37*ABS($E35-$D35)/9</f>
+        <v>312885.2533333333</v>
+      </c>
+      <c r="J38" s="26">
+        <f>$D35+J$37*ABS($E35-$D35)/9</f>
+        <v>357583.14666666667</v>
+      </c>
+      <c r="K38" s="29">
+        <f>$D35+K$37*ABS($E35-$D35)/9</f>
+        <v>402281.04</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="37" t="str">
+        <f>F33</f>
+        <v>40MWe</v>
+      </c>
+      <c r="B40" s="24">
+        <v>0</v>
+      </c>
+      <c r="C40" s="27">
+        <v>1</v>
+      </c>
+      <c r="D40" s="24">
+        <v>2</v>
+      </c>
+      <c r="E40" s="27">
+        <v>3</v>
+      </c>
+      <c r="F40" s="24">
+        <v>4</v>
+      </c>
+      <c r="G40" s="27">
+        <v>5</v>
+      </c>
+      <c r="H40" s="24">
+        <v>6</v>
+      </c>
+      <c r="I40" s="27">
+        <v>7</v>
+      </c>
+      <c r="J40" s="24">
+        <v>8</v>
+      </c>
+      <c r="K40" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="str">
+        <f>A38</f>
+        <v>illinois</v>
+      </c>
+      <c r="B41" s="39">
+        <f>$F35+B$37*ABS($G35-$F35)/9</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="26">
+        <f>$F35+C$37*ABS($G35-$F35)/9</f>
+        <v>28614.693333333333</v>
+      </c>
+      <c r="D41" s="39">
+        <f>$F35+D$37*ABS($G35-$F35)/9</f>
+        <v>57229.386666666665</v>
+      </c>
+      <c r="E41" s="26">
+        <f>$F35+E$37*ABS($G35-$F35)/9</f>
+        <v>85844.08</v>
+      </c>
+      <c r="F41" s="39">
+        <f>$F35+F$37*ABS($G35-$F35)/9</f>
+        <v>114458.77333333333</v>
+      </c>
+      <c r="G41" s="26">
+        <f>$F35+G$37*ABS($G35-$F35)/9</f>
+        <v>143073.46666666667</v>
+      </c>
+      <c r="H41" s="39">
+        <f>$F35+H$37*ABS($G35-$F35)/9</f>
+        <v>171688.16</v>
+      </c>
+      <c r="I41" s="26">
+        <f>$F35+I$37*ABS($G35-$F35)/9</f>
+        <v>200302.85333333333</v>
+      </c>
+      <c r="J41" s="39">
+        <f>$F35+J$37*ABS($G35-$F35)/9</f>
+        <v>228917.54666666666</v>
+      </c>
+      <c r="K41" s="29">
+        <f>$F35+K$37*ABS($G35-$F35)/9</f>
+        <v>257532.24000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="37" t="str">
+        <f>H33</f>
+        <v>80MWe</v>
+      </c>
+      <c r="B44" s="34">
+        <f>B37</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="34">
+        <f t="shared" ref="C44:K44" si="11">C37</f>
+        <v>1</v>
+      </c>
+      <c r="D44" s="34">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="E44" s="34">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="F44" s="34">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="G44" s="34">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="H44" s="34">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="I44" s="34">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="C36" s="32">
-        <v>4231</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" s="26">
-        <f>ABS($E$14)*24*B36</f>
-        <v>2815967.28</v>
-      </c>
-      <c r="F36" s="26">
-        <v>0</v>
-      </c>
-      <c r="G36" s="26">
-        <f t="shared" ref="G36:G39" si="12">ABS($E$15)*24*$B36</f>
-        <v>789484.08</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36" s="26">
-        <f t="shared" ref="I36:I39" si="13">ABS($E$16*24*$B36)</f>
-        <v>3998082.48</v>
-      </c>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="32">
+      <c r="J44" s="34">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="C37" s="32">
-        <v>934</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" s="26">
-        <f>ABS($E$14)*24*B37</f>
-        <v>804562.08</v>
-      </c>
-      <c r="F37" s="26">
-        <v>0</v>
-      </c>
-      <c r="G37" s="26">
-        <f t="shared" si="12"/>
-        <v>225566.87999999998</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37" s="26">
-        <f t="shared" si="13"/>
-        <v>1142309.28</v>
-      </c>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" s="32">
-        <f>ROUNDUP(C38*$B$39/$C$39,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C38" s="32">
-        <v>97</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" s="26">
-        <f>ABS($E$14)*24*B38</f>
-        <v>402281.04</v>
-      </c>
-      <c r="F38" s="26">
-        <v>0</v>
-      </c>
-      <c r="G38" s="26">
-        <f t="shared" si="12"/>
-        <v>112783.43999999999</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" s="26">
-        <f t="shared" si="13"/>
-        <v>571154.64</v>
-      </c>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-    </row>
-    <row r="39" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" s="33">
-        <v>14</v>
-      </c>
-      <c r="C39" s="33">
-        <v>8997</v>
-      </c>
-      <c r="D39" s="18">
-        <v>0</v>
-      </c>
-      <c r="E39" s="30">
-        <f>ABS($E$14)*24*B39</f>
-        <v>5631934.5599999996</v>
-      </c>
-      <c r="F39" s="30">
-        <v>0</v>
-      </c>
-      <c r="G39" s="30">
-        <f t="shared" si="12"/>
-        <v>1578968.16</v>
-      </c>
-      <c r="H39" s="18">
-        <v>0</v>
-      </c>
-      <c r="I39" s="30">
-        <f t="shared" si="13"/>
-        <v>7996164.96</v>
-      </c>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-    </row>
-    <row r="40" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="24">
-        <v>0</v>
-      </c>
-      <c r="C41" s="27">
-        <v>1</v>
-      </c>
-      <c r="D41" s="24">
-        <v>2</v>
-      </c>
-      <c r="E41" s="27">
-        <v>3</v>
-      </c>
-      <c r="F41" s="24">
-        <v>4</v>
-      </c>
-      <c r="G41" s="27">
-        <v>5</v>
-      </c>
-      <c r="H41" s="24">
-        <v>6</v>
-      </c>
-      <c r="I41" s="27">
-        <v>7</v>
-      </c>
-      <c r="J41" s="24">
         <v>8</v>
       </c>
-      <c r="K41" s="28">
+      <c r="K44" s="35">
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="str">
+    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="str">
         <f>A35</f>
         <v>illinois</v>
       </c>
-      <c r="B42" s="26">
-        <f>$D35+B$41*ABS($E35-$D35)/9</f>
+      <c r="B45" s="39">
+        <f>$H35+B$37*ABS($I35-$H35)/9</f>
         <v>0</v>
       </c>
-      <c r="C42" s="26">
-        <f>$D35+C$41*ABS($E35-$D35)/9</f>
-        <v>89395.786666666667</v>
-      </c>
-      <c r="D42" s="26">
-        <f t="shared" ref="D42:K42" si="14">$D35+D$41*ABS($E35-$D35)/9</f>
-        <v>178791.57333333333</v>
-      </c>
-      <c r="E42" s="26">
-        <f t="shared" si="14"/>
-        <v>268187.36</v>
-      </c>
-      <c r="F42" s="26">
-        <f t="shared" si="14"/>
-        <v>357583.14666666667</v>
-      </c>
-      <c r="G42" s="26">
-        <f t="shared" si="14"/>
-        <v>446978.93333333335</v>
-      </c>
-      <c r="H42" s="26">
-        <f t="shared" si="14"/>
-        <v>536374.72</v>
-      </c>
-      <c r="I42" s="26">
-        <f t="shared" si="14"/>
-        <v>625770.5066666666</v>
-      </c>
-      <c r="J42" s="26">
-        <f t="shared" si="14"/>
-        <v>715166.29333333333</v>
-      </c>
-      <c r="K42" s="29">
-        <f t="shared" si="14"/>
-        <v>804562.08</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="str">
-        <f t="shared" ref="A43:A46" si="15">A36</f>
-        <v>nebraska</v>
-      </c>
-      <c r="B43" s="26">
-        <f t="shared" ref="B43:K46" si="16">$D36+B$41*ABS($E36-$D36)/9</f>
-        <v>0</v>
-      </c>
-      <c r="C43" s="26">
-        <f t="shared" si="16"/>
-        <v>312885.2533333333</v>
-      </c>
-      <c r="D43" s="26">
-        <f t="shared" si="16"/>
-        <v>625770.5066666666</v>
-      </c>
-      <c r="E43" s="26">
-        <f t="shared" si="16"/>
-        <v>938655.76</v>
-      </c>
-      <c r="F43" s="26">
-        <f t="shared" si="16"/>
-        <v>1251541.0133333332</v>
-      </c>
-      <c r="G43" s="26">
-        <f t="shared" si="16"/>
-        <v>1564426.2666666666</v>
-      </c>
-      <c r="H43" s="26">
-        <f t="shared" si="16"/>
-        <v>1877311.52</v>
-      </c>
-      <c r="I43" s="26">
-        <f t="shared" si="16"/>
-        <v>2190196.773333333</v>
-      </c>
-      <c r="J43" s="26">
-        <f t="shared" si="16"/>
-        <v>2503082.0266666664</v>
-      </c>
-      <c r="K43" s="29">
-        <f t="shared" si="16"/>
-        <v>2815967.28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="str">
-        <f t="shared" si="15"/>
-        <v>ohio</v>
-      </c>
-      <c r="B44" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="C44" s="26">
-        <f t="shared" si="16"/>
-        <v>89395.786666666667</v>
-      </c>
-      <c r="D44" s="26">
-        <f t="shared" si="16"/>
-        <v>178791.57333333333</v>
-      </c>
-      <c r="E44" s="26">
-        <f t="shared" si="16"/>
-        <v>268187.36</v>
-      </c>
-      <c r="F44" s="26">
-        <f t="shared" si="16"/>
-        <v>357583.14666666667</v>
-      </c>
-      <c r="G44" s="26">
-        <f t="shared" si="16"/>
-        <v>446978.93333333335</v>
-      </c>
-      <c r="H44" s="26">
-        <f t="shared" si="16"/>
-        <v>536374.72</v>
-      </c>
-      <c r="I44" s="26">
-        <f t="shared" si="16"/>
-        <v>625770.5066666666</v>
-      </c>
-      <c r="J44" s="26">
-        <f t="shared" si="16"/>
-        <v>715166.29333333333</v>
-      </c>
-      <c r="K44" s="29">
-        <f t="shared" si="16"/>
-        <v>804562.08</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="str">
-        <f t="shared" si="15"/>
-        <v>minnesota</v>
-      </c>
-      <c r="B45" s="26">
-        <f>$D38+B$41*ABS($E38-$D38)/9</f>
-        <v>0</v>
-      </c>
       <c r="C45" s="26">
-        <f t="shared" si="16"/>
-        <v>44697.893333333333</v>
-      </c>
-      <c r="D45" s="26">
-        <f t="shared" si="16"/>
-        <v>89395.786666666667</v>
+        <f>$H35+C$37*ABS($I35-$H35)/9</f>
+        <v>60781.093333333331</v>
+      </c>
+      <c r="D45" s="39">
+        <f>$H35+D$37*ABS($I35-$H35)/9</f>
+        <v>121562.18666666666</v>
       </c>
       <c r="E45" s="26">
-        <f t="shared" si="16"/>
-        <v>134093.68</v>
-      </c>
-      <c r="F45" s="26">
-        <f t="shared" si="16"/>
-        <v>178791.57333333333</v>
+        <f>$H35+E$37*ABS($I35-$H35)/9</f>
+        <v>182343.28</v>
+      </c>
+      <c r="F45" s="39">
+        <f>$H35+F$37*ABS($I35-$H35)/9</f>
+        <v>243124.37333333332</v>
       </c>
       <c r="G45" s="26">
-        <f t="shared" si="16"/>
-        <v>223489.46666666667</v>
-      </c>
-      <c r="H45" s="26">
-        <f t="shared" si="16"/>
-        <v>268187.36</v>
+        <f>$H35+G$37*ABS($I35-$H35)/9</f>
+        <v>303905.46666666662</v>
+      </c>
+      <c r="H45" s="39">
+        <f>$H35+H$37*ABS($I35-$H35)/9</f>
+        <v>364686.56</v>
       </c>
       <c r="I45" s="26">
-        <f t="shared" si="16"/>
-        <v>312885.2533333333</v>
-      </c>
-      <c r="J45" s="26">
-        <f t="shared" si="16"/>
-        <v>357583.14666666667</v>
+        <f>$H35+I$37*ABS($I35-$H35)/9</f>
+        <v>425467.65333333332</v>
+      </c>
+      <c r="J45" s="39">
+        <f>$H35+J$37*ABS($I35-$H35)/9</f>
+        <v>486248.74666666664</v>
       </c>
       <c r="K45" s="29">
-        <f t="shared" si="16"/>
-        <v>402281.04</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>texas</v>
-      </c>
-      <c r="B46" s="30">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="C46" s="30">
-        <f>$D39+C$41*ABS($E39-$D39)/9</f>
-        <v>625770.5066666666</v>
-      </c>
-      <c r="D46" s="30">
-        <f t="shared" si="16"/>
-        <v>1251541.0133333332</v>
-      </c>
-      <c r="E46" s="30">
-        <f t="shared" si="16"/>
-        <v>1877311.52</v>
-      </c>
-      <c r="F46" s="30">
-        <f t="shared" si="16"/>
-        <v>2503082.0266666664</v>
-      </c>
-      <c r="G46" s="30">
-        <f t="shared" si="16"/>
-        <v>3128852.5333333332</v>
-      </c>
-      <c r="H46" s="30">
-        <f t="shared" si="16"/>
-        <v>3754623.04</v>
-      </c>
-      <c r="I46" s="30">
-        <f t="shared" si="16"/>
-        <v>4380393.5466666659</v>
-      </c>
-      <c r="J46" s="30">
-        <f t="shared" si="16"/>
-        <v>5006164.0533333328</v>
-      </c>
-      <c r="K46" s="31">
-        <f t="shared" si="16"/>
-        <v>5631934.5599999996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="37" t="str">
-        <f>F33</f>
-        <v>20MWe</v>
-      </c>
-      <c r="B48" s="24">
-        <v>0</v>
-      </c>
-      <c r="C48" s="27">
-        <v>1</v>
-      </c>
-      <c r="D48" s="24">
-        <v>2</v>
-      </c>
-      <c r="E48" s="27">
-        <v>3</v>
-      </c>
-      <c r="F48" s="24">
-        <v>4</v>
-      </c>
-      <c r="G48" s="27">
-        <v>5</v>
-      </c>
-      <c r="H48" s="24">
-        <v>6</v>
-      </c>
-      <c r="I48" s="27">
-        <v>7</v>
-      </c>
-      <c r="J48" s="24">
-        <v>8</v>
-      </c>
-      <c r="K48" s="28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="str">
-        <f>A42</f>
-        <v>illinois</v>
-      </c>
-      <c r="B49" s="39">
-        <f>$F35+B$41*ABS($G35-$F35)/9</f>
-        <v>0</v>
-      </c>
-      <c r="C49" s="26">
-        <f>$F35+C$41*ABS($G35-$F35)/9</f>
-        <v>25062.986666666664</v>
-      </c>
-      <c r="D49" s="39">
-        <f t="shared" ref="D49:K49" si="17">$F35+D$41*ABS($G35-$F35)/9</f>
-        <v>50125.973333333328</v>
-      </c>
-      <c r="E49" s="26">
-        <f t="shared" si="17"/>
-        <v>75188.959999999992</v>
-      </c>
-      <c r="F49" s="39">
-        <f t="shared" si="17"/>
-        <v>100251.94666666666</v>
-      </c>
-      <c r="G49" s="26">
-        <f t="shared" si="17"/>
-        <v>125314.93333333332</v>
-      </c>
-      <c r="H49" s="39">
-        <f t="shared" si="17"/>
-        <v>150377.91999999998</v>
-      </c>
-      <c r="I49" s="26">
-        <f t="shared" si="17"/>
-        <v>175440.90666666665</v>
-      </c>
-      <c r="J49" s="39">
-        <f t="shared" si="17"/>
-        <v>200503.89333333331</v>
-      </c>
-      <c r="K49" s="29">
-        <f t="shared" si="17"/>
-        <v>225566.87999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="str">
-        <f t="shared" ref="A50:A53" si="18">A43</f>
-        <v>nebraska</v>
-      </c>
-      <c r="B50" s="39">
-        <f t="shared" ref="B50:K53" si="19">$F36+B$41*ABS($G36-$F36)/9</f>
-        <v>0</v>
-      </c>
-      <c r="C50" s="26">
-        <f t="shared" si="19"/>
-        <v>87720.453333333324</v>
-      </c>
-      <c r="D50" s="39">
-        <f t="shared" si="19"/>
-        <v>175440.90666666665</v>
-      </c>
-      <c r="E50" s="26">
-        <f t="shared" si="19"/>
-        <v>263161.36</v>
-      </c>
-      <c r="F50" s="39">
-        <f t="shared" si="19"/>
-        <v>350881.8133333333</v>
-      </c>
-      <c r="G50" s="26">
-        <f t="shared" si="19"/>
-        <v>438602.26666666666</v>
-      </c>
-      <c r="H50" s="39">
-        <f t="shared" si="19"/>
-        <v>526322.72</v>
-      </c>
-      <c r="I50" s="26">
-        <f t="shared" si="19"/>
-        <v>614043.17333333334</v>
-      </c>
-      <c r="J50" s="39">
-        <f t="shared" si="19"/>
-        <v>701763.62666666659</v>
-      </c>
-      <c r="K50" s="29">
-        <f t="shared" si="19"/>
-        <v>789484.08</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="str">
-        <f t="shared" si="18"/>
-        <v>ohio</v>
-      </c>
-      <c r="B51" s="39">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="C51" s="26">
-        <f t="shared" si="19"/>
-        <v>25062.986666666664</v>
-      </c>
-      <c r="D51" s="39">
-        <f t="shared" si="19"/>
-        <v>50125.973333333328</v>
-      </c>
-      <c r="E51" s="26">
-        <f t="shared" si="19"/>
-        <v>75188.959999999992</v>
-      </c>
-      <c r="F51" s="39">
-        <f t="shared" si="19"/>
-        <v>100251.94666666666</v>
-      </c>
-      <c r="G51" s="26">
-        <f t="shared" si="19"/>
-        <v>125314.93333333332</v>
-      </c>
-      <c r="H51" s="39">
-        <f t="shared" si="19"/>
-        <v>150377.91999999998</v>
-      </c>
-      <c r="I51" s="26">
-        <f t="shared" si="19"/>
-        <v>175440.90666666665</v>
-      </c>
-      <c r="J51" s="39">
-        <f t="shared" si="19"/>
-        <v>200503.89333333331</v>
-      </c>
-      <c r="K51" s="29">
-        <f t="shared" si="19"/>
-        <v>225566.87999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="str">
-        <f t="shared" si="18"/>
-        <v>minnesota</v>
-      </c>
-      <c r="B52" s="39">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="C52" s="26">
-        <f>$F38+C$41*ABS($G38-$F38)/9</f>
-        <v>12531.493333333332</v>
-      </c>
-      <c r="D52" s="39">
-        <f t="shared" si="19"/>
-        <v>25062.986666666664</v>
-      </c>
-      <c r="E52" s="26">
-        <f t="shared" si="19"/>
-        <v>37594.479999999996</v>
-      </c>
-      <c r="F52" s="39">
-        <f t="shared" si="19"/>
-        <v>50125.973333333328</v>
-      </c>
-      <c r="G52" s="26">
-        <f t="shared" si="19"/>
-        <v>62657.46666666666</v>
-      </c>
-      <c r="H52" s="39">
-        <f t="shared" si="19"/>
-        <v>75188.959999999992</v>
-      </c>
-      <c r="I52" s="26">
-        <f t="shared" si="19"/>
-        <v>87720.453333333324</v>
-      </c>
-      <c r="J52" s="39">
-        <f t="shared" si="19"/>
-        <v>100251.94666666666</v>
-      </c>
-      <c r="K52" s="29">
-        <f t="shared" si="19"/>
-        <v>112783.43999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="str">
-        <f t="shared" si="18"/>
-        <v>texas</v>
-      </c>
-      <c r="B53" s="39">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="C53" s="30">
-        <f t="shared" si="19"/>
-        <v>175440.90666666665</v>
-      </c>
-      <c r="D53" s="39">
-        <f t="shared" si="19"/>
-        <v>350881.8133333333</v>
-      </c>
-      <c r="E53" s="30">
-        <f t="shared" si="19"/>
-        <v>526322.72</v>
-      </c>
-      <c r="F53" s="39">
-        <f t="shared" si="19"/>
-        <v>701763.62666666659</v>
-      </c>
-      <c r="G53" s="30">
-        <f t="shared" si="19"/>
-        <v>877204.53333333333</v>
-      </c>
-      <c r="H53" s="39">
-        <f t="shared" si="19"/>
-        <v>1052645.44</v>
-      </c>
-      <c r="I53" s="30">
-        <f t="shared" si="19"/>
-        <v>1228086.3466666667</v>
-      </c>
-      <c r="J53" s="39">
-        <f t="shared" si="19"/>
-        <v>1403527.2533333332</v>
-      </c>
-      <c r="K53" s="31">
-        <f t="shared" si="19"/>
-        <v>1578968.16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="37" t="str">
-        <f>H33</f>
-        <v>100MWe</v>
-      </c>
-      <c r="B56" s="34">
-        <f>B41</f>
-        <v>0</v>
-      </c>
-      <c r="C56" s="34">
-        <f t="shared" ref="C56:K56" si="20">C41</f>
-        <v>1</v>
-      </c>
-      <c r="D56" s="34">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="E56" s="34">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="F56" s="34">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="G56" s="34">
-        <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="H56" s="34">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="I56" s="34">
-        <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-      <c r="J56" s="34">
-        <f t="shared" si="20"/>
-        <v>8</v>
-      </c>
-      <c r="K56" s="35">
-        <f t="shared" si="20"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="str">
-        <f>A35</f>
-        <v>illinois</v>
-      </c>
-      <c r="B57" s="39">
-        <f t="shared" ref="B57:K57" si="21">$H35+B$41*ABS($I35-$H35)/9</f>
-        <v>0</v>
-      </c>
-      <c r="C57" s="26">
-        <f t="shared" si="21"/>
-        <v>126923.25333333334</v>
-      </c>
-      <c r="D57" s="39">
-        <f t="shared" si="21"/>
-        <v>253846.50666666668</v>
-      </c>
-      <c r="E57" s="26">
-        <f t="shared" si="21"/>
-        <v>380769.76</v>
-      </c>
-      <c r="F57" s="39">
-        <f t="shared" si="21"/>
-        <v>507693.01333333337</v>
-      </c>
-      <c r="G57" s="26">
-        <f t="shared" si="21"/>
-        <v>634616.26666666672</v>
-      </c>
-      <c r="H57" s="39">
-        <f t="shared" si="21"/>
-        <v>761539.52</v>
-      </c>
-      <c r="I57" s="26">
-        <f t="shared" si="21"/>
-        <v>888462.77333333332</v>
-      </c>
-      <c r="J57" s="39">
-        <f t="shared" si="21"/>
-        <v>1015386.0266666667</v>
-      </c>
-      <c r="K57" s="29">
-        <f t="shared" si="21"/>
-        <v>1142309.28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="str">
-        <f t="shared" ref="A58:A61" si="22">A36</f>
-        <v>nebraska</v>
-      </c>
-      <c r="B58" s="39">
-        <f t="shared" ref="B58:K58" si="23">$H36+B$41*ABS($I36-$H36)/9</f>
-        <v>0</v>
-      </c>
-      <c r="C58" s="26">
-        <f t="shared" si="23"/>
-        <v>444231.38666666666</v>
-      </c>
-      <c r="D58" s="39">
-        <f t="shared" si="23"/>
-        <v>888462.77333333332</v>
-      </c>
-      <c r="E58" s="26">
-        <f t="shared" si="23"/>
-        <v>1332694.1599999999</v>
-      </c>
-      <c r="F58" s="39">
-        <f t="shared" si="23"/>
-        <v>1776925.5466666666</v>
-      </c>
-      <c r="G58" s="26">
-        <f t="shared" si="23"/>
-        <v>2221156.9333333331</v>
-      </c>
-      <c r="H58" s="39">
-        <f t="shared" si="23"/>
-        <v>2665388.3199999998</v>
-      </c>
-      <c r="I58" s="26">
-        <f t="shared" si="23"/>
-        <v>3109619.7066666665</v>
-      </c>
-      <c r="J58" s="39">
-        <f t="shared" si="23"/>
-        <v>3553851.0933333333</v>
-      </c>
-      <c r="K58" s="29">
-        <f t="shared" si="23"/>
-        <v>3998082.48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="str">
-        <f t="shared" si="22"/>
-        <v>ohio</v>
-      </c>
-      <c r="B59" s="39">
-        <f t="shared" ref="B59:K59" si="24">$H37+B$41*ABS($I37-$H37)/9</f>
-        <v>0</v>
-      </c>
-      <c r="C59" s="26">
-        <f t="shared" si="24"/>
-        <v>126923.25333333334</v>
-      </c>
-      <c r="D59" s="39">
-        <f t="shared" si="24"/>
-        <v>253846.50666666668</v>
-      </c>
-      <c r="E59" s="26">
-        <f t="shared" si="24"/>
-        <v>380769.76</v>
-      </c>
-      <c r="F59" s="39">
-        <f t="shared" si="24"/>
-        <v>507693.01333333337</v>
-      </c>
-      <c r="G59" s="26">
-        <f t="shared" si="24"/>
-        <v>634616.26666666672</v>
-      </c>
-      <c r="H59" s="39">
-        <f t="shared" si="24"/>
-        <v>761539.52</v>
-      </c>
-      <c r="I59" s="26">
-        <f t="shared" si="24"/>
-        <v>888462.77333333332</v>
-      </c>
-      <c r="J59" s="39">
-        <f t="shared" si="24"/>
-        <v>1015386.0266666667</v>
-      </c>
-      <c r="K59" s="29">
-        <f t="shared" si="24"/>
-        <v>1142309.28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="str">
-        <f t="shared" si="22"/>
-        <v>minnesota</v>
-      </c>
-      <c r="B60" s="39">
-        <f t="shared" ref="B60:K60" si="25">$H38+B$41*ABS($I38-$H38)/9</f>
-        <v>0</v>
-      </c>
-      <c r="C60" s="26">
-        <f t="shared" si="25"/>
-        <v>63461.626666666671</v>
-      </c>
-      <c r="D60" s="39">
-        <f t="shared" si="25"/>
-        <v>126923.25333333334</v>
-      </c>
-      <c r="E60" s="26">
-        <f t="shared" si="25"/>
-        <v>190384.88</v>
-      </c>
-      <c r="F60" s="39">
-        <f t="shared" si="25"/>
-        <v>253846.50666666668</v>
-      </c>
-      <c r="G60" s="26">
-        <f t="shared" si="25"/>
-        <v>317308.13333333336</v>
-      </c>
-      <c r="H60" s="39">
-        <f t="shared" si="25"/>
-        <v>380769.76</v>
-      </c>
-      <c r="I60" s="26">
-        <f t="shared" si="25"/>
-        <v>444231.38666666666</v>
-      </c>
-      <c r="J60" s="39">
-        <f t="shared" si="25"/>
-        <v>507693.01333333337</v>
-      </c>
-      <c r="K60" s="29">
-        <f t="shared" si="25"/>
-        <v>571154.64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="str">
-        <f t="shared" si="22"/>
-        <v>texas</v>
-      </c>
-      <c r="B61" s="39">
-        <f t="shared" ref="B61:K61" si="26">$H39+B$41*ABS($I39-$H39)/9</f>
-        <v>0</v>
-      </c>
-      <c r="C61" s="30">
-        <f t="shared" si="26"/>
-        <v>888462.77333333332</v>
-      </c>
-      <c r="D61" s="39">
-        <f t="shared" si="26"/>
-        <v>1776925.5466666666</v>
-      </c>
-      <c r="E61" s="30">
-        <f t="shared" si="26"/>
-        <v>2665388.3199999998</v>
-      </c>
-      <c r="F61" s="39">
-        <f t="shared" si="26"/>
-        <v>3553851.0933333333</v>
-      </c>
-      <c r="G61" s="30">
-        <f t="shared" si="26"/>
-        <v>4442313.8666666662</v>
-      </c>
-      <c r="H61" s="39">
-        <f t="shared" si="26"/>
-        <v>5330776.6399999997</v>
-      </c>
-      <c r="I61" s="30">
-        <f t="shared" si="26"/>
-        <v>6219239.4133333331</v>
-      </c>
-      <c r="J61" s="39">
-        <f t="shared" si="26"/>
-        <v>7107702.1866666665</v>
-      </c>
-      <c r="K61" s="31">
-        <f t="shared" si="26"/>
-        <v>7996164.96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="D62" s="40"/>
+        <f>$H35+K$37*ABS($I35-$H35)/9</f>
+        <v>547029.84</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6991,19 +7562,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B09676-3E9F-3445-A5B7-C86CFA7A8DEF}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -7087,39 +7658,39 @@
       </c>
       <c r="B3" s="26">
         <f>Boundaries!B23</f>
-        <v>-187</v>
+        <v>-427</v>
       </c>
       <c r="C3" s="26">
         <f>Boundaries!C23</f>
-        <v>-171.44444444444446</v>
+        <v>-384.77777777777777</v>
       </c>
       <c r="D3" s="26">
         <f>Boundaries!D23</f>
-        <v>-155.88888888888889</v>
+        <v>-342.55555555555554</v>
       </c>
       <c r="E3" s="26">
         <f>Boundaries!E23</f>
-        <v>-140.33333333333334</v>
+        <v>-300.33333333333331</v>
       </c>
       <c r="F3" s="26">
         <f>Boundaries!F23</f>
-        <v>-124.77777777777777</v>
+        <v>-258.11111111111109</v>
       </c>
       <c r="G3" s="26">
         <f>Boundaries!G23</f>
-        <v>-109.22222222222223</v>
+        <v>-215.88888888888889</v>
       </c>
       <c r="H3" s="26">
         <f>Boundaries!H23</f>
-        <v>-93.666666666666671</v>
+        <v>-173.66666666666666</v>
       </c>
       <c r="I3" s="26">
         <f>Boundaries!I23</f>
-        <v>-78.111111111111114</v>
+        <v>-131.44444444444446</v>
       </c>
       <c r="J3" s="26">
         <f>Boundaries!J23</f>
-        <v>-62.555555555555557</v>
+        <v>-89.222222222222229</v>
       </c>
       <c r="K3" s="26">
         <f>Boundaries!K23</f>
@@ -7132,986 +7703,43 @@
       </c>
       <c r="B4" s="26">
         <f>Boundaries!B24</f>
-        <v>-947</v>
+        <v>-907</v>
       </c>
       <c r="C4" s="26">
         <f>Boundaries!C24</f>
-        <v>-847</v>
+        <v>-811.44444444444446</v>
       </c>
       <c r="D4" s="26">
         <f>Boundaries!D24</f>
-        <v>-747</v>
+        <v>-715.88888888888891</v>
       </c>
       <c r="E4" s="26">
         <f>Boundaries!E24</f>
-        <v>-647</v>
+        <v>-620.33333333333326</v>
       </c>
       <c r="F4" s="26">
         <f>Boundaries!F24</f>
-        <v>-547</v>
+        <v>-524.77777777777783</v>
       </c>
       <c r="G4" s="26">
         <f>Boundaries!G24</f>
-        <v>-447</v>
+        <v>-429.22222222222223</v>
       </c>
       <c r="H4" s="26">
         <f>Boundaries!H24</f>
-        <v>-347</v>
+        <v>-333.66666666666663</v>
       </c>
       <c r="I4" s="26">
         <f>Boundaries!I24</f>
-        <v>-247</v>
+        <v>-238.11111111111109</v>
       </c>
       <c r="J4" s="26">
         <f>Boundaries!J24</f>
-        <v>-147</v>
+        <v>-142.55555555555554</v>
       </c>
       <c r="K4" s="26">
         <f>Boundaries!K24</f>
         <v>-47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02D16CF-FC8F-7346-9EC7-361D100E0C44}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>4</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>6</v>
-      </c>
-      <c r="I1">
-        <v>7</v>
-      </c>
-      <c r="J1">
-        <v>8</v>
-      </c>
-      <c r="K1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>60</v>
-      </c>
-      <c r="B2" s="26">
-        <f>Boundaries!B28</f>
-        <v>-16761.71</v>
-      </c>
-      <c r="C2" s="26">
-        <f>Boundaries!C28</f>
-        <v>-15030.532222222222</v>
-      </c>
-      <c r="D2" s="26">
-        <f>Boundaries!D28</f>
-        <v>-13299.354444444443</v>
-      </c>
-      <c r="E2" s="26">
-        <f>Boundaries!E28</f>
-        <v>-11568.176666666666</v>
-      </c>
-      <c r="F2" s="26">
-        <f>Boundaries!F28</f>
-        <v>-9836.9988888888874</v>
-      </c>
-      <c r="G2" s="26">
-        <f>Boundaries!G28</f>
-        <v>-8105.8211111111104</v>
-      </c>
-      <c r="H2" s="26">
-        <f>Boundaries!H28</f>
-        <v>-6374.6433333333334</v>
-      </c>
-      <c r="I2" s="26">
-        <f>Boundaries!I28</f>
-        <v>-4643.4655555555564</v>
-      </c>
-      <c r="J2" s="26">
-        <f>Boundaries!J28</f>
-        <v>-2912.2877777777776</v>
-      </c>
-      <c r="K2" s="26">
-        <f>Boundaries!K28</f>
-        <v>-1181.1100000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>20</v>
-      </c>
-      <c r="B3" s="26">
-        <f>Boundaries!B29</f>
-        <v>-4699.3099999999995</v>
-      </c>
-      <c r="C3" s="26">
-        <f>Boundaries!C29</f>
-        <v>-4308.398888888888</v>
-      </c>
-      <c r="D3" s="26">
-        <f>Boundaries!D29</f>
-        <v>-3917.4877777777774</v>
-      </c>
-      <c r="E3" s="26">
-        <f>Boundaries!E29</f>
-        <v>-3526.5766666666664</v>
-      </c>
-      <c r="F3" s="26">
-        <f>Boundaries!F29</f>
-        <v>-3135.6655555555553</v>
-      </c>
-      <c r="G3" s="26">
-        <f>Boundaries!G29</f>
-        <v>-2744.7544444444438</v>
-      </c>
-      <c r="H3" s="26">
-        <f>Boundaries!H29</f>
-        <v>-2353.8433333333332</v>
-      </c>
-      <c r="I3" s="26">
-        <f>Boundaries!I29</f>
-        <v>-1962.9322222222218</v>
-      </c>
-      <c r="J3" s="26">
-        <f>Boundaries!J29</f>
-        <v>-1572.0211111111107</v>
-      </c>
-      <c r="K3" s="26">
-        <f>Boundaries!K29</f>
-        <v>-1181.1099999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>100</v>
-      </c>
-      <c r="B4" s="26">
-        <f>Boundaries!B30</f>
-        <v>-23798.11</v>
-      </c>
-      <c r="C4" s="26">
-        <f>Boundaries!C30</f>
-        <v>-21285.11</v>
-      </c>
-      <c r="D4" s="26">
-        <f>Boundaries!D30</f>
-        <v>-18772.11</v>
-      </c>
-      <c r="E4" s="26">
-        <f>Boundaries!E30</f>
-        <v>-16259.11</v>
-      </c>
-      <c r="F4" s="26">
-        <f>Boundaries!F30</f>
-        <v>-13746.11</v>
-      </c>
-      <c r="G4" s="26">
-        <f>Boundaries!G30</f>
-        <v>-11233.11</v>
-      </c>
-      <c r="H4" s="26">
-        <f>Boundaries!H30</f>
-        <v>-8720.11</v>
-      </c>
-      <c r="I4" s="26">
-        <f>Boundaries!I30</f>
-        <v>-6207.1100000000006</v>
-      </c>
-      <c r="J4" s="26">
-        <f>Boundaries!J30</f>
-        <v>-3694.1100000000006</v>
-      </c>
-      <c r="K4" s="26">
-        <f>Boundaries!K30</f>
-        <v>-1181.1100000000006</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434EBFA0-7597-9643-BFE7-2F3817A1857D}">
-  <dimension ref="A1:L16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="F1">
-        <v>3</v>
-      </c>
-      <c r="G1">
-        <v>4</v>
-      </c>
-      <c r="H1">
-        <v>5</v>
-      </c>
-      <c r="I1">
-        <v>6</v>
-      </c>
-      <c r="J1">
-        <v>7</v>
-      </c>
-      <c r="K1">
-        <v>8</v>
-      </c>
-      <c r="L1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2">
-        <v>60</v>
-      </c>
-      <c r="C2" s="26">
-        <v>10</v>
-      </c>
-      <c r="D2" s="26">
-        <f>Boundaries!C42</f>
-        <v>89395.786666666667</v>
-      </c>
-      <c r="E2" s="26">
-        <f>Boundaries!D42</f>
-        <v>178791.57333333333</v>
-      </c>
-      <c r="F2" s="26">
-        <f>Boundaries!E42</f>
-        <v>268187.36</v>
-      </c>
-      <c r="G2" s="26">
-        <f>Boundaries!F42</f>
-        <v>357583.14666666667</v>
-      </c>
-      <c r="H2" s="26">
-        <f>Boundaries!G42</f>
-        <v>446978.93333333335</v>
-      </c>
-      <c r="I2" s="26">
-        <f>Boundaries!H42</f>
-        <v>536374.72</v>
-      </c>
-      <c r="J2" s="26">
-        <f>Boundaries!I42</f>
-        <v>625770.5066666666</v>
-      </c>
-      <c r="K2" s="26">
-        <f>Boundaries!J42</f>
-        <v>715166.29333333333</v>
-      </c>
-      <c r="L2" s="26">
-        <f>Boundaries!K42</f>
-        <v>804562.08</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3">
-        <v>60</v>
-      </c>
-      <c r="C3" s="26">
-        <v>10</v>
-      </c>
-      <c r="D3" s="26">
-        <f>Boundaries!C43</f>
-        <v>312885.2533333333</v>
-      </c>
-      <c r="E3" s="26">
-        <f>Boundaries!D43</f>
-        <v>625770.5066666666</v>
-      </c>
-      <c r="F3" s="26">
-        <f>Boundaries!E43</f>
-        <v>938655.76</v>
-      </c>
-      <c r="G3" s="26">
-        <f>Boundaries!F43</f>
-        <v>1251541.0133333332</v>
-      </c>
-      <c r="H3" s="26">
-        <f>Boundaries!G43</f>
-        <v>1564426.2666666666</v>
-      </c>
-      <c r="I3" s="26">
-        <f>Boundaries!H43</f>
-        <v>1877311.52</v>
-      </c>
-      <c r="J3" s="26">
-        <f>Boundaries!I43</f>
-        <v>2190196.773333333</v>
-      </c>
-      <c r="K3" s="26">
-        <f>Boundaries!J43</f>
-        <v>2503082.0266666664</v>
-      </c>
-      <c r="L3" s="26">
-        <f>Boundaries!K43</f>
-        <v>2815967.28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-      <c r="C4" s="26">
-        <v>10</v>
-      </c>
-      <c r="D4" s="26">
-        <f>Boundaries!C44</f>
-        <v>89395.786666666667</v>
-      </c>
-      <c r="E4" s="26">
-        <f>Boundaries!D44</f>
-        <v>178791.57333333333</v>
-      </c>
-      <c r="F4" s="26">
-        <f>Boundaries!E44</f>
-        <v>268187.36</v>
-      </c>
-      <c r="G4" s="26">
-        <f>Boundaries!F44</f>
-        <v>357583.14666666667</v>
-      </c>
-      <c r="H4" s="26">
-        <f>Boundaries!G44</f>
-        <v>446978.93333333335</v>
-      </c>
-      <c r="I4" s="26">
-        <f>Boundaries!H44</f>
-        <v>536374.72</v>
-      </c>
-      <c r="J4" s="26">
-        <f>Boundaries!I44</f>
-        <v>625770.5066666666</v>
-      </c>
-      <c r="K4" s="26">
-        <f>Boundaries!J44</f>
-        <v>715166.29333333333</v>
-      </c>
-      <c r="L4" s="26">
-        <f>Boundaries!K44</f>
-        <v>804562.08</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5">
-        <v>60</v>
-      </c>
-      <c r="C5" s="26">
-        <v>10</v>
-      </c>
-      <c r="D5" s="26">
-        <f>Boundaries!C45</f>
-        <v>44697.893333333333</v>
-      </c>
-      <c r="E5" s="26">
-        <f>Boundaries!D45</f>
-        <v>89395.786666666667</v>
-      </c>
-      <c r="F5" s="26">
-        <f>Boundaries!E45</f>
-        <v>134093.68</v>
-      </c>
-      <c r="G5" s="26">
-        <f>Boundaries!F45</f>
-        <v>178791.57333333333</v>
-      </c>
-      <c r="H5" s="26">
-        <f>Boundaries!G45</f>
-        <v>223489.46666666667</v>
-      </c>
-      <c r="I5" s="26">
-        <f>Boundaries!H45</f>
-        <v>268187.36</v>
-      </c>
-      <c r="J5" s="26">
-        <f>Boundaries!I45</f>
-        <v>312885.2533333333</v>
-      </c>
-      <c r="K5" s="26">
-        <f>Boundaries!J45</f>
-        <v>357583.14666666667</v>
-      </c>
-      <c r="L5" s="26">
-        <f>Boundaries!K45</f>
-        <v>402281.04</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6">
-        <v>60</v>
-      </c>
-      <c r="C6" s="26">
-        <v>10</v>
-      </c>
-      <c r="D6" s="26">
-        <f>Boundaries!C46</f>
-        <v>625770.5066666666</v>
-      </c>
-      <c r="E6" s="26">
-        <f>Boundaries!D46</f>
-        <v>1251541.0133333332</v>
-      </c>
-      <c r="F6" s="26">
-        <f>Boundaries!E46</f>
-        <v>1877311.52</v>
-      </c>
-      <c r="G6" s="26">
-        <f>Boundaries!F46</f>
-        <v>2503082.0266666664</v>
-      </c>
-      <c r="H6" s="26">
-        <f>Boundaries!G46</f>
-        <v>3128852.5333333332</v>
-      </c>
-      <c r="I6" s="26">
-        <f>Boundaries!H46</f>
-        <v>3754623.04</v>
-      </c>
-      <c r="J6" s="26">
-        <f>Boundaries!I46</f>
-        <v>4380393.5466666659</v>
-      </c>
-      <c r="K6" s="26">
-        <f>Boundaries!J46</f>
-        <v>5006164.0533333328</v>
-      </c>
-      <c r="L6" s="26">
-        <f>Boundaries!K46</f>
-        <v>5631934.5599999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7">
-        <v>20</v>
-      </c>
-      <c r="C7" s="26">
-        <v>10</v>
-      </c>
-      <c r="D7" s="26">
-        <f>Boundaries!C49</f>
-        <v>25062.986666666664</v>
-      </c>
-      <c r="E7" s="26">
-        <f>Boundaries!D49</f>
-        <v>50125.973333333328</v>
-      </c>
-      <c r="F7" s="26">
-        <f>Boundaries!E49</f>
-        <v>75188.959999999992</v>
-      </c>
-      <c r="G7" s="26">
-        <f>Boundaries!F49</f>
-        <v>100251.94666666666</v>
-      </c>
-      <c r="H7" s="26">
-        <f>Boundaries!G49</f>
-        <v>125314.93333333332</v>
-      </c>
-      <c r="I7" s="26">
-        <f>Boundaries!H49</f>
-        <v>150377.91999999998</v>
-      </c>
-      <c r="J7" s="26">
-        <f>Boundaries!I49</f>
-        <v>175440.90666666665</v>
-      </c>
-      <c r="K7" s="26">
-        <f>Boundaries!J49</f>
-        <v>200503.89333333331</v>
-      </c>
-      <c r="L7" s="26">
-        <f>Boundaries!K49</f>
-        <v>225566.87999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
-      </c>
-      <c r="C8" s="26">
-        <v>10</v>
-      </c>
-      <c r="D8" s="26">
-        <f>Boundaries!C50</f>
-        <v>87720.453333333324</v>
-      </c>
-      <c r="E8" s="26">
-        <f>Boundaries!D50</f>
-        <v>175440.90666666665</v>
-      </c>
-      <c r="F8" s="26">
-        <f>Boundaries!E50</f>
-        <v>263161.36</v>
-      </c>
-      <c r="G8" s="26">
-        <f>Boundaries!F50</f>
-        <v>350881.8133333333</v>
-      </c>
-      <c r="H8" s="26">
-        <f>Boundaries!G50</f>
-        <v>438602.26666666666</v>
-      </c>
-      <c r="I8" s="26">
-        <f>Boundaries!H50</f>
-        <v>526322.72</v>
-      </c>
-      <c r="J8" s="26">
-        <f>Boundaries!I50</f>
-        <v>614043.17333333334</v>
-      </c>
-      <c r="K8" s="26">
-        <f>Boundaries!J50</f>
-        <v>701763.62666666659</v>
-      </c>
-      <c r="L8" s="26">
-        <f>Boundaries!K50</f>
-        <v>789484.08</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="C9" s="26">
-        <v>10</v>
-      </c>
-      <c r="D9" s="26">
-        <f>Boundaries!C51</f>
-        <v>25062.986666666664</v>
-      </c>
-      <c r="E9" s="26">
-        <f>Boundaries!D51</f>
-        <v>50125.973333333328</v>
-      </c>
-      <c r="F9" s="26">
-        <f>Boundaries!E51</f>
-        <v>75188.959999999992</v>
-      </c>
-      <c r="G9" s="26">
-        <f>Boundaries!F51</f>
-        <v>100251.94666666666</v>
-      </c>
-      <c r="H9" s="26">
-        <f>Boundaries!G51</f>
-        <v>125314.93333333332</v>
-      </c>
-      <c r="I9" s="26">
-        <f>Boundaries!H51</f>
-        <v>150377.91999999998</v>
-      </c>
-      <c r="J9" s="26">
-        <f>Boundaries!I51</f>
-        <v>175440.90666666665</v>
-      </c>
-      <c r="K9" s="26">
-        <f>Boundaries!J51</f>
-        <v>200503.89333333331</v>
-      </c>
-      <c r="L9" s="26">
-        <f>Boundaries!K51</f>
-        <v>225566.87999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="C10" s="26">
-        <v>10</v>
-      </c>
-      <c r="D10" s="26">
-        <f>Boundaries!C52</f>
-        <v>12531.493333333332</v>
-      </c>
-      <c r="E10" s="26">
-        <f>Boundaries!D52</f>
-        <v>25062.986666666664</v>
-      </c>
-      <c r="F10" s="26">
-        <f>Boundaries!E52</f>
-        <v>37594.479999999996</v>
-      </c>
-      <c r="G10" s="26">
-        <f>Boundaries!F52</f>
-        <v>50125.973333333328</v>
-      </c>
-      <c r="H10" s="26">
-        <f>Boundaries!G52</f>
-        <v>62657.46666666666</v>
-      </c>
-      <c r="I10" s="26">
-        <f>Boundaries!H52</f>
-        <v>75188.959999999992</v>
-      </c>
-      <c r="J10" s="26">
-        <f>Boundaries!I52</f>
-        <v>87720.453333333324</v>
-      </c>
-      <c r="K10" s="26">
-        <f>Boundaries!J52</f>
-        <v>100251.94666666666</v>
-      </c>
-      <c r="L10" s="26">
-        <f>Boundaries!K52</f>
-        <v>112783.43999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11">
-        <v>20</v>
-      </c>
-      <c r="C11" s="26">
-        <v>10</v>
-      </c>
-      <c r="D11" s="26">
-        <f>Boundaries!C53</f>
-        <v>175440.90666666665</v>
-      </c>
-      <c r="E11" s="26">
-        <f>Boundaries!D53</f>
-        <v>350881.8133333333</v>
-      </c>
-      <c r="F11" s="26">
-        <f>Boundaries!E53</f>
-        <v>526322.72</v>
-      </c>
-      <c r="G11" s="26">
-        <f>Boundaries!F53</f>
-        <v>701763.62666666659</v>
-      </c>
-      <c r="H11" s="26">
-        <f>Boundaries!G53</f>
-        <v>877204.53333333333</v>
-      </c>
-      <c r="I11" s="26">
-        <f>Boundaries!H53</f>
-        <v>1052645.44</v>
-      </c>
-      <c r="J11" s="26">
-        <f>Boundaries!I53</f>
-        <v>1228086.3466666667</v>
-      </c>
-      <c r="K11" s="26">
-        <f>Boundaries!J53</f>
-        <v>1403527.2533333332</v>
-      </c>
-      <c r="L11" s="26">
-        <f>Boundaries!K53</f>
-        <v>1578968.16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12">
-        <v>100</v>
-      </c>
-      <c r="C12" s="26">
-        <v>10</v>
-      </c>
-      <c r="D12" s="26">
-        <f>Boundaries!C57</f>
-        <v>126923.25333333334</v>
-      </c>
-      <c r="E12" s="26">
-        <f>Boundaries!D57</f>
-        <v>253846.50666666668</v>
-      </c>
-      <c r="F12" s="26">
-        <f>Boundaries!E57</f>
-        <v>380769.76</v>
-      </c>
-      <c r="G12" s="26">
-        <f>Boundaries!F57</f>
-        <v>507693.01333333337</v>
-      </c>
-      <c r="H12" s="26">
-        <f>Boundaries!G57</f>
-        <v>634616.26666666672</v>
-      </c>
-      <c r="I12" s="26">
-        <f>Boundaries!H57</f>
-        <v>761539.52</v>
-      </c>
-      <c r="J12" s="26">
-        <f>Boundaries!I57</f>
-        <v>888462.77333333332</v>
-      </c>
-      <c r="K12" s="26">
-        <f>Boundaries!J57</f>
-        <v>1015386.0266666667</v>
-      </c>
-      <c r="L12" s="26">
-        <f>Boundaries!K57</f>
-        <v>1142309.28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13">
-        <v>100</v>
-      </c>
-      <c r="C13" s="26">
-        <v>10</v>
-      </c>
-      <c r="D13" s="26">
-        <f>Boundaries!C58</f>
-        <v>444231.38666666666</v>
-      </c>
-      <c r="E13" s="26">
-        <f>Boundaries!D58</f>
-        <v>888462.77333333332</v>
-      </c>
-      <c r="F13" s="26">
-        <f>Boundaries!E58</f>
-        <v>1332694.1599999999</v>
-      </c>
-      <c r="G13" s="26">
-        <f>Boundaries!F58</f>
-        <v>1776925.5466666666</v>
-      </c>
-      <c r="H13" s="26">
-        <f>Boundaries!G58</f>
-        <v>2221156.9333333331</v>
-      </c>
-      <c r="I13" s="26">
-        <f>Boundaries!H58</f>
-        <v>2665388.3199999998</v>
-      </c>
-      <c r="J13" s="26">
-        <f>Boundaries!I58</f>
-        <v>3109619.7066666665</v>
-      </c>
-      <c r="K13" s="26">
-        <f>Boundaries!J58</f>
-        <v>3553851.0933333333</v>
-      </c>
-      <c r="L13" s="26">
-        <f>Boundaries!K58</f>
-        <v>3998082.48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14">
-        <v>100</v>
-      </c>
-      <c r="C14" s="26">
-        <v>10</v>
-      </c>
-      <c r="D14" s="26">
-        <f>Boundaries!C59</f>
-        <v>126923.25333333334</v>
-      </c>
-      <c r="E14" s="26">
-        <f>Boundaries!D59</f>
-        <v>253846.50666666668</v>
-      </c>
-      <c r="F14" s="26">
-        <f>Boundaries!E59</f>
-        <v>380769.76</v>
-      </c>
-      <c r="G14" s="26">
-        <f>Boundaries!F59</f>
-        <v>507693.01333333337</v>
-      </c>
-      <c r="H14" s="26">
-        <f>Boundaries!G59</f>
-        <v>634616.26666666672</v>
-      </c>
-      <c r="I14" s="26">
-        <f>Boundaries!H59</f>
-        <v>761539.52</v>
-      </c>
-      <c r="J14" s="26">
-        <f>Boundaries!I59</f>
-        <v>888462.77333333332</v>
-      </c>
-      <c r="K14" s="26">
-        <f>Boundaries!J59</f>
-        <v>1015386.0266666667</v>
-      </c>
-      <c r="L14" s="26">
-        <f>Boundaries!K59</f>
-        <v>1142309.28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15">
-        <v>100</v>
-      </c>
-      <c r="C15" s="26">
-        <v>10</v>
-      </c>
-      <c r="D15" s="26">
-        <f>Boundaries!C60</f>
-        <v>63461.626666666671</v>
-      </c>
-      <c r="E15" s="26">
-        <f>Boundaries!D60</f>
-        <v>126923.25333333334</v>
-      </c>
-      <c r="F15" s="26">
-        <f>Boundaries!E60</f>
-        <v>190384.88</v>
-      </c>
-      <c r="G15" s="26">
-        <f>Boundaries!F60</f>
-        <v>253846.50666666668</v>
-      </c>
-      <c r="H15" s="26">
-        <f>Boundaries!G60</f>
-        <v>317308.13333333336</v>
-      </c>
-      <c r="I15" s="26">
-        <f>Boundaries!H60</f>
-        <v>380769.76</v>
-      </c>
-      <c r="J15" s="26">
-        <f>Boundaries!I60</f>
-        <v>444231.38666666666</v>
-      </c>
-      <c r="K15" s="26">
-        <f>Boundaries!J60</f>
-        <v>507693.01333333337</v>
-      </c>
-      <c r="L15" s="26">
-        <f>Boundaries!K60</f>
-        <v>571154.64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16">
-        <v>100</v>
-      </c>
-      <c r="C16" s="26">
-        <v>10</v>
-      </c>
-      <c r="D16" s="26">
-        <f>Boundaries!C61</f>
-        <v>888462.77333333332</v>
-      </c>
-      <c r="E16" s="26">
-        <f>Boundaries!D61</f>
-        <v>1776925.5466666666</v>
-      </c>
-      <c r="F16" s="26">
-        <f>Boundaries!E61</f>
-        <v>2665388.3199999998</v>
-      </c>
-      <c r="G16" s="26">
-        <f>Boundaries!F61</f>
-        <v>3553851.0933333333</v>
-      </c>
-      <c r="H16" s="26">
-        <f>Boundaries!G61</f>
-        <v>4442313.8666666662</v>
-      </c>
-      <c r="I16" s="26">
-        <f>Boundaries!H61</f>
-        <v>5330776.6399999997</v>
-      </c>
-      <c r="J16" s="26">
-        <f>Boundaries!I61</f>
-        <v>6219239.4133333331</v>
-      </c>
-      <c r="K16" s="26">
-        <f>Boundaries!J61</f>
-        <v>7107702.1866666665</v>
-      </c>
-      <c r="L16" s="26">
-        <f>Boundaries!K61</f>
-        <v>7996164.96</v>
       </c>
     </row>
   </sheetData>
